--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="20490" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
@@ -39,109 +39,109 @@
     <t>Escalado</t>
   </si>
   <si>
+    <t>ACYR</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>Sumido</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>BRIAN ROCHA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>BUGALSKI</t>
+  </si>
+  <si>
+    <t>CHRYSTIAN W.</t>
+  </si>
+  <si>
+    <t>As Vezes</t>
+  </si>
+  <si>
+    <t>CLEVISSON</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ZAG</t>
+  </si>
+  <si>
+    <t>HERCULANO</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>KESSLER</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MANTOVA</t>
+  </si>
+  <si>
+    <t>NAYAN</t>
+  </si>
+  <si>
+    <t>PATRESI</t>
+  </si>
+  <si>
     <t>PHILLIPE</t>
   </si>
   <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>Mensal</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>CHRYSTIAN W.</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>As Vezes</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>ZAG</t>
-  </si>
-  <si>
-    <t>MANTOVA</t>
-  </si>
-  <si>
-    <t>ACYR</t>
-  </si>
-  <si>
-    <t>Sumido</t>
-  </si>
-  <si>
-    <t>BUGALSKI</t>
-  </si>
-  <si>
-    <t>BRIAN ROCHA</t>
-  </si>
-  <si>
-    <t>DM</t>
+    <t>PIRAMBA</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>RENATINHO</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
+    <t>TURECK</t>
+  </si>
+  <si>
+    <t>TURRA</t>
   </si>
   <si>
     <t>VITOR</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>CLEVISSON</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>RENATINHO</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>TITI</t>
-  </si>
-  <si>
-    <t>PIRAMBA</t>
-  </si>
-  <si>
-    <t>PATRESI</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>NAYAN</t>
-  </si>
-  <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>TURECK</t>
-  </si>
-  <si>
-    <t>TURRA</t>
-  </si>
-  <si>
-    <t>KESSLER</t>
-  </si>
-  <si>
-    <t>HERCULANO</t>
-  </si>
-  <si>
-    <t>ARI</t>
   </si>
   <si>
     <t>Score</t>
@@ -153,12 +153,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,10 +188,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -202,14 +203,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,18 +224,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,16 +239,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +287,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -309,30 +312,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +327,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,31 +348,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +462,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,55 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,55 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +585,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -631,16 +640,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,170 +682,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -849,17 +843,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,9 +859,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,16 +1122,16 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
-    <col min="5" max="6" width="10.287037037037" customWidth="1"/>
-    <col min="7" max="19" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="3" max="4" width="7.57142857142857" customWidth="1"/>
+    <col min="5" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="7" max="19" width="7.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
@@ -1170,525 +1158,525 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
-        <v>87</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="10">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11">
         <f>VLOOKUP(A2,Upgrade!A:B,2,FALSE)</f>
-        <v>8.33</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>7.94</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VLOOKUP(A3,Upgrade!A:B,2,FALSE)</f>
+        <v>6.73</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
-        <v>88</v>
-      </c>
-      <c r="C3" s="12">
-        <f>VLOOKUP(A3,Upgrade!A:B,2,FALSE)</f>
-        <v>8.12</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="10">
+        <v>52</v>
+      </c>
+      <c r="C4" s="11">
         <f>VLOOKUP(A4,Upgrade!A:B,2,FALSE)</f>
-        <v>8.26</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>9</v>
+        <v>3.76</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
         <f>VLOOKUP(A5,Upgrade!A:B,2,FALSE)</f>
-        <v>8.2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>7.82</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11">
-        <v>18</v>
-      </c>
-      <c r="C6" s="12">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
         <f>VLOOKUP(A6,Upgrade!A:B,2,FALSE)</f>
-        <v>7.94</v>
-      </c>
-      <c r="D6" s="12" t="s">
+        <v>7.88</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11">
         <f>VLOOKUP(A7,Upgrade!A:B,2,FALSE)</f>
-        <v>7.88</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
+        <v>8.12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11">
+        <f>VLOOKUP(A8,Upgrade!A:B,2,FALSE)</f>
+        <v>7.27</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12">
-        <f>VLOOKUP(A8,Upgrade!A:B,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11">
-        <v>55</v>
-      </c>
-      <c r="C9" s="12">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
         <f>VLOOKUP(A9,Upgrade!A:B,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>7.71</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="11">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <f>VLOOKUP(A10,Upgrade!A:B,2,FALSE)</f>
-        <v>7.71</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>6.09</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
+        <f>VLOOKUP(A11,Upgrade!A:B,2,FALSE)</f>
+        <v>8.26</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12">
-        <f>VLOOKUP(A11,Upgrade!A:B,2,FALSE)</f>
-        <v>7.27</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>9</v>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
+        <v>94</v>
+      </c>
+      <c r="C12" s="11">
+        <f>VLOOKUP(A12,Upgrade!A:B,2,FALSE)</f>
+        <v>5.29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12">
-        <f>VLOOKUP(A12,Upgrade!A:B,2,FALSE)</f>
-        <v>7.55</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11">
         <f>VLOOKUP(A13,Upgrade!A:B,2,FALSE)</f>
-        <v>7.18</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10">
+        <v>89</v>
+      </c>
+      <c r="C14" s="11">
         <f>VLOOKUP(A14,Upgrade!A:B,2,FALSE)</f>
-        <v>6.88</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>9</v>
+        <v>6.53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
         <f>VLOOKUP(A15,Upgrade!A:B,2,FALSE)</f>
-        <v>6.68</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>5.35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="10">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11">
         <f>VLOOKUP(A16,Upgrade!A:B,2,FALSE)</f>
-        <v>6.56</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>6.88</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="10">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11">
         <f>VLOOKUP(A17,Upgrade!A:B,2,FALSE)</f>
-        <v>6.59</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>8.2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <f>VLOOKUP(A18,Upgrade!A:B,2,FALSE)</f>
-        <v>6.73</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>9</v>
+        <v>6.18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="11">
-        <v>89</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="10">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11">
         <f>VLOOKUP(A19,Upgrade!A:B,2,FALSE)</f>
-        <v>6.53</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>6.59</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="11">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10">
+        <v>87</v>
+      </c>
+      <c r="C20" s="11">
         <f>VLOOKUP(A20,Upgrade!A:B,2,FALSE)</f>
-        <v>6.09</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>8.33</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="11">
-        <v>5</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="10">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11">
         <f>VLOOKUP(A21,Upgrade!A:B,2,FALSE)</f>
-        <v>6.18</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>6.56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11">
-        <v>20</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11">
         <f>VLOOKUP(A22,Upgrade!A:B,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="12" t="s">
+        <v>7.65</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="11">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="10">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
         <f>VLOOKUP(A23,Upgrade!A:B,2,FALSE)</f>
-        <v>5.96</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12" t="s">
+        <v>7.18</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11">
-        <v>19</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11">
         <f>VLOOKUP(A24,Upgrade!A:B,2,FALSE)</f>
-        <v>5.71</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>6.68</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="11">
-        <v>2</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="10">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11">
         <f>VLOOKUP(A25,Upgrade!A:B,2,FALSE)</f>
-        <v>5.35</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="12"/>
+        <v>5.96</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="11">
-        <v>94</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="10">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11">
         <f>VLOOKUP(A26,Upgrade!A:B,2,FALSE)</f>
-        <v>5.29</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="12"/>
+        <v>5.71</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="11">
-        <v>52</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="10">
+        <v>55</v>
+      </c>
+      <c r="C27" s="11">
         <f>VLOOKUP(A27,Upgrade!A:B,2,FALSE)</f>
-        <v>3.76</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="12"/>
+        <v>7.82</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -2659,8 +2647,8 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:F27">
-    <sortState ref="A1:F27">
-      <sortCondition ref="C1" descending="1"/>
+    <sortState ref="A2:F27">
+      <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -2676,15 +2664,15 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="3" width="7.57407407407407" customWidth="1"/>
-    <col min="4" max="4" width="10.287037037037" customWidth="1"/>
-    <col min="5" max="16" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="3" width="7.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
+    <col min="5" max="16" width="7.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:4">
@@ -2703,7 +2691,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6">
         <f>C2-0.2</f>
@@ -2713,12 +2701,12 @@
         <v>8.53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B9" si="0">C3</f>
@@ -2731,7 +2719,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <f>C4+0.2</f>
@@ -2741,12 +2729,12 @@
         <v>8.06</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6">
         <f>C5+0.2</f>
@@ -2756,12 +2744,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
@@ -2774,7 +2762,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -2784,12 +2772,12 @@
         <v>7.88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
@@ -2802,7 +2790,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
@@ -2815,7 +2803,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ref="B10:B14" si="1">C10</f>
@@ -2825,12 +2813,12 @@
         <v>7.71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" ref="B11:B16" si="2">C11-0.2</f>
@@ -2840,27 +2828,27 @@
         <v>7.47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6">
-        <f>C12+0.2</f>
-        <v>7.55</v>
+        <f>C12+0.2+0.1</f>
+        <v>7.65</v>
       </c>
       <c r="C12" s="7">
         <v>7.35</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="1"/>
@@ -2870,12 +2858,12 @@
         <v>7.18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="1"/>
@@ -2885,12 +2873,12 @@
         <v>6.88</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="2"/>
@@ -2900,12 +2888,12 @@
         <v>6.88</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="2"/>
@@ -2914,13 +2902,13 @@
       <c r="C16" s="7">
         <v>6.76</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" ref="B17:B22" si="3">C17</f>
@@ -2933,7 +2921,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6">
         <f>C18+0.2</f>
@@ -2943,12 +2931,12 @@
         <v>6.53</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9">
         <f t="shared" si="3"/>
@@ -2961,7 +2949,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
         <f>C20-0.2</f>
@@ -2971,12 +2959,12 @@
         <v>6.29</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="3"/>
@@ -2986,12 +2974,12 @@
         <v>6.18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9">
         <f t="shared" si="3"/>
@@ -3004,7 +2992,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6">
         <f>C23+0.2</f>
@@ -3014,12 +3002,12 @@
         <v>5.76</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="9">
         <f t="shared" ref="B24:B27" si="4">C24</f>
@@ -3032,7 +3020,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B25" s="9">
         <f t="shared" si="4"/>
@@ -3045,7 +3033,7 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9">
         <f t="shared" si="4"/>
@@ -3058,7 +3046,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B27" s="9">
         <f t="shared" si="4"/>

--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="10590"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>Nome</t>
   </si>
@@ -39,6 +39,30 @@
     <t>Escalado</t>
   </si>
   <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ZAG</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PHILLIPE</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>MANTOVA</t>
+  </si>
+  <si>
     <t>ACYR</t>
   </si>
   <si>
@@ -48,19 +72,13 @@
     <t>Sumido</t>
   </si>
   <si>
-    <t>ANDRE</t>
+    <t>CHRYSTIAN W.</t>
   </si>
   <si>
-    <t>MEI</t>
+    <t>As Vezes</t>
   </si>
   <si>
-    <t>Mensal</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>ARI</t>
+    <t>BUGALSKI</t>
   </si>
   <si>
     <t>BRIAN ROCHA</t>
@@ -69,70 +87,46 @@
     <t>DM</t>
   </si>
   <si>
-    <t>BUGALSKI</t>
+    <t>VITOR</t>
   </si>
   <si>
-    <t>CHRYSTIAN W.</t>
+    <t>GIL</t>
   </si>
   <si>
-    <t>As Vezes</t>
+    <t>RAFAEL</t>
   </si>
   <si>
     <t>CLEVISSON</t>
   </si>
   <si>
-    <t>GIL</t>
+    <t>RENATINHO</t>
+  </si>
+  <si>
+    <t>PATRESI</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>PIRAMBA</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>TITI</t>
   </si>
   <si>
     <t>GUI</t>
   </si>
   <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>ZAG</t>
-  </si>
-  <si>
-    <t>HERCULANO</t>
-  </si>
-  <si>
     <t>JEAN</t>
   </si>
   <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
-    <t>KESSLER</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>MANTOVA</t>
-  </si>
-  <si>
     <t>NAYAN</t>
-  </si>
-  <si>
-    <t>PATRESI</t>
-  </si>
-  <si>
-    <t>PHILLIPE</t>
-  </si>
-  <si>
-    <t>PIRAMBA</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>RENATINHO</t>
-  </si>
-  <si>
-    <t>TITI</t>
   </si>
   <si>
     <t>TURECK</t>
@@ -141,7 +135,13 @@
     <t>TURRA</t>
   </si>
   <si>
-    <t>VITOR</t>
+    <t>KESSLER</t>
+  </si>
+  <si>
+    <t>HERCULANO</t>
+  </si>
+  <si>
+    <t>ARI</t>
   </si>
   <si>
     <t>Score</t>
@@ -153,8 +153,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -188,31 +188,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,9 +221,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,39 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -287,14 +265,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -302,17 +272,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,8 +301,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +318,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +348,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,109 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,13 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,32 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,9 +611,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,184 +682,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -843,21 +843,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1122,16 +1123,16 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
-    <col min="3" max="4" width="7.57142857142857" customWidth="1"/>
-    <col min="5" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="7" max="19" width="7.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
+    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
+    <col min="5" max="6" width="10.287037037037" customWidth="1"/>
+    <col min="7" max="19" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
@@ -1158,525 +1159,525 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11">
-        <f>VLOOKUP(A2,Upgrade!A:B,2,FALSE)</f>
-        <v>7.94</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="12">
+        <f>VLOOKUP(A2,Upgrade!A:C,2,FALSE)</f>
+        <v>8.36</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13">
+        <v>87</v>
+      </c>
+      <c r="C3" s="12">
+        <f>VLOOKUP(A3,Upgrade!A:C,2,FALSE)</f>
+        <v>8.33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="C3" s="11">
-        <f>VLOOKUP(A3,Upgrade!A:B,2,FALSE)</f>
-        <v>6.73</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
-        <v>52</v>
-      </c>
-      <c r="C4" s="11">
-        <f>VLOOKUP(A4,Upgrade!A:B,2,FALSE)</f>
-        <v>3.76</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="13">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <f>VLOOKUP(A4,Upgrade!A:C,2,FALSE)</f>
+        <v>8.3</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11">
-        <f>VLOOKUP(A5,Upgrade!A:B,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="13">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12">
+        <f>VLOOKUP(A5,Upgrade!A:C,2,FALSE)</f>
+        <v>7.94</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
-        <f>VLOOKUP(A6,Upgrade!A:B,2,FALSE)</f>
-        <v>7.88</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12">
+        <f>VLOOKUP(A6,Upgrade!A:C,2,FALSE)</f>
+        <v>7.92</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11">
-        <f>VLOOKUP(A7,Upgrade!A:B,2,FALSE)</f>
-        <v>8.12</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B7" s="13">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <f>VLOOKUP(A7,Upgrade!A:C,2,FALSE)</f>
+        <v>7.88</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11">
-        <f>VLOOKUP(A8,Upgrade!A:B,2,FALSE)</f>
-        <v>7.27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13">
         <v>12</v>
       </c>
+      <c r="C8" s="12">
+        <f>VLOOKUP(A8,Upgrade!A:C,2,FALSE)</f>
+        <v>7.82</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
-        <f>VLOOKUP(A9,Upgrade!A:B,2,FALSE)</f>
-        <v>7.71</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12">
+        <f>VLOOKUP(A9,Upgrade!A:C,2,FALSE)</f>
+        <v>7.82</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11">
-        <f>VLOOKUP(A10,Upgrade!A:B,2,FALSE)</f>
-        <v>6.09</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <f>VLOOKUP(A10,Upgrade!A:C,2,FALSE)</f>
+        <v>7.81</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="11">
-        <f>VLOOKUP(A11,Upgrade!A:B,2,FALSE)</f>
-        <v>8.26</v>
-      </c>
-      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
+      <c r="B11" s="13">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
+        <f>VLOOKUP(A11,Upgrade!A:C,2,FALSE)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10">
-        <v>94</v>
-      </c>
-      <c r="C12" s="11">
-        <f>VLOOKUP(A12,Upgrade!A:B,2,FALSE)</f>
-        <v>5.29</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="13">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12">
+        <f>VLOOKUP(A12,Upgrade!A:C,2,FALSE)</f>
+        <v>7.37</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11">
-        <f>VLOOKUP(A13,Upgrade!A:B,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12">
+        <f>VLOOKUP(A13,Upgrade!A:C,2,FALSE)</f>
+        <v>7.28</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10">
-        <v>89</v>
-      </c>
-      <c r="C14" s="11">
-        <f>VLOOKUP(A14,Upgrade!A:B,2,FALSE)</f>
-        <v>6.53</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="13">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12">
+        <f>VLOOKUP(A14,Upgrade!A:C,2,FALSE)</f>
+        <v>6.69</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <f>VLOOKUP(A15,Upgrade!A:B,2,FALSE)</f>
-        <v>5.35</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <f>VLOOKUP(A15,Upgrade!A:C,2,FALSE)</f>
+        <v>6.68</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="10">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11">
-        <f>VLOOKUP(A16,Upgrade!A:B,2,FALSE)</f>
-        <v>6.88</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="13">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12">
+        <f>VLOOKUP(A16,Upgrade!A:C,2,FALSE)</f>
+        <v>6.63</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="10">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11">
-        <f>VLOOKUP(A17,Upgrade!A:B,2,FALSE)</f>
-        <v>8.2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="13">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12">
+        <f>VLOOKUP(A17,Upgrade!A:C,2,FALSE)</f>
+        <v>6.56</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
-        <f>VLOOKUP(A18,Upgrade!A:B,2,FALSE)</f>
-        <v>6.18</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="13">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12">
+        <f>VLOOKUP(A18,Upgrade!A:C,2,FALSE)</f>
+        <v>6.53</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10">
-        <v>38</v>
-      </c>
-      <c r="C19" s="11">
-        <f>VLOOKUP(A19,Upgrade!A:B,2,FALSE)</f>
-        <v>6.59</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12">
+        <f>VLOOKUP(A19,Upgrade!A:C,2,FALSE)</f>
+        <v>6.48</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="10">
-        <v>87</v>
-      </c>
-      <c r="C20" s="11">
-        <f>VLOOKUP(A20,Upgrade!A:B,2,FALSE)</f>
-        <v>8.33</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="13">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12">
+        <f>VLOOKUP(A20,Upgrade!A:C,2,FALSE)</f>
+        <v>6.19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="10">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11">
-        <f>VLOOKUP(A21,Upgrade!A:B,2,FALSE)</f>
-        <v>6.56</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <f>VLOOKUP(A21,Upgrade!A:C,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="10">
-        <v>15</v>
-      </c>
-      <c r="C22" s="11">
-        <f>VLOOKUP(A22,Upgrade!A:B,2,FALSE)</f>
-        <v>7.65</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="B22" s="13">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
+        <f>VLOOKUP(A22,Upgrade!A:C,2,FALSE)</f>
+        <v>5.98</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="10">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <f>VLOOKUP(A23,Upgrade!A:B,2,FALSE)</f>
-        <v>7.18</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="B23" s="13">
+        <v>16</v>
+      </c>
+      <c r="C23" s="12">
+        <f>VLOOKUP(A23,Upgrade!A:C,2,FALSE)</f>
+        <v>5.96</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="E23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="10">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11">
-        <f>VLOOKUP(A24,Upgrade!A:B,2,FALSE)</f>
-        <v>6.68</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="13">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12">
+        <f>VLOOKUP(A24,Upgrade!A:C,2,FALSE)</f>
+        <v>5.71</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="10">
-        <v>16</v>
-      </c>
-      <c r="C25" s="11">
-        <f>VLOOKUP(A25,Upgrade!A:B,2,FALSE)</f>
-        <v>5.96</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="B25" s="13">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12">
+        <f>VLOOKUP(A25,Upgrade!A:C,2,FALSE)</f>
+        <v>5.35</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="10">
-        <v>19</v>
-      </c>
-      <c r="C26" s="11">
-        <f>VLOOKUP(A26,Upgrade!A:B,2,FALSE)</f>
-        <v>5.71</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="11"/>
+      <c r="B26" s="13">
+        <v>94</v>
+      </c>
+      <c r="C26" s="12">
+        <f>VLOOKUP(A26,Upgrade!A:C,2,FALSE)</f>
+        <v>5.29</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="10">
-        <v>55</v>
-      </c>
-      <c r="C27" s="11">
-        <f>VLOOKUP(A27,Upgrade!A:B,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="13">
+        <v>52</v>
+      </c>
+      <c r="C27" s="12">
+        <f>VLOOKUP(A27,Upgrade!A:C,2,FALSE)</f>
+        <v>3.96</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="11"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -2648,7 +2649,7 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="C1" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -2660,402 +2661,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D994"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="3" width="7.57142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
-    <col min="5" max="16" width="7.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="8.44444444444444" customWidth="1"/>
+    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
+    <col min="5" max="5" width="10.287037037037" customWidth="1"/>
+    <col min="6" max="17" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1" ht="14.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
+        <f>C1+7</f>
+        <v>44975</v>
+      </c>
+      <c r="C1" s="2">
         <v>44968</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:4">
+    <row r="2" ht="14.25" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6">
-        <f>C2-0.2</f>
+        <f t="shared" ref="B2:B9" si="0">C2</f>
         <v>8.33</v>
       </c>
       <c r="C2" s="7">
+        <f>D2-0.2</f>
+        <v>8.33</v>
+      </c>
+      <c r="D2" s="8">
         <v>8.53</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E2" s="9" t="str">
+        <f>VLOOKUP(A2,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
-        <f t="shared" ref="B3:B9" si="0">C3</f>
+      <c r="B3" s="6">
+        <f>C3-0.2</f>
+        <v>7.92</v>
+      </c>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:C9" si="1">D3</f>
         <v>8.12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="8">
         <v>8.12</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E3" s="9">
+        <f>VLOOKUP(A3,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
-        <f>C4+0.2</f>
+        <f>C4+0.1</f>
+        <v>8.36</v>
+      </c>
+      <c r="C4" s="7">
+        <f>D4+0.2</f>
         <v>8.26</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="8">
         <v>8.06</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E4" s="9" t="str">
+        <f>VLOOKUP(A4,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
-        <f>C5+0.2</f>
+        <f>C5+0.1</f>
+        <v>8.3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>D5+0.2</f>
         <v>8.2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E5" s="9">
+        <f>VLOOKUP(A5,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>7.94</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
+        <f t="shared" si="1"/>
         <v>7.94</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:4">
+      <c r="D6" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="E6" s="9" t="e">
+        <f>VLOOKUP(A6,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>7.88</v>
       </c>
       <c r="C7" s="7">
+        <f t="shared" si="1"/>
         <v>7.88</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:4">
+      <c r="D7" s="8">
+        <v>7.88</v>
+      </c>
+      <c r="E7" s="9">
+        <f>VLOOKUP(A7,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>7.82</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
+        <f t="shared" si="1"/>
         <v>7.82</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:4">
+      <c r="D8" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="E8" s="9">
+        <f>VLOOKUP(A8,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="9">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7.82</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
+        <f t="shared" si="1"/>
         <v>7.82</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:4">
+      <c r="D9" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:B14" si="1">C10</f>
+        <f t="shared" ref="B10:B13" si="2">C10+0.1</f>
+        <v>7.81</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" ref="C10:C14" si="3">D10</f>
         <v>7.71</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="8">
         <v>7.71</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E10" s="9" t="str">
+        <f>VLOOKUP(A10,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B16" si="2">C11-0.2</f>
+        <f t="shared" si="2"/>
+        <v>7.37</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" ref="C11:C16" si="4">D11-0.2</f>
         <v>7.27</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="8">
         <v>7.47</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:4">
+      <c r="E11" s="9" t="str">
+        <f>VLOOKUP(A11,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="C12" s="7">
+        <f>D12+0.2+0.1</f>
+        <v>7.65</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7.35</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f>VLOOKUP(A12,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="2"/>
+        <v>7.28</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="3"/>
+        <v>7.18</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f>VLOOKUP(A13,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" ref="B14:B18" si="5">C14-0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="3"/>
+        <v>6.88</v>
+      </c>
+      <c r="D14" s="8">
+        <v>6.88</v>
+      </c>
+      <c r="E14" s="9">
+        <f>VLOOKUP(A14,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="5"/>
+        <v>6.48</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="4"/>
+        <v>6.68</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.88</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f>VLOOKUP(A15,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <f>C16</f>
+        <v>6.56</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="4"/>
+        <v>6.56</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.76</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ref="B17:B20" si="6">C17+0.1</f>
+        <v>6.69</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:C22" si="7">D17</f>
+        <v>6.59</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6.59</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f>VLOOKUP(A17,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="5"/>
+        <v>6.53</v>
+      </c>
+      <c r="C18" s="7">
+        <f>D18+0.2</f>
+        <v>6.73</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="E18" s="9" t="e">
+        <f>VLOOKUP(A18,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="6"/>
+        <v>6.63</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="7"/>
+        <v>6.53</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f>VLOOKUP(A19,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="6"/>
+        <v>6.19</v>
+      </c>
+      <c r="C20" s="7">
+        <f>D20-0.2</f>
+        <v>6.09</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6.29</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f>VLOOKUP(A20,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" hidden="1" customHeight="1" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6">
-        <f>C12+0.2+0.1</f>
-        <v>7.65</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="B21" s="6">
+        <f>C21-0.2</f>
+        <v>5.98</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="7"/>
+        <v>6.18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.18</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f>VLOOKUP(A21,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:B26" si="8">C22</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f>VLOOKUP(A22,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6">
-        <f t="shared" si="1"/>
-        <v>7.18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="1"/>
-        <v>6.88</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6.88</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="B23" s="6">
+        <f t="shared" si="8"/>
+        <v>5.96</v>
+      </c>
+      <c r="C23" s="7">
+        <f>D23+0.2</f>
+        <v>5.96</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="E23" s="9">
+        <f>VLOOKUP(A23,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
-        <v>6.68</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.88</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="2"/>
-        <v>6.56</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6.76</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" ref="B17:B22" si="3">C17</f>
-        <v>6.59</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6.59</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6">
-        <f>C18+0.2</f>
-        <v>6.73</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6.53</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9">
-        <f t="shared" si="3"/>
-        <v>6.53</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6.53</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6">
-        <f>C20-0.2</f>
-        <v>6.09</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6.29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="3"/>
-        <v>6.18</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6.18</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="6">
+        <f t="shared" si="8"/>
+        <v>5.71</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:C27" si="9">D24</f>
+        <v>5.71</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="E24" s="9">
+        <f>VLOOKUP(A24,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="6">
-        <f>C23+0.2</f>
-        <v>5.96</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5.76</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="6">
+        <f t="shared" si="8"/>
+        <v>5.35</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="9"/>
+        <v>5.35</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5.35</v>
+      </c>
+      <c r="E25" s="9">
+        <f>VLOOKUP(A25,'Base de Craques'!A:F,6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9">
-        <f t="shared" ref="B24:B27" si="4">C24</f>
-        <v>5.71</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5.71</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9">
-        <f t="shared" si="4"/>
-        <v>5.35</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5.35</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9">
-        <f t="shared" si="4"/>
+      <c r="B26" s="6">
+        <f t="shared" si="8"/>
         <v>5.29</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="10">
+        <f t="shared" si="9"/>
         <v>5.29</v>
       </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:4">
+      <c r="D26" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f>VLOOKUP(A26,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="9">
-        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="6">
+        <f>C27+0.1+0.1</f>
+        <v>3.96</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="9"/>
         <v>3.76</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27" s="8">
         <v>3.76</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="e">
+        <f>VLOOKUP(A27,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -4025,9 +4183,14 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:D27">
-    <sortState ref="A1:D27">
-      <sortCondition ref="C1:C27" descending="1"/>
+  <autoFilter ref="A1:E27">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A1:E27">
+      <sortCondition ref="D1:D27" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>

--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t>Nome</t>
   </si>
@@ -39,6 +39,54 @@
     <t>Escalado</t>
   </si>
   <si>
+    <t>ACYR</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>Sumido</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>BRIAN ROCHA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>BUGALSKI</t>
+  </si>
+  <si>
+    <t>CHRYSTIAN W.</t>
+  </si>
+  <si>
+    <t>As Vezes</t>
+  </si>
+  <si>
+    <t>CLEVISSON</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
     <t>GUSTAVO</t>
   </si>
   <si>
@@ -48,85 +96,46 @@
     <t>ZAG</t>
   </si>
   <si>
-    <t>Mensal</t>
+    <t>HERCULANO</t>
   </si>
   <si>
-    <t>X</t>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>KESSLER</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MANTOVA</t>
+  </si>
+  <si>
+    <t>NAYAN</t>
+  </si>
+  <si>
+    <t>PATRESI</t>
   </si>
   <si>
     <t>PHILLIPE</t>
   </si>
   <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>MANTOVA</t>
-  </si>
-  <si>
-    <t>ACYR</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>Sumido</t>
-  </si>
-  <si>
-    <t>CHRYSTIAN W.</t>
-  </si>
-  <si>
-    <t>As Vezes</t>
-  </si>
-  <si>
-    <t>BUGALSKI</t>
-  </si>
-  <si>
-    <t>BRIAN ROCHA</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>GIL</t>
+    <t>PIRAMBA</t>
   </si>
   <si>
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>CLEVISSON</t>
-  </si>
-  <si>
     <t>RENATINHO</t>
   </si>
   <si>
-    <t>PATRESI</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
-    <t>PIRAMBA</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
     <t>TITI</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>NAYAN</t>
   </si>
   <si>
     <t>TURECK</t>
@@ -135,13 +144,7 @@
     <t>TURRA</t>
   </si>
   <si>
-    <t>KESSLER</t>
-  </si>
-  <si>
-    <t>HERCULANO</t>
-  </si>
-  <si>
-    <t>ARI</t>
+    <t>VITOR</t>
   </si>
   <si>
     <t>Score</t>
@@ -152,11 +155,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -188,24 +191,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,23 +214,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,8 +242,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -272,45 +289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +314,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +329,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +393,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,55 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +465,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,25 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,15 +632,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,151 +674,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,22 +846,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1159,402 +1162,400 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
+      <c r="B2" s="11">
+        <v>18</v>
       </c>
       <c r="C2" s="12">
         <f>VLOOKUP(A2,Upgrade!A:C,2,FALSE)</f>
-        <v>8.36</v>
+        <v>7.94</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="13">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="11">
+        <v>47</v>
       </c>
       <c r="C3" s="12">
         <f>VLOOKUP(A3,Upgrade!A:C,2,FALSE)</f>
-        <v>8.33</v>
+        <v>6.53</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13">
-        <v>13</v>
+      <c r="B4" s="11">
+        <v>52</v>
       </c>
       <c r="C4" s="12">
         <f>VLOOKUP(A4,Upgrade!A:C,2,FALSE)</f>
-        <v>8.3</v>
+        <v>3.96</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13">
-        <v>18</v>
+      <c r="B5" s="11">
+        <v>12</v>
       </c>
       <c r="C5" s="12">
         <f>VLOOKUP(A5,Upgrade!A:C,2,FALSE)</f>
-        <v>7.94</v>
+        <v>7.82</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9</v>
       </c>
       <c r="C6" s="12">
         <f>VLOOKUP(A6,Upgrade!A:C,2,FALSE)</f>
-        <v>7.92</v>
+        <v>7.88</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="11">
+        <v>88</v>
       </c>
       <c r="C7" s="12">
         <f>VLOOKUP(A7,Upgrade!A:C,2,FALSE)</f>
-        <v>7.88</v>
+        <v>7.92</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F7" s="12"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="11">
+        <v>17</v>
       </c>
       <c r="C8" s="12">
         <f>VLOOKUP(A8,Upgrade!A:C,2,FALSE)</f>
-        <v>7.82</v>
+        <v>7.37</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="13">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10</v>
       </c>
       <c r="C9" s="12">
         <f>VLOOKUP(A9,Upgrade!A:C,2,FALSE)</f>
-        <v>7.82</v>
+        <v>7.81</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="11">
+        <v>7</v>
       </c>
       <c r="C10" s="12">
         <f>VLOOKUP(A10,Upgrade!A:C,2,FALSE)</f>
-        <v>7.81</v>
+        <v>6.19</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="12">
         <f>VLOOKUP(A11,Upgrade!A:C,2,FALSE)</f>
-        <v>7.75</v>
+        <v>8.36</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="13">
-        <v>17</v>
+      <c r="B12" s="11">
+        <v>94</v>
       </c>
       <c r="C12" s="12">
         <f>VLOOKUP(A12,Upgrade!A:C,2,FALSE)</f>
-        <v>7.37</v>
+        <v>5.29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13">
-        <v>11</v>
+      <c r="B13" s="11">
+        <v>20</v>
       </c>
       <c r="C13" s="12">
         <f>VLOOKUP(A13,Upgrade!A:C,2,FALSE)</f>
-        <v>7.28</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13">
-        <v>38</v>
+      <c r="B14" s="11">
+        <v>89</v>
       </c>
       <c r="C14" s="12">
         <f>VLOOKUP(A14,Upgrade!A:C,2,FALSE)</f>
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="13">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
       </c>
       <c r="C15" s="12">
         <f>VLOOKUP(A15,Upgrade!A:C,2,FALSE)</f>
-        <v>6.68</v>
+        <v>5.35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="13">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>8</v>
       </c>
       <c r="C16" s="12">
         <f>VLOOKUP(A16,Upgrade!A:C,2,FALSE)</f>
-        <v>6.63</v>
+        <v>6.68</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="13">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="11">
+        <v>13</v>
       </c>
       <c r="C17" s="12">
         <f>VLOOKUP(A17,Upgrade!A:C,2,FALSE)</f>
-        <v>6.56</v>
+        <v>8.3</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="13">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="11">
+        <v>5</v>
       </c>
       <c r="C18" s="12">
         <f>VLOOKUP(A18,Upgrade!A:C,2,FALSE)</f>
-        <v>6.53</v>
+        <v>5.98</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="13">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>38</v>
       </c>
       <c r="C19" s="12">
         <f>VLOOKUP(A19,Upgrade!A:C,2,FALSE)</f>
-        <v>6.48</v>
+        <v>6.69</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B20" s="11">
+        <v>87</v>
       </c>
       <c r="C20" s="12">
         <f>VLOOKUP(A20,Upgrade!A:C,2,FALSE)</f>
-        <v>6.19</v>
+        <v>8.33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="13">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="11">
+        <v>14</v>
       </c>
       <c r="C21" s="12">
         <f>VLOOKUP(A21,Upgrade!A:C,2,FALSE)</f>
-        <v>6</v>
+        <v>6.56</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>18</v>
@@ -1563,76 +1564,80 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="13">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="11">
+        <v>15</v>
       </c>
       <c r="C22" s="12">
         <f>VLOOKUP(A22,Upgrade!A:C,2,FALSE)</f>
-        <v>5.98</v>
+        <v>7.75</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="11">
+        <v>11</v>
       </c>
       <c r="C23" s="12">
         <f>VLOOKUP(A23,Upgrade!A:C,2,FALSE)</f>
-        <v>5.96</v>
+        <v>7.28</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="13">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4</v>
       </c>
       <c r="C24" s="12">
         <f>VLOOKUP(A24,Upgrade!A:C,2,FALSE)</f>
-        <v>5.71</v>
+        <v>6.48</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="13">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="11">
+        <v>16</v>
       </c>
       <c r="C25" s="12">
         <f>VLOOKUP(A25,Upgrade!A:C,2,FALSE)</f>
-        <v>5.35</v>
+        <v>5.96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>18</v>
@@ -1641,43 +1646,41 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="11">
+        <v>19</v>
       </c>
       <c r="C26" s="12">
         <f>VLOOKUP(A26,Upgrade!A:C,2,FALSE)</f>
-        <v>5.29</v>
+        <v>5.71</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="13">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>55</v>
       </c>
       <c r="C27" s="12">
         <f>VLOOKUP(A27,Upgrade!A:C,2,FALSE)</f>
-        <v>3.96</v>
+        <v>7.82</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -2649,7 +2652,7 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition ref="C1" descending="1"/>
+      <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -2689,7 +2692,7 @@
         <v>44968</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6">
         <f t="shared" ref="B2:B9" si="0">C2</f>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="4" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <f>C4+0.1</f>
@@ -2757,7 +2760,7 @@
     </row>
     <row r="5" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6">
         <f>C5+0.1</f>
@@ -2770,14 +2773,14 @@
       <c r="D5" s="8">
         <v>8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="9" t="str">
         <f>VLOOKUP(A5,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
@@ -2790,14 +2793,14 @@
       <c r="D6" s="8">
         <v>7.94</v>
       </c>
-      <c r="E6" s="9" t="e">
+      <c r="E6" s="9">
         <f>VLOOKUP(A6,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -2810,14 +2813,14 @@
       <c r="D7" s="8">
         <v>7.88</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="9" t="str">
         <f>VLOOKUP(A7,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
@@ -2837,7 +2840,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
@@ -2850,14 +2853,14 @@
       <c r="D9" s="8">
         <v>7.82</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="9">
         <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ref="B10:B13" si="2">C10+0.1</f>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="11" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2897,7 +2900,7 @@
     </row>
     <row r="12" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="2"/>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="13" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="2"/>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="14" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:B18" si="5">C14-0.2</f>
@@ -2950,14 +2953,14 @@
       <c r="D14" s="8">
         <v>6.88</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="9" t="str">
         <f>VLOOKUP(A14,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="15" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="5"/>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6">
         <f>C16</f>
@@ -2990,14 +2993,14 @@
       <c r="D16" s="8">
         <v>6.76</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="9">
         <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ref="B17:B20" si="6">C17+0.1</f>
@@ -3010,14 +3013,14 @@
       <c r="D17" s="8">
         <v>6.59</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="9">
         <f>VLOOKUP(A17,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="5"/>
@@ -3030,14 +3033,14 @@
       <c r="D18" s="8">
         <v>6.53</v>
       </c>
-      <c r="E18" s="9" t="e">
+      <c r="E18" s="9" t="str">
         <f>VLOOKUP(A18,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="6"/>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="20" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="6"/>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="21" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
         <f>C21-0.2</f>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" ref="B22:B26" si="8">C22</f>
@@ -3110,14 +3113,14 @@
       <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="9">
         <f>VLOOKUP(A22,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="8"/>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="8"/>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="8"/>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="8"/>
@@ -3190,14 +3193,14 @@
       <c r="D26" s="8">
         <v>5.29</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="9">
         <f>VLOOKUP(A26,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B27" s="6">
         <f>C27+0.1+0.1</f>
@@ -3210,9 +3213,9 @@
       <c r="D27" s="8">
         <v>3.76</v>
       </c>
-      <c r="E27" s="9" t="e">
+      <c r="E27" s="9" t="str">
         <f>VLOOKUP(A27,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
@@ -4185,9 +4188,9 @@
   </sheetData>
   <autoFilter ref="A1:E27">
     <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
     </filterColumn>
     <sortState ref="A1:E27">
       <sortCondition ref="D1:D27" descending="1"/>

--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -57,10 +57,10 @@
     <t>Mensal</t>
   </si>
   <si>
-    <t>X</t>
+    <t>ARI</t>
   </si>
   <si>
-    <t>ARI</t>
+    <t>X</t>
   </si>
   <si>
     <t>BRIAN ROCHA</t>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -191,29 +191,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -229,7 +206,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +222,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +261,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +305,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -298,10 +313,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,21 +330,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +351,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,6 +412,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,109 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,11 +588,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +627,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -623,15 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,176 +677,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1194,13 +1194,11 @@
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11">
         <v>52</v>
@@ -1216,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
@@ -1256,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
@@ -1296,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
@@ -1317,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
@@ -1338,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
@@ -1359,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
@@ -1417,9 +1415,7 @@
       <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="5" t="s">
@@ -1458,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
@@ -1479,7 +1475,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
@@ -1500,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:6">
@@ -1540,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:6">
@@ -1560,7 +1556,9 @@
       <c r="E21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
       <c r="A22" s="5" t="s">
@@ -1580,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
@@ -1601,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
@@ -1622,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
@@ -1680,7 +1678,9 @@
       <c r="E27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -2651,7 +2651,7 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:F27">
-    <sortState ref="A2:F27">
+    <sortState ref="A1:F27">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
@@ -2853,9 +2853,9 @@
       <c r="D9" s="8">
         <v>7.82</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="9" t="str">
         <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="10" ht="14.25" hidden="1" customHeight="1" spans="1:5">
@@ -2993,9 +2993,9 @@
       <c r="D16" s="8">
         <v>6.76</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="str">
         <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="17" ht="14.25" hidden="1" customHeight="1" spans="1:5">
@@ -3033,9 +3033,9 @@
       <c r="D18" s="8">
         <v>6.53</v>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="9">
         <f>VLOOKUP(A18,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="14.25" hidden="1" customHeight="1" spans="1:5">
@@ -3053,9 +3053,9 @@
       <c r="D19" s="8">
         <v>6.53</v>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="9">
         <f>VLOOKUP(A19,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="14.25" hidden="1" customHeight="1" spans="1:5">
@@ -3200,7 +3200,7 @@
     </row>
     <row r="27" ht="14.25" hidden="1" customHeight="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="6">
         <f>C27+0.1+0.1</f>

--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="25620" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
     <sheet name="Upgrade" sheetId="2" r:id="rId2"/>
+    <sheet name="Escalado" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$27</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>Nome</t>
   </si>
@@ -39,118 +40,160 @@
     <t>Escalado</t>
   </si>
   <si>
+    <t>PHILLIPE</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ZAG</t>
+  </si>
+  <si>
     <t>BUGALSKI</t>
   </si>
   <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>Mensal</t>
+    <t>CLEVISSON</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>ACYR</t>
+  </si>
+  <si>
+    <t>Sumido</t>
+  </si>
+  <si>
+    <t>CHRYSTIAN W.</t>
+  </si>
+  <si>
+    <t>As Vezes</t>
+  </si>
+  <si>
+    <t>MANTOVA</t>
+  </si>
+  <si>
+    <t>BRIAN ROCHA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>RENATINHO</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
+    <t>PIRAMBA</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>PATRESI</t>
+  </si>
+  <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>NAYAN</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>TURECK</t>
+  </si>
+  <si>
+    <t>TURRA</t>
+  </si>
+  <si>
+    <t>HERCULANO</t>
+  </si>
+  <si>
+    <t>KESSLER</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Variação SR</t>
+  </si>
+  <si>
+    <t>Gui</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>PHILLIPE</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>ZAG</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>VOL</t>
-  </si>
-  <si>
-    <t>ACYR</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>Sumido</t>
-  </si>
-  <si>
-    <t>CHRYSTIAN W.</t>
-  </si>
-  <si>
-    <t>As Vezes</t>
-  </si>
-  <si>
-    <t>MANTOVA</t>
-  </si>
-  <si>
-    <t>BRIAN ROCHA</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>CLEVISSON</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>RENATINHO</t>
-  </si>
-  <si>
-    <t>PATRESI</t>
-  </si>
-  <si>
-    <t>TITI</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
-    <t>PIRAMBA</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>NAYAN</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>TURECK</t>
-  </si>
-  <si>
-    <t>TURRA</t>
-  </si>
-  <si>
-    <t>KESSLER</t>
-  </si>
-  <si>
-    <t>HERCULANO</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Variação SR</t>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Patresi</t>
+  </si>
+  <si>
+    <t>Clevisson</t>
+  </si>
+  <si>
+    <t>Bugalski</t>
+  </si>
+  <si>
+    <t>Nayan</t>
+  </si>
+  <si>
+    <t>Phillipe</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Renatinho</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
@@ -158,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -171,6 +214,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -188,28 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +254,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +291,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,15 +307,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +368,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -310,36 +383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +397,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,19 +469,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,151 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,9 +636,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +680,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,212 +731,190 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1131,562 +1178,610 @@
   <sheetPr/>
   <dimension ref="A1:F994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
-    <col min="5" max="5" width="10.287037037037" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.287037037037" customWidth="1"/>
-    <col min="7" max="19" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="3" max="4" width="7.57142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.2857142857143" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="7" max="19" width="7.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14">
+        <f>VLOOKUP(A2,Upgrade!A:F,2,FALSE)</f>
+        <v>8.43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="str">
+        <f>VLOOKUP(A2,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
-        <f>VLOOKUP(A2,Upgrade!A:E,2,FALSE)</f>
-        <v>8.28</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B3" s="13">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14">
+        <f>VLOOKUP(A3,Upgrade!A:F,2,FALSE)</f>
+        <v>8.25</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15" t="str">
+        <f>VLOOKUP(A3,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <f>VLOOKUP(A4,Upgrade!A:F,2,FALSE)</f>
+        <v>8.08</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F4" s="15" t="str">
+        <f>VLOOKUP(A4,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
+        <f>VLOOKUP(A5,Upgrade!A:F,2,FALSE)</f>
+        <v>7.97</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="str">
+        <f>VLOOKUP(A5,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <f>VLOOKUP(A6,Upgrade!A:F,2,FALSE)</f>
+        <v>7.94</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15" t="e">
+        <f>VLOOKUP(A6,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14">
+        <f>VLOOKUP(A7,Upgrade!A:F,2,FALSE)</f>
+        <v>7.92</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15" t="str">
+        <f>VLOOKUP(A7,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <f>VLOOKUP(A8,Upgrade!A:F,2,FALSE)</f>
+        <v>7.9</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15" t="e">
+        <f>VLOOKUP(A8,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14">
+        <f>VLOOKUP(A9,Upgrade!A:F,2,FALSE)</f>
+        <v>7.82</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="15" t="e">
+        <f>VLOOKUP(A9,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14">
+        <f>VLOOKUP(A10,Upgrade!A:F,2,FALSE)</f>
+        <v>7.82</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="e">
+        <f>VLOOKUP(A10,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="14">
+        <f>VLOOKUP(A11,Upgrade!A:F,2,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f>VLOOKUP(A11,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
-        <v>87</v>
-      </c>
-      <c r="C3" s="13">
-        <f>VLOOKUP(A3,Upgrade!A:E,2,FALSE)</f>
-        <v>8.13</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C12" s="14">
+        <f>VLOOKUP(A12,Upgrade!A:F,2,FALSE)</f>
+        <v>7.61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="str">
+        <f>VLOOKUP(A12,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14">
+        <f>VLOOKUP(A13,Upgrade!A:F,2,FALSE)</f>
+        <v>7.48</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
-        <f>VLOOKUP(A4,Upgrade!A:E,2,FALSE)</f>
-        <v>8.05</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F13" s="15" t="str">
+        <f>VLOOKUP(A13,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="13">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="C14" s="14">
+        <f>VLOOKUP(A14,Upgrade!A:F,2,FALSE)</f>
+        <v>6.78</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f>VLOOKUP(A14,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14">
+        <f>VLOOKUP(A15,Upgrade!A:F,2,FALSE)</f>
+        <v>6.68</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15" t="e">
+        <f>VLOOKUP(A15,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14">
+        <f>VLOOKUP(A16,Upgrade!A:F,2,FALSE)</f>
+        <v>6.56</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15" t="e">
+        <f>VLOOKUP(A16,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="13">
+        <v>47</v>
+      </c>
+      <c r="C17" s="14">
+        <f>VLOOKUP(A17,Upgrade!A:F,2,FALSE)</f>
+        <v>6.53</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="13">
-        <f>VLOOKUP(A5,Upgrade!A:E,2,FALSE)</f>
-        <v>7.96</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="F17" s="15" t="e">
+        <f>VLOOKUP(A17,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="13">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14">
+        <f>VLOOKUP(A18,Upgrade!A:F,2,FALSE)</f>
+        <v>6.49</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15" t="str">
+        <f>VLOOKUP(A18,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="13">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14">
+        <f>VLOOKUP(A19,Upgrade!A:F,2,FALSE)</f>
+        <v>6.43</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="15" t="str">
+        <f>VLOOKUP(A19,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="13">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14">
+        <f>VLOOKUP(A20,Upgrade!A:F,2,FALSE)</f>
+        <v>6.38</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="15" t="str">
+        <f>VLOOKUP(A20,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="13">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14">
+        <f>VLOOKUP(A21,Upgrade!A:F,2,FALSE)</f>
+        <v>6.19</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f>VLOOKUP(A21,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="13">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14">
+        <f>VLOOKUP(A22,Upgrade!A:F,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="15" t="e">
+        <f>VLOOKUP(A22,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13">
         <v>16</v>
       </c>
-      <c r="B6" s="12">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13">
-        <f>VLOOKUP(A6,Upgrade!A:E,2,FALSE)</f>
-        <v>7.94</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C23" s="14">
+        <f>VLOOKUP(A23,Upgrade!A:F,2,FALSE)</f>
+        <v>5.96</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="F23" s="15" t="e">
+        <f>VLOOKUP(A23,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
-        <v>88</v>
-      </c>
-      <c r="C7" s="13">
-        <f>VLOOKUP(A7,Upgrade!A:E,2,FALSE)</f>
-        <v>7.92</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C24" s="14">
+        <f>VLOOKUP(A24,Upgrade!A:F,2,FALSE)</f>
+        <v>5.71</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F24" s="15" t="e">
+        <f>VLOOKUP(A24,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13">
+        <v>94</v>
+      </c>
+      <c r="C25" s="14">
+        <f>VLOOKUP(A25,Upgrade!A:F,2,FALSE)</f>
+        <v>5.29</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="12">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
-        <f>VLOOKUP(A8,Upgrade!A:E,2,FALSE)</f>
-        <v>7.9</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="F25" s="15" t="e">
+        <f>VLOOKUP(A25,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14">
+        <f>VLOOKUP(A26,Upgrade!A:F,2,FALSE)</f>
+        <v>5.15</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f>VLOOKUP(A26,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="13">
+        <v>52</v>
+      </c>
+      <c r="C27" s="14">
+        <f>VLOOKUP(A27,Upgrade!A:F,2,FALSE)</f>
+        <v>3.76</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13">
-        <f>VLOOKUP(A9,Upgrade!A:E,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="12">
-        <v>55</v>
-      </c>
-      <c r="C10" s="13">
-        <f>VLOOKUP(A10,Upgrade!A:E,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13">
-        <f>VLOOKUP(A11,Upgrade!A:E,2,FALSE)</f>
-        <v>7.77</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <f>VLOOKUP(A12,Upgrade!A:E,2,FALSE)</f>
-        <v>7.61</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13">
-        <f>VLOOKUP(A13,Upgrade!A:E,2,FALSE)</f>
-        <v>7.28</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12">
-        <v>38</v>
-      </c>
-      <c r="C14" s="13">
-        <f>VLOOKUP(A14,Upgrade!A:E,2,FALSE)</f>
-        <v>6.69</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13">
-        <f>VLOOKUP(A15,Upgrade!A:E,2,FALSE)</f>
-        <v>6.68</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <f>VLOOKUP(A16,Upgrade!A:E,2,FALSE)</f>
-        <v>6.78</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12">
-        <v>89</v>
-      </c>
-      <c r="C17" s="13">
-        <f>VLOOKUP(A17,Upgrade!A:E,2,FALSE)</f>
-        <v>6.63</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="12">
-        <v>14</v>
-      </c>
-      <c r="C18" s="13">
-        <f>VLOOKUP(A18,Upgrade!A:E,2,FALSE)</f>
-        <v>6.56</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12">
-        <v>47</v>
-      </c>
-      <c r="C19" s="13">
-        <f>VLOOKUP(A19,Upgrade!A:E,2,FALSE)</f>
-        <v>6.53</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="13">
-        <f>VLOOKUP(A20,Upgrade!A:E,2,FALSE)</f>
-        <v>6.38</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13">
-        <f>VLOOKUP(A21,Upgrade!A:E,2,FALSE)</f>
-        <v>6.19</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="12">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13">
-        <f>VLOOKUP(A22,Upgrade!A:E,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="12">
-        <v>16</v>
-      </c>
-      <c r="C23" s="13">
-        <f>VLOOKUP(A23,Upgrade!A:E,2,FALSE)</f>
-        <v>5.96</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="12">
-        <v>19</v>
-      </c>
-      <c r="C24" s="13">
-        <f>VLOOKUP(A24,Upgrade!A:E,2,FALSE)</f>
-        <v>5.71</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="12">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13">
-        <f>VLOOKUP(A25,Upgrade!A:E,2,FALSE)</f>
-        <v>5.35</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="12">
-        <v>94</v>
-      </c>
-      <c r="C26" s="13">
-        <f>VLOOKUP(A26,Upgrade!A:E,2,FALSE)</f>
-        <v>5.29</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="12">
-        <v>52</v>
-      </c>
-      <c r="C27" s="13">
-        <f>VLOOKUP(A27,Upgrade!A:E,2,FALSE)</f>
-        <v>3.56</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
+      <c r="F27" s="15" t="str">
+        <f>VLOOKUP(A27,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
@@ -2658,11 +2753,23 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:F27">
-    <sortState ref="A1:F27">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="C$1:C$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
@@ -2672,882 +2779,992 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H994"/>
+  <dimension ref="A1:I994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
-    <col min="5" max="6" width="7.57407407407407" customWidth="1"/>
-    <col min="7" max="8" width="10.287037037037" customWidth="1"/>
-    <col min="9" max="19" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.44761904761905" customWidth="1"/>
+    <col min="6" max="7" width="7.57142857142857" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="10.2857142857143" customWidth="1"/>
+    <col min="10" max="20" width="7.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <f>C1+7</f>
+        <v>44996</v>
+      </c>
+      <c r="C1" s="3">
+        <f>D1+7</f>
         <v>44989</v>
       </c>
-      <c r="C1" s="2">
-        <f>D1+7</f>
+      <c r="D1" s="3">
+        <f>E1+7</f>
         <v>44982</v>
       </c>
-      <c r="D1" s="2">
-        <f>E1+7</f>
+      <c r="E1" s="3">
+        <f>F1+7</f>
         <v>44975</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="3">
         <v>44968</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="6">
-        <f t="shared" ref="B2:B7" si="0">C2</f>
+        <f>C2+0.2</f>
+        <v>8.25</v>
+      </c>
+      <c r="C2" s="7">
+        <f>D2</f>
         <v>8.05</v>
       </c>
-      <c r="C2" s="6">
-        <f>D2+0.2+0.1</f>
+      <c r="D2" s="7">
+        <f>E2+0.2+0.1</f>
         <v>8.05</v>
       </c>
-      <c r="D2" s="6">
-        <f>E2+0.1</f>
+      <c r="E2" s="7">
+        <f>F2+0.1</f>
         <v>7.75</v>
       </c>
-      <c r="E2" s="7">
-        <f>F2+0.2+0.1</f>
+      <c r="F2" s="8">
+        <f>G2+0.2+0.1</f>
         <v>7.65</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="9">
         <v>7.35</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="10">
+        <f>-G2+B2</f>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="I2" s="12" t="e">
         <f>VLOOKUP(A2,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <f t="shared" ref="H2:H27" si="1">-F2+B2</f>
-        <v>0.700000000000001</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <f>C3+0.2</f>
-        <v>8.28</v>
-      </c>
-      <c r="C3" s="6">
+        <v>7.97</v>
+      </c>
+      <c r="C3" s="7">
         <f>D3+0.2</f>
-        <v>8.08</v>
-      </c>
-      <c r="D3" s="6">
-        <f>E3</f>
-        <v>7.88</v>
+        <v>7.77</v>
+      </c>
+      <c r="D3" s="7">
+        <f>E3+0.2</f>
+        <v>7.57</v>
       </c>
       <c r="E3" s="7">
-        <f>F3</f>
-        <v>7.88</v>
+        <f>F3+0.1</f>
+        <v>7.37</v>
       </c>
       <c r="F3" s="8">
-        <v>7.88</v>
-      </c>
-      <c r="G3" s="9" t="str">
+        <f>G3-0.2</f>
+        <v>7.27</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7.47</v>
+      </c>
+      <c r="H3" s="10">
+        <f>-G3+B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="12" t="str">
         <f>VLOOKUP(A3,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" si="1"/>
-        <v>0.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>37</v>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>5.96</v>
-      </c>
-      <c r="C4" s="6">
+        <f>C4+0.2</f>
+        <v>7.48</v>
+      </c>
+      <c r="C4" s="7">
         <f>D4</f>
-        <v>5.96</v>
-      </c>
-      <c r="D4" s="6">
+        <v>7.28</v>
+      </c>
+      <c r="D4" s="7">
         <f>E4</f>
-        <v>5.96</v>
+        <v>7.28</v>
       </c>
       <c r="E4" s="7">
-        <f>F4+0.2</f>
-        <v>5.96</v>
+        <f>F4+0.1</f>
+        <v>7.28</v>
       </c>
       <c r="F4" s="8">
-        <v>5.76</v>
+        <f>G4</f>
+        <v>7.18</v>
       </c>
       <c r="G4" s="9">
+        <v>7.18</v>
+      </c>
+      <c r="H4" s="10">
+        <f>-G4+B4</f>
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="12" t="e">
         <f>VLOOKUP(A4,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <f>C5-0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="C5" s="7">
+        <f>D5+0.2</f>
+        <v>8.28</v>
+      </c>
+      <c r="D5" s="7">
+        <f>E5+0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="E5" s="7">
+        <f>F5</f>
+        <v>7.88</v>
+      </c>
+      <c r="F5" s="8">
+        <f>G5</f>
+        <v>7.88</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7.88</v>
+      </c>
+      <c r="H5" s="10">
+        <f>-G5+B5</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
-        <f>C5+0.2</f>
-        <v>7.77</v>
-      </c>
-      <c r="C5" s="6">
-        <f>D5+0.2</f>
-        <v>7.57</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" ref="D5:D11" si="2">E5+0.1</f>
-        <v>7.37</v>
-      </c>
-      <c r="E5" s="7">
-        <f>F5-0.2</f>
-        <v>7.27</v>
-      </c>
-      <c r="F5" s="8">
-        <v>7.47</v>
-      </c>
-      <c r="G5" s="9" t="str">
+      <c r="I5" s="12" t="str">
         <f>VLOOKUP(A5,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>7.28</v>
-      </c>
-      <c r="C6" s="6">
+        <f>C6</f>
+        <v>5.96</v>
+      </c>
+      <c r="C6" s="7">
         <f>D6</f>
-        <v>7.28</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="2"/>
-        <v>7.28</v>
+        <v>5.96</v>
+      </c>
+      <c r="D6" s="7">
+        <f>E6</f>
+        <v>5.96</v>
       </c>
       <c r="E6" s="7">
         <f>F6</f>
-        <v>7.18</v>
+        <v>5.96</v>
       </c>
       <c r="F6" s="8">
-        <v>7.18</v>
+        <f>G6+0.2</f>
+        <v>5.96</v>
       </c>
       <c r="G6" s="9">
+        <v>5.76</v>
+      </c>
+      <c r="H6" s="10">
+        <f>-G6+B6</f>
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="12" t="e">
         <f>VLOOKUP(A6,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
+        <f>C7</f>
+        <v>6.38</v>
+      </c>
+      <c r="C7" s="7">
+        <f>D7+0.2</f>
+        <v>6.38</v>
+      </c>
+      <c r="D7" s="7">
+        <f>E7+0.2</f>
+        <v>6.18</v>
+      </c>
+      <c r="E7" s="7">
+        <f>F7-0.2</f>
+        <v>5.98</v>
+      </c>
+      <c r="F7" s="8">
+        <f>G7</f>
+        <v>6.18</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.18</v>
+      </c>
+      <c r="H7" s="10">
+        <f>-G7+B7</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f>VLOOKUP(A7,'Base de Craques'!A:F,6,1)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <f>C8</f>
+        <v>7.94</v>
+      </c>
+      <c r="C8" s="7">
+        <f>D8</f>
+        <v>7.94</v>
+      </c>
+      <c r="D8" s="7">
+        <f>E8</f>
+        <v>7.94</v>
+      </c>
+      <c r="E8" s="7">
+        <f>F8</f>
+        <v>7.94</v>
+      </c>
+      <c r="F8" s="11">
+        <f>G8</f>
+        <v>7.94</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7.94</v>
+      </c>
+      <c r="H8" s="10">
+        <f>-G8+B8</f>
         <v>0</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="1"/>
-        <v>0.100000000000001</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>6.69</v>
-      </c>
-      <c r="C7" s="6">
-        <f>D7</f>
-        <v>6.69</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="2"/>
-        <v>6.69</v>
-      </c>
-      <c r="E7" s="11">
-        <f>F7</f>
-        <v>6.59</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6.59</v>
-      </c>
-      <c r="G7" s="9">
-        <f>VLOOKUP(A7,'Base de Craques'!A:F,6,1)</f>
+      <c r="I8" s="12" t="e">
+        <f>VLOOKUP(A8,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <f>C9</f>
+        <v>7.82</v>
+      </c>
+      <c r="C9" s="7">
+        <f>D9</f>
+        <v>7.82</v>
+      </c>
+      <c r="D9" s="7">
+        <f>E9</f>
+        <v>7.82</v>
+      </c>
+      <c r="E9" s="7">
+        <f>F9</f>
+        <v>7.82</v>
+      </c>
+      <c r="F9" s="11">
+        <f>G9</f>
+        <v>7.82</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7.82</v>
+      </c>
+      <c r="H9" s="10">
+        <f>-G9+B9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="1"/>
-        <v>0.100000000000001</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" ref="B8:B10" si="3">C8-0.2</f>
-        <v>7.96</v>
-      </c>
-      <c r="C8" s="6">
-        <f>D8-0.2</f>
-        <v>8.16</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="2"/>
-        <v>8.36</v>
-      </c>
-      <c r="E8" s="7">
-        <f>F8+0.2</f>
-        <v>8.26</v>
-      </c>
-      <c r="F8" s="8">
-        <v>8.06</v>
-      </c>
-      <c r="G8" s="9" t="str">
-        <f>VLOOKUP(A8,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.100000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="I9" s="12" t="e">
+        <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="C9" s="6">
-        <f>D9-0.2</f>
-        <v>8.1</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>8.3</v>
-      </c>
-      <c r="E9" s="7">
-        <f>F9+0.2</f>
-        <v>8.2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>8</v>
-      </c>
-      <c r="G9" s="9" t="str">
-        <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="B10" s="6">
-        <f t="shared" si="3"/>
-        <v>7.61</v>
-      </c>
-      <c r="C10" s="6">
+        <f>C10</f>
+        <v>7.82</v>
+      </c>
+      <c r="C10" s="7">
         <f>D10</f>
-        <v>7.81</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="2"/>
-        <v>7.81</v>
+        <v>7.82</v>
+      </c>
+      <c r="D10" s="7">
+        <f>E10</f>
+        <v>7.82</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" ref="E10:E15" si="4">F10</f>
-        <v>7.71</v>
-      </c>
-      <c r="F10" s="8">
-        <v>7.71</v>
-      </c>
-      <c r="G10" s="9" t="str">
+        <f>F10</f>
+        <v>7.82</v>
+      </c>
+      <c r="F10" s="11">
+        <f>G10</f>
+        <v>7.82</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7.82</v>
+      </c>
+      <c r="H10" s="10">
+        <f>-G10+B10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="str">
         <f>VLOOKUP(A10,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="6">
         <f>C11</f>
-        <v>6.63</v>
-      </c>
-      <c r="C11" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="C11" s="7">
         <f>D11</f>
-        <v>6.63</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="2"/>
-        <v>6.63</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="4"/>
         <v>6.53</v>
       </c>
+      <c r="D11" s="7">
+        <f>E11</f>
+        <v>6.53</v>
+      </c>
+      <c r="E11" s="7">
+        <f>F11-0.2</f>
+        <v>6.53</v>
+      </c>
       <c r="F11" s="8">
+        <f>G11+0.2</f>
+        <v>6.73</v>
+      </c>
+      <c r="G11" s="9">
         <v>6.53</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="H11" s="10">
+        <f>-G11+B11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="e">
         <f>VLOOKUP(A11,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6">
+        <f>C12</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <f>D12</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <f>E12</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="7">
+        <f>F12</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="11">
+        <f>G12</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10">
+        <f>-G12+B12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f>VLOOKUP(A12,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.0999999999999996</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" ref="B12:B14" si="5">C12</f>
-        <v>7.94</v>
-      </c>
-      <c r="C12" s="6">
-        <f>D12</f>
-        <v>7.94</v>
-      </c>
-      <c r="D12" s="6">
-        <f>E12</f>
-        <v>7.94</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="4"/>
-        <v>7.94</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7.94</v>
-      </c>
-      <c r="G12" s="9" t="e">
-        <f>VLOOKUP(A12,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
+        <f>C13</f>
+        <v>5.71</v>
+      </c>
+      <c r="C13" s="7">
+        <f>D13</f>
+        <v>5.71</v>
+      </c>
+      <c r="D13" s="7">
+        <f>E13</f>
+        <v>5.71</v>
+      </c>
+      <c r="E13" s="7">
+        <f>F13</f>
+        <v>5.71</v>
+      </c>
+      <c r="F13" s="11">
+        <f>G13</f>
+        <v>5.71</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="H13" s="10">
+        <f>-G13+B13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="5"/>
-        <v>7.82</v>
-      </c>
-      <c r="C13" s="6">
-        <f>D13</f>
-        <v>7.82</v>
-      </c>
-      <c r="D13" s="6">
-        <f>E13</f>
-        <v>7.82</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="4"/>
-        <v>7.82</v>
-      </c>
-      <c r="F13" s="8">
-        <v>7.82</v>
-      </c>
-      <c r="G13" s="9" t="e">
+      <c r="I13" s="12" t="e">
         <f>VLOOKUP(A13,'Base de Craques'!A:F,6,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6">
+        <f>C14</f>
+        <v>5.29</v>
+      </c>
+      <c r="C14" s="7">
+        <f>D14</f>
+        <v>5.29</v>
+      </c>
+      <c r="D14" s="7">
+        <f>E14</f>
+        <v>5.29</v>
+      </c>
+      <c r="E14" s="7">
+        <f>F14</f>
+        <v>5.29</v>
+      </c>
+      <c r="F14" s="11">
+        <f>G14</f>
+        <v>5.29</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.29</v>
+      </c>
+      <c r="H14" s="10">
+        <f>-G14+B14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="5"/>
-        <v>7.82</v>
-      </c>
-      <c r="C14" s="6">
-        <f>D14</f>
-        <v>7.82</v>
-      </c>
-      <c r="D14" s="6">
-        <f>E14</f>
-        <v>7.82</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="4"/>
-        <v>7.82</v>
-      </c>
-      <c r="F14" s="8">
-        <v>7.82</v>
-      </c>
-      <c r="G14" s="9" t="str">
+      <c r="I14" s="12" t="str">
         <f>VLOOKUP(A14,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6">
+        <f>C15+0.2</f>
+        <v>3.76</v>
+      </c>
+      <c r="C15" s="7">
+        <f>D15-0.2</f>
+        <v>3.56</v>
+      </c>
+      <c r="D15" s="7">
+        <f>E15-0.2</f>
+        <v>3.76</v>
+      </c>
+      <c r="E15" s="7">
+        <f>F15+0.1+0.1</f>
+        <v>3.96</v>
+      </c>
+      <c r="F15" s="11">
+        <f>G15</f>
+        <v>3.76</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.76</v>
+      </c>
+      <c r="H15" s="10">
+        <f>-G15+B15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="I15" s="12" t="e">
+        <f>VLOOKUP(A15,'Base de Craques'!A:F,6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6">
-        <f>C15-0.2+0.1</f>
-        <v>6.78</v>
-      </c>
-      <c r="C15" s="6">
-        <f>D15+0.2</f>
-        <v>6.88</v>
-      </c>
-      <c r="D15" s="6">
-        <f>E15-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="4"/>
-        <v>6.88</v>
-      </c>
-      <c r="F15" s="8">
-        <v>6.88</v>
-      </c>
-      <c r="G15" s="9" t="str">
-        <f>VLOOKUP(A15,'Base de Craques'!A:F,6,1)</f>
+      <c r="B16" s="6">
+        <f>C16-0.2</f>
+        <v>6.49</v>
+      </c>
+      <c r="C16" s="7">
+        <f>D16</f>
+        <v>6.69</v>
+      </c>
+      <c r="D16" s="7">
+        <f>E16</f>
+        <v>6.69</v>
+      </c>
+      <c r="E16" s="7">
+        <f>F16+0.1</f>
+        <v>6.69</v>
+      </c>
+      <c r="F16" s="11">
+        <f>G16</f>
+        <v>6.59</v>
+      </c>
+      <c r="G16" s="9">
+        <v>6.59</v>
+      </c>
+      <c r="H16" s="10">
+        <f>-G16+B16</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6">
+        <f>C17</f>
+        <v>7.9</v>
+      </c>
+      <c r="C17" s="7">
+        <f>D17-0.2</f>
+        <v>7.9</v>
+      </c>
+      <c r="D17" s="7">
+        <f>E17-0.2</f>
+        <v>8.1</v>
+      </c>
+      <c r="E17" s="7">
+        <f>F17+0.1</f>
+        <v>8.3</v>
+      </c>
+      <c r="F17" s="8">
+        <f>G17+0.2</f>
+        <v>8.2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10">
+        <f>-G17+B17</f>
         <v>-0.100000000000001</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" ref="B16:B21" si="6">C16</f>
-        <v>6.53</v>
-      </c>
-      <c r="C16" s="6">
-        <f>D16</f>
-        <v>6.53</v>
-      </c>
-      <c r="D16" s="6">
-        <f>E16-0.2</f>
-        <v>6.53</v>
-      </c>
-      <c r="E16" s="7">
-        <f>F16+0.2</f>
-        <v>6.73</v>
-      </c>
-      <c r="F16" s="8">
-        <v>6.53</v>
-      </c>
-      <c r="G16" s="9" t="e">
-        <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
+      <c r="I17" s="12" t="e">
+        <f>VLOOKUP(A17,'Base de Craques'!A:F,6,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6">
-        <f>C17+0.2</f>
-        <v>6.38</v>
-      </c>
-      <c r="C17" s="6">
-        <f>D17+0.2</f>
-        <v>6.18</v>
-      </c>
-      <c r="D17" s="6">
-        <f>E17-0.2</f>
-        <v>5.98</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" ref="E17:E22" si="7">F17</f>
-        <v>6.18</v>
-      </c>
-      <c r="F17" s="8">
-        <v>6.18</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>VLOOKUP(A17,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
-        <f>D18</f>
-        <v>6</v>
-      </c>
-      <c r="D18" s="6">
+        <f>C18</f>
+        <v>7.61</v>
+      </c>
+      <c r="C18" s="7">
+        <f>D18-0.2</f>
+        <v>7.61</v>
+      </c>
+      <c r="D18" s="7">
         <f>E18</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7.81</v>
+      </c>
+      <c r="E18" s="7">
+        <f>F18+0.1</f>
+        <v>7.81</v>
       </c>
       <c r="F18" s="8">
-        <v>6</v>
-      </c>
-      <c r="G18" s="9" t="str">
+        <f>G18</f>
+        <v>7.71</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7.71</v>
+      </c>
+      <c r="H18" s="10">
+        <f>-G18+B18</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="I18" s="12" t="str">
         <f>VLOOKUP(A18,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="6"/>
-        <v>5.71</v>
-      </c>
-      <c r="C19" s="6">
-        <f>D19</f>
-        <v>5.71</v>
-      </c>
-      <c r="D19" s="6">
-        <f>E19</f>
-        <v>5.71</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="7"/>
-        <v>5.71</v>
+        <f>C19</f>
+        <v>6.78</v>
+      </c>
+      <c r="C19" s="7">
+        <f>D19-0.2+0.1</f>
+        <v>6.78</v>
+      </c>
+      <c r="D19" s="7">
+        <f>E19+0.2</f>
+        <v>6.88</v>
+      </c>
+      <c r="E19" s="7">
+        <f>F19-0.2</f>
+        <v>6.68</v>
       </c>
       <c r="F19" s="8">
-        <v>5.71</v>
+        <f>G19</f>
+        <v>6.88</v>
       </c>
       <c r="G19" s="9">
+        <v>6.88</v>
+      </c>
+      <c r="H19" s="10">
+        <f>-G19+B19</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="I19" s="12" t="str">
         <f>VLOOKUP(A19,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" si="6"/>
-        <v>5.35</v>
-      </c>
-      <c r="C20" s="6">
+        <f>C20</f>
+        <v>6.19</v>
+      </c>
+      <c r="C20" s="7">
         <f>D20</f>
-        <v>5.35</v>
-      </c>
-      <c r="D20" s="6">
+        <v>6.19</v>
+      </c>
+      <c r="D20" s="7">
         <f>E20</f>
-        <v>5.35</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="7"/>
-        <v>5.35</v>
+        <v>6.19</v>
+      </c>
+      <c r="E20" s="7">
+        <f>F20+0.1</f>
+        <v>6.19</v>
       </c>
       <c r="F20" s="8">
-        <v>5.35</v>
-      </c>
-      <c r="G20" s="9" t="str">
+        <f>G20-0.2</f>
+        <v>6.09</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6.29</v>
+      </c>
+      <c r="H20" s="10">
+        <f>-G20+B20</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="I20" s="12" t="str">
         <f>VLOOKUP(A20,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="6"/>
-        <v>5.29</v>
-      </c>
-      <c r="C21" s="6">
+        <f>C21+0.2+0.1</f>
+        <v>8.43</v>
+      </c>
+      <c r="C21" s="7">
         <f>D21</f>
-        <v>5.29</v>
-      </c>
-      <c r="D21" s="6">
-        <f>E21</f>
-        <v>5.29</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="7"/>
-        <v>5.29</v>
+        <v>8.13</v>
+      </c>
+      <c r="D21" s="7">
+        <f>E21-0.2</f>
+        <v>8.13</v>
+      </c>
+      <c r="E21" s="7">
+        <f>F21</f>
+        <v>8.33</v>
       </c>
       <c r="F21" s="8">
-        <v>5.29</v>
-      </c>
-      <c r="G21" s="9" t="str">
+        <f>G21-0.2</f>
+        <v>8.33</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.53</v>
+      </c>
+      <c r="H21" s="10">
+        <f>-G21+B21</f>
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="I21" s="12" t="str">
         <f>VLOOKUP(A21,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="6">
         <f>C22-0.2</f>
-        <v>3.56</v>
-      </c>
-      <c r="C22" s="6">
-        <f>D22-0.2</f>
-        <v>3.76</v>
-      </c>
-      <c r="D22" s="6">
-        <f>E22+0.1+0.1</f>
-        <v>3.96</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="7"/>
-        <v>3.76</v>
-      </c>
-      <c r="F22" s="8">
-        <v>3.76</v>
-      </c>
-      <c r="G22" s="9" t="e">
+        <v>6.43</v>
+      </c>
+      <c r="C22" s="7">
+        <f>D22</f>
+        <v>6.63</v>
+      </c>
+      <c r="D22" s="7">
+        <f>E22</f>
+        <v>6.63</v>
+      </c>
+      <c r="E22" s="7">
+        <f>F22+0.1</f>
+        <v>6.63</v>
+      </c>
+      <c r="F22" s="11">
+        <f>G22</f>
+        <v>6.53</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.53</v>
+      </c>
+      <c r="H22" s="10">
+        <f>-G22+B22</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="I22" s="12" t="str">
         <f>VLOOKUP(A22,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="6">
         <f>C23</f>
-        <v>6.19</v>
-      </c>
-      <c r="C23" s="6">
+        <v>7.92</v>
+      </c>
+      <c r="C23" s="7">
         <f>D23</f>
-        <v>6.19</v>
-      </c>
-      <c r="D23" s="6">
-        <f>E23+0.1</f>
-        <v>6.19</v>
+        <v>7.92</v>
+      </c>
+      <c r="D23" s="7">
+        <f>E23</f>
+        <v>7.92</v>
       </c>
       <c r="E23" s="7">
         <f>F23-0.2</f>
-        <v>6.09</v>
-      </c>
-      <c r="F23" s="8">
-        <v>6.29</v>
-      </c>
-      <c r="G23" s="9" t="str">
+        <v>7.92</v>
+      </c>
+      <c r="F23" s="11">
+        <f>G23</f>
+        <v>8.12</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8.12</v>
+      </c>
+      <c r="H23" s="10">
+        <f>-G23+B23</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I23" s="12" t="str">
         <f>VLOOKUP(A23,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.0999999999999996</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A24" s="5" t="s">
-        <v>19</v>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="6">
-        <f>C24</f>
-        <v>7.92</v>
-      </c>
-      <c r="C24" s="6">
+        <f>C24-0.2</f>
+        <v>5.15</v>
+      </c>
+      <c r="C24" s="7">
         <f>D24</f>
-        <v>7.92</v>
-      </c>
-      <c r="D24" s="6">
-        <f>E24-0.2</f>
-        <v>7.92</v>
-      </c>
-      <c r="E24" s="11">
+        <v>5.35</v>
+      </c>
+      <c r="D24" s="7">
+        <f>E24</f>
+        <v>5.35</v>
+      </c>
+      <c r="E24" s="7">
         <f>F24</f>
-        <v>8.12</v>
-      </c>
-      <c r="F24" s="8">
-        <v>8.12</v>
-      </c>
-      <c r="G24" s="9" t="str">
+        <v>5.35</v>
+      </c>
+      <c r="F24" s="11">
+        <f>G24</f>
+        <v>5.35</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5.35</v>
+      </c>
+      <c r="H24" s="10">
+        <f>-G24+B24</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I24" s="12" t="str">
         <f>VLOOKUP(A24,'Base de Craques'!A:F,6,1)</f>
         <v>X</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.199999999999999</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A25" s="5" t="s">
-        <v>10</v>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="6">
         <f>C25</f>
-        <v>8.13</v>
-      </c>
-      <c r="C25" s="6">
-        <f>D25-0.2</f>
-        <v>8.13</v>
-      </c>
-      <c r="D25" s="6">
+        <v>6.68</v>
+      </c>
+      <c r="C25" s="7">
+        <f>D25+0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="D25" s="7">
         <f>E25</f>
-        <v>8.33</v>
+        <v>6.48</v>
       </c>
       <c r="E25" s="7">
         <f>F25-0.2</f>
-        <v>8.33</v>
+        <v>6.48</v>
       </c>
       <c r="F25" s="8">
-        <v>8.53</v>
+        <f>G25-0.2</f>
+        <v>6.68</v>
       </c>
       <c r="G25" s="9">
+        <v>6.88</v>
+      </c>
+      <c r="H25" s="10">
+        <f>-G25+B25</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I25" s="12" t="e">
         <f>VLOOKUP(A25,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.399999999999999</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="6">
-        <f>C26+0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="C26" s="6">
-        <f>D26</f>
-        <v>6.48</v>
-      </c>
-      <c r="D26" s="6">
+        <f>C26</f>
+        <v>6.56</v>
+      </c>
+      <c r="C26" s="7">
+        <f>D26+0.2</f>
+        <v>6.56</v>
+      </c>
+      <c r="D26" s="7">
         <f>E26-0.2</f>
-        <v>6.48</v>
+        <v>6.36</v>
       </c>
       <c r="E26" s="7">
-        <f>F26-0.2</f>
-        <v>6.68</v>
+        <f>F26</f>
+        <v>6.56</v>
       </c>
       <c r="F26" s="8">
-        <v>6.88</v>
+        <f>G26-0.2</f>
+        <v>6.56</v>
       </c>
       <c r="G26" s="9">
+        <v>6.76</v>
+      </c>
+      <c r="H26" s="10">
+        <f>-G26+B26</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I26" s="12" t="e">
         <f>VLOOKUP(A26,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="6">
-        <f>C27+0.2</f>
-        <v>6.56</v>
-      </c>
-      <c r="C27" s="6">
+        <f>C27-0.2</f>
+        <v>7.76</v>
+      </c>
+      <c r="C27" s="7">
         <f>D27-0.2</f>
-        <v>6.36</v>
-      </c>
-      <c r="D27" s="6">
-        <f>E27</f>
-        <v>6.56</v>
+        <v>7.96</v>
+      </c>
+      <c r="D27" s="7">
+        <f>E27-0.2</f>
+        <v>8.16</v>
       </c>
       <c r="E27" s="7">
-        <f>F27-0.2</f>
-        <v>6.56</v>
+        <f>F27+0.1</f>
+        <v>8.36</v>
       </c>
       <c r="F27" s="8">
-        <v>6.76</v>
+        <f>G27+0.2</f>
+        <v>8.26</v>
       </c>
       <c r="G27" s="9">
+        <v>8.06</v>
+      </c>
+      <c r="H27" s="10">
+        <f>-G27+B27</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="I27" s="12" t="str">
         <f>VLOOKUP(A27,'Base de Craques'!A:F,6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
@@ -4518,14 +4735,262 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H27">
-    <sortState ref="A1:H27">
-      <sortCondition ref="H1" descending="1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="str">
+        <f>UPPER(B1)</f>
+        <v>GUI</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C15" si="0">UPPER(B2)</f>
+        <v>ARI</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>JIMMY</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>CHRYSTIAN W.</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>PATRESI</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>CLEVISSON</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>BUGALSKI</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>NAYAN</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>PHILLIPE</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>GIL</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>KESSLER</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>GUSTAVO</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>RENATINHO</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>RAFAEL</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>LUIS</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="11145" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,99 +49,99 @@
     <t>Mensal</t>
   </si>
   <si>
+    <t>BUGALSKI</t>
+  </si>
+  <si>
     <t>RAFAEL</t>
   </si>
   <si>
     <t>ZAG</t>
   </si>
   <si>
-    <t>BUGALSKI</t>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>ACYR</t>
+  </si>
+  <si>
+    <t>Sumido</t>
+  </si>
+  <si>
+    <t>CHRYSTIAN W.</t>
+  </si>
+  <si>
+    <t>As Vezes</t>
+  </si>
+  <si>
+    <t>MANTOVA</t>
+  </si>
+  <si>
+    <t>BRIAN ROCHA</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>VITOR</t>
   </si>
   <si>
     <t>CLEVISSON</t>
   </si>
   <si>
-    <t>VOL</t>
-  </si>
-  <si>
-    <t>ACYR</t>
-  </si>
-  <si>
-    <t>Sumido</t>
-  </si>
-  <si>
-    <t>CHRYSTIAN W.</t>
-  </si>
-  <si>
-    <t>As Vezes</t>
-  </si>
-  <si>
-    <t>MANTOVA</t>
-  </si>
-  <si>
-    <t>BRIAN ROCHA</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>GIL</t>
   </si>
   <si>
     <t>RENATINHO</t>
   </si>
   <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>PATRESI</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
     <t>LUIS</t>
   </si>
   <si>
-    <t>TITI</t>
+    <t>ANDRE</t>
   </si>
   <si>
     <t>PIRAMBA</t>
   </si>
   <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>PATRESI</t>
-  </si>
-  <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
     <t>NAYAN</t>
   </si>
   <si>
+    <t>JEAN</t>
+  </si>
+  <si>
     <t>GUI</t>
   </si>
   <si>
     <t>ATA</t>
   </si>
   <si>
-    <t>JEAN</t>
-  </si>
-  <si>
     <t>TURECK</t>
   </si>
   <si>
     <t>TURRA</t>
   </si>
   <si>
+    <t>KESSLER</t>
+  </si>
+  <si>
     <t>HERCULANO</t>
   </si>
   <si>
-    <t>KESSLER</t>
-  </si>
-  <si>
     <t>ARI</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>Patresi</t>
   </si>
   <si>
+    <t>Kessler</t>
+  </si>
+  <si>
     <t>Clevisson</t>
   </si>
   <si>
@@ -181,13 +184,10 @@
     <t>Gil</t>
   </si>
   <si>
-    <t>Kessler</t>
+    <t>piramba</t>
   </si>
   <si>
     <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Renatinho</t>
   </si>
   <si>
     <t>Rafael</t>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -237,9 +237,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,53 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,14 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -368,13 +359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -382,7 +366,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,19 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,19 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,13 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,43 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,25 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +636,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,30 +654,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,49 +705,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,100 +782,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,19 +889,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1178,18 +1178,18 @@
   <sheetPr/>
   <dimension ref="A1:F994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
-    <col min="3" max="4" width="7.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="7" max="19" width="7.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
+    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
+    <col min="5" max="5" width="10.287037037037" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.287037037037" customWidth="1"/>
+    <col min="7" max="19" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
@@ -1220,7 +1220,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="14">
-        <f>VLOOKUP(A2,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A2,Upgrade!A:G,2,FALSE)</f>
         <v>8.43</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -1239,14 +1239,14 @@
         <v>9</v>
       </c>
       <c r="B3" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14">
-        <f>VLOOKUP(A3,Upgrade!A:F,2,FALSE)</f>
-        <v>8.25</v>
+        <f>VLOOKUP(A3,Upgrade!A:G,2,FALSE)</f>
+        <v>8.28</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
@@ -1258,17 +1258,17 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14">
+        <f>VLOOKUP(A4,Upgrade!A:G,2,FALSE)</f>
+        <v>8.25</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="13">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14">
-        <f>VLOOKUP(A4,Upgrade!A:F,2,FALSE)</f>
-        <v>8.08</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>8</v>
@@ -1282,15 +1282,15 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
-        <v>17</v>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="14">
-        <f>VLOOKUP(A5,Upgrade!A:F,2,FALSE)</f>
-        <v>7.97</v>
+        <f>VLOOKUP(A5,Upgrade!A:G,2,FALSE)</f>
+        <v>7.96</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>8</v>
@@ -1302,20 +1302,20 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13">
         <v>18</v>
       </c>
       <c r="C6" s="14">
-        <f>VLOOKUP(A6,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A6,Upgrade!A:G,2,FALSE)</f>
         <v>7.94</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="15" t="e">
         <f>VLOOKUP(A6,Escalado!C:D,2,FALSE)</f>
@@ -1324,35 +1324,35 @@
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13">
         <v>88</v>
       </c>
       <c r="C7" s="14">
-        <f>VLOOKUP(A7,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A7,Upgrade!A:G,2,FALSE)</f>
         <v>7.92</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="15" t="str">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="e">
         <f>VLOOKUP(A7,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13">
         <v>13</v>
       </c>
       <c r="C8" s="14">
-        <f>VLOOKUP(A8,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A8,Upgrade!A:G,2,FALSE)</f>
         <v>7.9</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1368,20 +1368,20 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13">
         <v>12</v>
       </c>
       <c r="C9" s="14">
-        <f>VLOOKUP(A9,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A9,Upgrade!A:G,2,FALSE)</f>
         <v>7.82</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="15" t="e">
         <f>VLOOKUP(A9,Escalado!C:D,2,FALSE)</f>
@@ -1390,20 +1390,20 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13">
         <v>55</v>
       </c>
       <c r="C10" s="14">
-        <f>VLOOKUP(A10,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A10,Upgrade!A:G,2,FALSE)</f>
         <v>7.82</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15" t="e">
         <f>VLOOKUP(A10,Escalado!C:D,2,FALSE)</f>
@@ -1412,17 +1412,17 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="B11" s="13">
+        <v>17</v>
+      </c>
       <c r="C11" s="14">
-        <f>VLOOKUP(A11,Upgrade!A:F,2,FALSE)</f>
-        <v>7.76</v>
+        <f>VLOOKUP(A11,Upgrade!A:G,2,FALSE)</f>
+        <v>7.77</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>8</v>
@@ -1440,11 +1440,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="14">
-        <f>VLOOKUP(A12,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A12,Upgrade!A:G,2,FALSE)</f>
         <v>7.61</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>8</v>
@@ -1462,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="14">
-        <f>VLOOKUP(A13,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A13,Upgrade!A:G,2,FALSE)</f>
         <v>7.48</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1471,9 +1471,9 @@
       <c r="E13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="15" t="str">
+      <c r="F13" s="15" t="e">
         <f>VLOOKUP(A13,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
@@ -1481,14 +1481,14 @@
         <v>26</v>
       </c>
       <c r="B14" s="13">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C14" s="14">
-        <f>VLOOKUP(A14,Upgrade!A:F,2,FALSE)</f>
-        <v>6.78</v>
+        <f>VLOOKUP(A14,Upgrade!A:G,2,FALSE)</f>
+        <v>6.73</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>8</v>
@@ -1503,21 +1503,21 @@
         <v>27</v>
       </c>
       <c r="B15" s="13">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C15" s="14">
-        <f>VLOOKUP(A15,Upgrade!A:F,2,FALSE)</f>
-        <v>6.68</v>
+        <f>VLOOKUP(A15,Upgrade!A:G,2,FALSE)</f>
+        <v>6.69</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="15" t="e">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15" t="str">
         <f>VLOOKUP(A15,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
@@ -1525,17 +1525,17 @@
         <v>28</v>
       </c>
       <c r="B16" s="13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C16" s="14">
-        <f>VLOOKUP(A16,Upgrade!A:F,2,FALSE)</f>
-        <v>6.56</v>
+        <f>VLOOKUP(A16,Upgrade!A:G,2,FALSE)</f>
+        <v>6.68</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F16" s="15" t="e">
         <f>VLOOKUP(A16,Escalado!C:D,2,FALSE)</f>
@@ -1547,21 +1547,21 @@
         <v>29</v>
       </c>
       <c r="B17" s="13">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C17" s="14">
-        <f>VLOOKUP(A17,Upgrade!A:F,2,FALSE)</f>
-        <v>6.53</v>
+        <f>VLOOKUP(A17,Upgrade!A:G,2,FALSE)</f>
+        <v>6.58</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="15" t="e">
+      <c r="F17" s="15" t="str">
         <f>VLOOKUP(A17,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
@@ -1569,21 +1569,21 @@
         <v>30</v>
       </c>
       <c r="B18" s="13">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C18" s="14">
-        <f>VLOOKUP(A18,Upgrade!A:F,2,FALSE)</f>
-        <v>6.49</v>
+        <f>VLOOKUP(A18,Upgrade!A:G,2,FALSE)</f>
+        <v>6.53</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="F18" s="15" t="e">
         <f>VLOOKUP(A18,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:6">
@@ -1591,17 +1591,17 @@
         <v>31</v>
       </c>
       <c r="B19" s="13">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C19" s="14">
-        <f>VLOOKUP(A19,Upgrade!A:F,2,FALSE)</f>
-        <v>6.43</v>
+        <f>VLOOKUP(A19,Upgrade!A:G,2,FALSE)</f>
+        <v>6.36</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F19" s="15" t="str">
         <f>VLOOKUP(A19,Escalado!C:D,2,FALSE)</f>
@@ -1616,8 +1616,8 @@
         <v>5</v>
       </c>
       <c r="C20" s="14">
-        <f>VLOOKUP(A20,Upgrade!A:F,2,FALSE)</f>
-        <v>6.38</v>
+        <f>VLOOKUP(A20,Upgrade!A:G,2,FALSE)</f>
+        <v>6.18</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>7</v>
@@ -1635,17 +1635,17 @@
         <v>33</v>
       </c>
       <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14">
+        <f>VLOOKUP(A21,Upgrade!A:G,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14">
-        <f>VLOOKUP(A21,Upgrade!A:F,2,FALSE)</f>
-        <v>6.19</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F21" s="15" t="str">
         <f>VLOOKUP(A21,Escalado!C:D,2,FALSE)</f>
@@ -1654,24 +1654,24 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14">
+        <f>VLOOKUP(A22,Upgrade!A:G,2,FALSE)</f>
+        <v>5.99</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="13">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14">
-        <f>VLOOKUP(A22,Upgrade!A:F,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="15" t="e">
+        <v>8</v>
+      </c>
+      <c r="F22" s="15" t="str">
         <f>VLOOKUP(A22,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
@@ -1682,14 +1682,14 @@
         <v>16</v>
       </c>
       <c r="C23" s="14">
-        <f>VLOOKUP(A23,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A23,Upgrade!A:G,2,FALSE)</f>
         <v>5.96</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="15" t="e">
         <f>VLOOKUP(A23,Escalado!C:D,2,FALSE)</f>
@@ -1704,14 +1704,14 @@
         <v>19</v>
       </c>
       <c r="C24" s="14">
-        <f>VLOOKUP(A24,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A24,Upgrade!A:G,2,FALSE)</f>
         <v>5.71</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="15" t="e">
         <f>VLOOKUP(A24,Escalado!C:D,2,FALSE)</f>
@@ -1723,21 +1723,21 @@
         <v>38</v>
       </c>
       <c r="B25" s="13">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14">
-        <f>VLOOKUP(A25,Upgrade!A:F,2,FALSE)</f>
-        <v>5.29</v>
+        <f>VLOOKUP(A25,Upgrade!A:G,2,FALSE)</f>
+        <v>5.35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="15" t="e">
+        <v>18</v>
+      </c>
+      <c r="F25" s="15" t="str">
         <f>VLOOKUP(A25,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:6">
@@ -1745,21 +1745,21 @@
         <v>39</v>
       </c>
       <c r="B26" s="13">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C26" s="14">
-        <f>VLOOKUP(A26,Upgrade!A:F,2,FALSE)</f>
-        <v>5.15</v>
+        <f>VLOOKUP(A26,Upgrade!A:G,2,FALSE)</f>
+        <v>5.29</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="15" t="str">
+        <v>21</v>
+      </c>
+      <c r="F26" s="15" t="e">
         <f>VLOOKUP(A26,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:6">
@@ -1770,11 +1770,11 @@
         <v>52</v>
       </c>
       <c r="C27" s="14">
-        <f>VLOOKUP(A27,Upgrade!A:F,2,FALSE)</f>
+        <f>VLOOKUP(A27,Upgrade!A:G,2,FALSE)</f>
         <v>3.76</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>8</v>
@@ -2779,991 +2779,1100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:J994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.44761904761905" customWidth="1"/>
-    <col min="6" max="7" width="7.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="11.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="10.2857142857143" customWidth="1"/>
-    <col min="10" max="20" width="7.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="7.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="9.71296296296296" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.44444444444444" customWidth="1"/>
+    <col min="7" max="8" width="7.57407407407407" customWidth="1"/>
+    <col min="9" max="9" width="11.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="10.287037037037" customWidth="1"/>
+    <col min="11" max="21" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:9">
+    <row r="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <f>C1+7</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="C1" s="3">
         <f>D1+7</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="D1" s="3">
         <f>E1+7</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="E1" s="3">
         <f>F1+7</f>
+        <v>44982</v>
+      </c>
+      <c r="F1" s="3">
+        <f>G1+7</f>
         <v>44975</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>44968</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:9">
+    <row r="2" ht="14.25" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <f>C2</f>
+        <v>8.25</v>
+      </c>
+      <c r="C2" s="6">
+        <f>D2+0.2</f>
+        <v>8.25</v>
+      </c>
+      <c r="D2" s="6">
+        <f>E2</f>
+        <v>8.05</v>
+      </c>
+      <c r="E2" s="6">
+        <f>F2+0.2+0.1</f>
+        <v>8.05</v>
+      </c>
+      <c r="F2" s="6">
+        <f>G2+0.1</f>
+        <v>7.75</v>
+      </c>
+      <c r="G2" s="7">
+        <f>H2+0.2+0.1</f>
+        <v>7.65</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7.35</v>
+      </c>
+      <c r="I2" s="11">
+        <f>-H2+$B2</f>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f>VLOOKUP(A2,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
-        <f>C2+0.2</f>
-        <v>8.25</v>
-      </c>
-      <c r="C2" s="7">
-        <f>D2</f>
-        <v>8.05</v>
-      </c>
-      <c r="D2" s="7">
-        <f>E2+0.2+0.1</f>
-        <v>8.05</v>
-      </c>
-      <c r="E2" s="7">
-        <f>F2+0.1</f>
-        <v>7.75</v>
-      </c>
-      <c r="F2" s="8">
-        <f>G2+0.2+0.1</f>
-        <v>7.65</v>
-      </c>
-      <c r="G2" s="9">
-        <v>7.35</v>
-      </c>
-      <c r="H2" s="10">
-        <f>-G2+B2</f>
-        <v>0.899999999999999</v>
-      </c>
-      <c r="I2" s="12" t="e">
-        <f>VLOOKUP(A2,'Base de Craques'!A:F,6,1)</f>
+      <c r="B3" s="5">
+        <f>C3+0.2</f>
+        <v>8.28</v>
+      </c>
+      <c r="C3" s="6">
+        <f>D3-0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="D3" s="6">
+        <f>E3+0.2</f>
+        <v>8.28</v>
+      </c>
+      <c r="E3" s="6">
+        <f>F3+0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="F3" s="6">
+        <f>G3</f>
+        <v>7.88</v>
+      </c>
+      <c r="G3" s="7">
+        <f>H3</f>
+        <v>7.88</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7.88</v>
+      </c>
+      <c r="I3" s="11">
+        <f>-H3+$B3</f>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="J3" s="12" t="str">
+        <f>VLOOKUP(A3,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <f>C4-0.2</f>
+        <v>7.77</v>
+      </c>
+      <c r="C4" s="6">
+        <f>D4+0.2</f>
+        <v>7.97</v>
+      </c>
+      <c r="D4" s="6">
+        <f>E4+0.2</f>
+        <v>7.77</v>
+      </c>
+      <c r="E4" s="6">
+        <f>F4+0.2</f>
+        <v>7.57</v>
+      </c>
+      <c r="F4" s="6">
+        <f>G4+0.1</f>
+        <v>7.37</v>
+      </c>
+      <c r="G4" s="7">
+        <f>H4-0.2</f>
+        <v>7.27</v>
+      </c>
+      <c r="H4" s="8">
+        <v>7.47</v>
+      </c>
+      <c r="I4" s="11">
+        <f>-H4+$B4</f>
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f>VLOOKUP(A4,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <f>C5</f>
+        <v>7.48</v>
+      </c>
+      <c r="C5" s="6">
+        <f>D5+0.2</f>
+        <v>7.48</v>
+      </c>
+      <c r="D5" s="6">
+        <f>E5</f>
+        <v>7.28</v>
+      </c>
+      <c r="E5" s="6">
+        <f>F5</f>
+        <v>7.28</v>
+      </c>
+      <c r="F5" s="6">
+        <f>G5+0.1</f>
+        <v>7.28</v>
+      </c>
+      <c r="G5" s="7">
+        <f>H5</f>
+        <v>7.18</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="I5" s="11">
+        <f>-H5+$C5</f>
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="12" t="e">
+        <f>VLOOKUP(A5,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6">
-        <f>C3+0.2</f>
-        <v>7.97</v>
-      </c>
-      <c r="C3" s="7">
-        <f>D3+0.2</f>
-        <v>7.77</v>
-      </c>
-      <c r="D3" s="7">
-        <f>E3+0.2</f>
-        <v>7.57</v>
-      </c>
-      <c r="E3" s="7">
-        <f>F3+0.1</f>
-        <v>7.37</v>
-      </c>
-      <c r="F3" s="8">
-        <f>G3-0.2</f>
-        <v>7.27</v>
-      </c>
-      <c r="G3" s="9">
-        <v>7.47</v>
-      </c>
-      <c r="H3" s="10">
-        <f>-G3+B3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="12" t="str">
-        <f>VLOOKUP(A3,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6">
-        <f>C4+0.2</f>
-        <v>7.48</v>
-      </c>
-      <c r="C4" s="7">
-        <f>D4</f>
-        <v>7.28</v>
-      </c>
-      <c r="D4" s="7">
-        <f>E4</f>
-        <v>7.28</v>
-      </c>
-      <c r="E4" s="7">
-        <f>F4+0.1</f>
-        <v>7.28</v>
-      </c>
-      <c r="F4" s="8">
-        <f>G4</f>
-        <v>7.18</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7.18</v>
-      </c>
-      <c r="H4" s="10">
-        <f>-G4+B4</f>
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="12" t="e">
-        <f>VLOOKUP(A4,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <f>C5-0.2</f>
-        <v>8.08</v>
-      </c>
-      <c r="C5" s="7">
-        <f>D5+0.2</f>
-        <v>8.28</v>
-      </c>
-      <c r="D5" s="7">
-        <f>E5+0.2</f>
-        <v>8.08</v>
-      </c>
-      <c r="E5" s="7">
-        <f>F5</f>
-        <v>7.88</v>
-      </c>
-      <c r="F5" s="8">
-        <f>G5</f>
-        <v>7.88</v>
-      </c>
-      <c r="G5" s="9">
-        <v>7.88</v>
-      </c>
-      <c r="H5" s="10">
-        <f>-G5+B5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="12" t="str">
-        <f>VLOOKUP(A5,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:9">
+    <row r="6" ht="14.25" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>C6</f>
         <v>5.96</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>D6</f>
         <v>5.96</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>E6</f>
         <v>5.96</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>F6</f>
         <v>5.96</v>
       </c>
-      <c r="F6" s="8">
-        <f>G6+0.2</f>
+      <c r="F6" s="6">
+        <f>G6</f>
         <v>5.96</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
+        <f>H6+0.2</f>
+        <v>5.96</v>
+      </c>
+      <c r="H6" s="8">
         <v>5.76</v>
       </c>
-      <c r="H6" s="10">
-        <f>-G6+B6</f>
+      <c r="I6" s="11">
+        <f>-H6+$C6</f>
         <v>0.2</v>
       </c>
-      <c r="I6" s="12" t="e">
-        <f>VLOOKUP(A6,'Base de Craques'!A:F,6,1)</f>
+      <c r="J6" s="12" t="e">
+        <f>VLOOKUP(A6,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:9">
+    <row r="7" ht="14.25" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <f>C7+0.2+0.1</f>
+        <v>6.73</v>
+      </c>
+      <c r="C7" s="6">
+        <f>D7-0.2</f>
+        <v>6.43</v>
+      </c>
+      <c r="D7" s="6">
+        <f>E7</f>
+        <v>6.63</v>
+      </c>
+      <c r="E7" s="6">
+        <f>F7</f>
+        <v>6.63</v>
+      </c>
+      <c r="F7" s="6">
+        <f>G7+0.1</f>
+        <v>6.63</v>
+      </c>
+      <c r="G7" s="9">
+        <f>H7</f>
+        <v>6.53</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="I7" s="11">
+        <f>-H7+$B7</f>
+        <v>0.199999999999999</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f>VLOOKUP(A7,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <f>C8+0.2</f>
+        <v>6.69</v>
+      </c>
+      <c r="C8" s="6">
+        <f>D8-0.2</f>
+        <v>6.49</v>
+      </c>
+      <c r="D8" s="6">
+        <f>E8</f>
+        <v>6.69</v>
+      </c>
+      <c r="E8" s="6">
+        <f>F8</f>
+        <v>6.69</v>
+      </c>
+      <c r="F8" s="6">
+        <f>G8+0.1</f>
+        <v>6.69</v>
+      </c>
+      <c r="G8" s="9">
+        <f>H8</f>
+        <v>6.59</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6.59</v>
+      </c>
+      <c r="I8" s="11">
+        <f>-H8+$B8</f>
+        <v>0.0999999999999996</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f>VLOOKUP(A8,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
-        <f>C7</f>
+      <c r="B9" s="5">
+        <f>C9-0.2</f>
+        <v>6.18</v>
+      </c>
+      <c r="C9" s="6">
+        <f>D9</f>
         <v>6.38</v>
       </c>
-      <c r="C7" s="7">
-        <f>D7+0.2</f>
+      <c r="D9" s="6">
+        <f>E9+0.2</f>
         <v>6.38</v>
       </c>
-      <c r="D7" s="7">
-        <f>E7+0.2</f>
+      <c r="E9" s="6">
+        <f>F9+0.2</f>
         <v>6.18</v>
       </c>
-      <c r="E7" s="7">
-        <f>F7-0.2</f>
+      <c r="F9" s="6">
+        <f>G9-0.2</f>
         <v>5.98</v>
       </c>
-      <c r="F7" s="8">
-        <f>G7</f>
+      <c r="G9" s="7">
+        <f>H9</f>
         <v>6.18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H9" s="8">
         <v>6.18</v>
       </c>
-      <c r="H7" s="10">
-        <f>-G7+B7</f>
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="12" t="str">
-        <f>VLOOKUP(A7,'Base de Craques'!A:F,6,1)</f>
+      <c r="I9" s="11">
+        <f>-H9+$B9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f>VLOOKUP(A9,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <f>C8</f>
+    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <f>C10</f>
         <v>7.94</v>
       </c>
-      <c r="C8" s="7">
-        <f>D8</f>
+      <c r="C10" s="6">
+        <f>D10</f>
         <v>7.94</v>
       </c>
-      <c r="D8" s="7">
-        <f>E8</f>
+      <c r="D10" s="6">
+        <f>E10</f>
         <v>7.94</v>
       </c>
-      <c r="E8" s="7">
-        <f>F8</f>
+      <c r="E10" s="6">
+        <f>F10</f>
         <v>7.94</v>
       </c>
-      <c r="F8" s="11">
-        <f>G8</f>
+      <c r="F10" s="6">
+        <f>G10</f>
         <v>7.94</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G10" s="9">
+        <f>H10</f>
         <v>7.94</v>
       </c>
-      <c r="H8" s="10">
-        <f>-G8+B8</f>
+      <c r="H10" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="I10" s="11">
+        <f>-H10+$C10</f>
         <v>0</v>
       </c>
-      <c r="I8" s="12" t="e">
-        <f>VLOOKUP(A8,'Base de Craques'!A:F,6,1)</f>
+      <c r="J10" s="12" t="e">
+        <f>VLOOKUP(A10,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A9" s="1" t="s">
+    <row r="11" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
+        <f>C11</f>
+        <v>7.82</v>
+      </c>
+      <c r="C11" s="6">
+        <f>D11</f>
+        <v>7.82</v>
+      </c>
+      <c r="D11" s="6">
+        <f>E11</f>
+        <v>7.82</v>
+      </c>
+      <c r="E11" s="6">
+        <f>F11</f>
+        <v>7.82</v>
+      </c>
+      <c r="F11" s="6">
+        <f>G11</f>
+        <v>7.82</v>
+      </c>
+      <c r="G11" s="9">
+        <f>H11</f>
+        <v>7.82</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="I11" s="11">
+        <f>-H11+$C11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="e">
+        <f>VLOOKUP(A11,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <f>C12</f>
+        <v>7.82</v>
+      </c>
+      <c r="C12" s="6">
+        <f>D12</f>
+        <v>7.82</v>
+      </c>
+      <c r="D12" s="6">
+        <f>E12</f>
+        <v>7.82</v>
+      </c>
+      <c r="E12" s="6">
+        <f>F12</f>
+        <v>7.82</v>
+      </c>
+      <c r="F12" s="6">
+        <f>G12</f>
+        <v>7.82</v>
+      </c>
+      <c r="G12" s="9">
+        <f>H12</f>
+        <v>7.82</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="I12" s="11">
+        <f>-H12+$C12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12" t="e">
+        <f>VLOOKUP(A12,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <f>C13</f>
+        <v>6.53</v>
+      </c>
+      <c r="C13" s="6">
+        <f>D13</f>
+        <v>6.53</v>
+      </c>
+      <c r="D13" s="6">
+        <f>E13</f>
+        <v>6.53</v>
+      </c>
+      <c r="E13" s="6">
+        <f>F13</f>
+        <v>6.53</v>
+      </c>
+      <c r="F13" s="6">
+        <f>G13-0.2</f>
+        <v>6.53</v>
+      </c>
+      <c r="G13" s="7">
+        <f>H13+0.2</f>
+        <v>6.73</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="I13" s="11">
+        <f>-H13+$C13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="e">
+        <f>VLOOKUP(A13,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
+        <f>C14</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <f>D14</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <f>E14</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="6">
+        <f>F14</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <f>G14</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="9">
+        <f>H14</f>
+        <v>6</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <f>-H14+$B14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f>VLOOKUP(A14,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5">
+        <f>C15</f>
+        <v>5.71</v>
+      </c>
+      <c r="C15" s="6">
+        <f>D15</f>
+        <v>5.71</v>
+      </c>
+      <c r="D15" s="6">
+        <f>E15</f>
+        <v>5.71</v>
+      </c>
+      <c r="E15" s="6">
+        <f>F15</f>
+        <v>5.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f>G15</f>
+        <v>5.71</v>
+      </c>
+      <c r="G15" s="9">
+        <f>H15</f>
+        <v>5.71</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="I15" s="11">
+        <f>-H15+$C15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="e">
+        <f>VLOOKUP(A15,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5">
+        <f>C16</f>
+        <v>5.29</v>
+      </c>
+      <c r="C16" s="6">
+        <f>D16</f>
+        <v>5.29</v>
+      </c>
+      <c r="D16" s="6">
+        <f>E16</f>
+        <v>5.29</v>
+      </c>
+      <c r="E16" s="6">
+        <f>F16</f>
+        <v>5.29</v>
+      </c>
+      <c r="F16" s="6">
+        <f>G16</f>
+        <v>5.29</v>
+      </c>
+      <c r="G16" s="9">
+        <f>H16</f>
+        <v>5.29</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="I16" s="11">
+        <f>-H16+$C16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="e">
+        <f>VLOOKUP(A16,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5">
+        <f>C17</f>
+        <v>3.76</v>
+      </c>
+      <c r="C17" s="6">
+        <f>D17+0.2</f>
+        <v>3.76</v>
+      </c>
+      <c r="D17" s="6">
+        <f>E17-0.2</f>
+        <v>3.56</v>
+      </c>
+      <c r="E17" s="6">
+        <f>F17-0.2</f>
+        <v>3.76</v>
+      </c>
+      <c r="F17" s="6">
+        <f>G17+0.1+0.1</f>
+        <v>3.96</v>
+      </c>
+      <c r="G17" s="9">
+        <f>H17</f>
+        <v>3.76</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.76</v>
+      </c>
+      <c r="I17" s="11">
+        <f>-H17+$B17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f>VLOOKUP(A17,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5">
+        <f>C18+0.2</f>
+        <v>5.35</v>
+      </c>
+      <c r="C18" s="6">
+        <f>D18-0.2</f>
+        <v>5.15</v>
+      </c>
+      <c r="D18" s="6">
+        <f>E18</f>
+        <v>5.35</v>
+      </c>
+      <c r="E18" s="6">
+        <f>F18</f>
+        <v>5.35</v>
+      </c>
+      <c r="F18" s="6">
+        <f>G18</f>
+        <v>5.35</v>
+      </c>
+      <c r="G18" s="9">
+        <f>H18</f>
+        <v>5.35</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5.35</v>
+      </c>
+      <c r="I18" s="11">
+        <f>-H18+$B18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f>VLOOKUP(A18,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <f>C19</f>
+        <v>8.43</v>
+      </c>
+      <c r="C19" s="6">
+        <f>D19+0.2+0.1</f>
+        <v>8.43</v>
+      </c>
+      <c r="D19" s="6">
+        <f>E19</f>
+        <v>8.13</v>
+      </c>
+      <c r="E19" s="6">
+        <f>F19-0.2</f>
+        <v>8.13</v>
+      </c>
+      <c r="F19" s="6">
+        <f>G19</f>
+        <v>8.33</v>
+      </c>
+      <c r="G19" s="7">
+        <f>H19-0.2</f>
+        <v>8.33</v>
+      </c>
+      <c r="H19" s="8">
+        <v>8.53</v>
+      </c>
+      <c r="I19" s="11">
+        <f>-H19+$B19</f>
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f>VLOOKUP(A19,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
-        <f>C9</f>
-        <v>7.82</v>
-      </c>
-      <c r="C9" s="7">
-        <f>D9</f>
-        <v>7.82</v>
-      </c>
-      <c r="D9" s="7">
-        <f>E9</f>
-        <v>7.82</v>
-      </c>
-      <c r="E9" s="7">
-        <f>F9</f>
-        <v>7.82</v>
-      </c>
-      <c r="F9" s="11">
-        <f>G9</f>
-        <v>7.82</v>
-      </c>
-      <c r="G9" s="9">
-        <v>7.82</v>
-      </c>
-      <c r="H9" s="10">
-        <f>-G9+B9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="e">
-        <f>VLOOKUP(A9,'Base de Craques'!A:F,6,1)</f>
+      <c r="B20" s="5">
+        <f>C20</f>
+        <v>7.9</v>
+      </c>
+      <c r="C20" s="6">
+        <f>D20</f>
+        <v>7.9</v>
+      </c>
+      <c r="D20" s="6">
+        <f>E20-0.2</f>
+        <v>7.9</v>
+      </c>
+      <c r="E20" s="6">
+        <f>F20-0.2</f>
+        <v>8.1</v>
+      </c>
+      <c r="F20" s="6">
+        <f>G20+0.1</f>
+        <v>8.3</v>
+      </c>
+      <c r="G20" s="7">
+        <f>H20+0.2</f>
+        <v>8.2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11">
+        <f>-H20+$C20</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="J20" s="12" t="e">
+        <f>VLOOKUP(A20,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6">
-        <f>C10</f>
-        <v>7.82</v>
-      </c>
-      <c r="C10" s="7">
-        <f>D10</f>
-        <v>7.82</v>
-      </c>
-      <c r="D10" s="7">
-        <f>E10</f>
-        <v>7.82</v>
-      </c>
-      <c r="E10" s="7">
-        <f>F10</f>
-        <v>7.82</v>
-      </c>
-      <c r="F10" s="11">
-        <f>G10</f>
-        <v>7.82</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7.82</v>
-      </c>
-      <c r="H10" s="10">
-        <f>-G10+B10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f>VLOOKUP(A10,'Base de Craques'!A:F,6,1)</f>
+    <row r="21" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <f>C21</f>
+        <v>7.61</v>
+      </c>
+      <c r="C21" s="6">
+        <f>D21</f>
+        <v>7.61</v>
+      </c>
+      <c r="D21" s="6">
+        <f>E21-0.2</f>
+        <v>7.61</v>
+      </c>
+      <c r="E21" s="6">
+        <f>F21</f>
+        <v>7.81</v>
+      </c>
+      <c r="F21" s="6">
+        <f>G21+0.1</f>
+        <v>7.81</v>
+      </c>
+      <c r="G21" s="7">
+        <f>H21</f>
+        <v>7.71</v>
+      </c>
+      <c r="H21" s="8">
+        <v>7.71</v>
+      </c>
+      <c r="I21" s="11">
+        <f>-H21+$B21</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="J21" s="12" t="str">
+        <f>VLOOKUP(A21,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6">
-        <f>C11</f>
-        <v>6.53</v>
-      </c>
-      <c r="C11" s="7">
-        <f>D11</f>
-        <v>6.53</v>
-      </c>
-      <c r="D11" s="7">
-        <f>E11</f>
-        <v>6.53</v>
-      </c>
-      <c r="E11" s="7">
-        <f>F11-0.2</f>
-        <v>6.53</v>
-      </c>
-      <c r="F11" s="8">
-        <f>G11+0.2</f>
-        <v>6.73</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6.53</v>
-      </c>
-      <c r="H11" s="10">
-        <f>-G11+B11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12" t="e">
-        <f>VLOOKUP(A11,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="6">
-        <f>C12</f>
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <f>D12</f>
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <f>E12</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="7">
-        <f>F12</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="11">
-        <f>G12</f>
-        <v>6</v>
-      </c>
-      <c r="G12" s="9">
-        <v>6</v>
-      </c>
-      <c r="H12" s="10">
-        <f>-G12+B12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12" t="str">
-        <f>VLOOKUP(A12,'Base de Craques'!A:F,6,1)</f>
+    <row r="22" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <f>C22+0.2</f>
+        <v>7.96</v>
+      </c>
+      <c r="C22" s="6">
+        <f>D22-0.2</f>
+        <v>7.76</v>
+      </c>
+      <c r="D22" s="6">
+        <f>E22-0.2</f>
+        <v>7.96</v>
+      </c>
+      <c r="E22" s="6">
+        <f>F22-0.2</f>
+        <v>8.16</v>
+      </c>
+      <c r="F22" s="6">
+        <f>G22+0.1</f>
+        <v>8.36</v>
+      </c>
+      <c r="G22" s="7">
+        <f>H22+0.2</f>
+        <v>8.26</v>
+      </c>
+      <c r="H22" s="8">
+        <v>8.06</v>
+      </c>
+      <c r="I22" s="11">
+        <f>-H22+$B22</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="J22" s="12" t="str">
+        <f>VLOOKUP(A22,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6">
-        <f>C13</f>
-        <v>5.71</v>
-      </c>
-      <c r="C13" s="7">
-        <f>D13</f>
-        <v>5.71</v>
-      </c>
-      <c r="D13" s="7">
-        <f>E13</f>
-        <v>5.71</v>
-      </c>
-      <c r="E13" s="7">
-        <f>F13</f>
-        <v>5.71</v>
-      </c>
-      <c r="F13" s="11">
-        <f>G13</f>
-        <v>5.71</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5.71</v>
-      </c>
-      <c r="H13" s="10">
-        <f>-G13+B13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12" t="e">
-        <f>VLOOKUP(A13,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6">
-        <f>C14</f>
-        <v>5.29</v>
-      </c>
-      <c r="C14" s="7">
-        <f>D14</f>
-        <v>5.29</v>
-      </c>
-      <c r="D14" s="7">
-        <f>E14</f>
-        <v>5.29</v>
-      </c>
-      <c r="E14" s="7">
-        <f>F14</f>
-        <v>5.29</v>
-      </c>
-      <c r="F14" s="11">
-        <f>G14</f>
-        <v>5.29</v>
-      </c>
-      <c r="G14" s="9">
-        <v>5.29</v>
-      </c>
-      <c r="H14" s="10">
-        <f>-G14+B14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="str">
-        <f>VLOOKUP(A14,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6">
-        <f>C15+0.2</f>
-        <v>3.76</v>
-      </c>
-      <c r="C15" s="7">
-        <f>D15-0.2</f>
-        <v>3.56</v>
-      </c>
-      <c r="D15" s="7">
-        <f>E15-0.2</f>
-        <v>3.76</v>
-      </c>
-      <c r="E15" s="7">
-        <f>F15+0.1+0.1</f>
-        <v>3.96</v>
-      </c>
-      <c r="F15" s="11">
-        <f>G15</f>
-        <v>3.76</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3.76</v>
-      </c>
-      <c r="H15" s="10">
-        <f>-G15+B15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="e">
-        <f>VLOOKUP(A15,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6">
-        <f>C16-0.2</f>
-        <v>6.49</v>
-      </c>
-      <c r="C16" s="7">
-        <f>D16</f>
-        <v>6.69</v>
-      </c>
-      <c r="D16" s="7">
-        <f>E16</f>
-        <v>6.69</v>
-      </c>
-      <c r="E16" s="7">
-        <f>F16+0.1</f>
-        <v>6.69</v>
-      </c>
-      <c r="F16" s="11">
-        <f>G16</f>
-        <v>6.59</v>
-      </c>
-      <c r="G16" s="9">
-        <v>6.59</v>
-      </c>
-      <c r="H16" s="10">
-        <f>-G16+B16</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I16" s="12" t="str">
-        <f>VLOOKUP(A16,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
-        <f>C17</f>
-        <v>7.9</v>
-      </c>
-      <c r="C17" s="7">
-        <f>D17-0.2</f>
-        <v>7.9</v>
-      </c>
-      <c r="D17" s="7">
-        <f>E17-0.2</f>
-        <v>8.1</v>
-      </c>
-      <c r="E17" s="7">
-        <f>F17+0.1</f>
-        <v>8.3</v>
-      </c>
-      <c r="F17" s="8">
-        <f>G17+0.2</f>
-        <v>8.2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>8</v>
-      </c>
-      <c r="H17" s="10">
-        <f>-G17+B17</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I17" s="12" t="e">
-        <f>VLOOKUP(A17,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
-        <f>C18</f>
-        <v>7.61</v>
-      </c>
-      <c r="C18" s="7">
-        <f>D18-0.2</f>
-        <v>7.61</v>
-      </c>
-      <c r="D18" s="7">
-        <f>E18</f>
-        <v>7.81</v>
-      </c>
-      <c r="E18" s="7">
-        <f>F18+0.1</f>
-        <v>7.81</v>
-      </c>
-      <c r="F18" s="8">
-        <f>G18</f>
-        <v>7.71</v>
-      </c>
-      <c r="G18" s="9">
-        <v>7.71</v>
-      </c>
-      <c r="H18" s="10">
-        <f>-G18+B18</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I18" s="12" t="str">
-        <f>VLOOKUP(A18,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6">
-        <f>C19</f>
-        <v>6.78</v>
-      </c>
-      <c r="C19" s="7">
-        <f>D19-0.2+0.1</f>
-        <v>6.78</v>
-      </c>
-      <c r="D19" s="7">
-        <f>E19+0.2</f>
-        <v>6.88</v>
-      </c>
-      <c r="E19" s="7">
-        <f>F19-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="F19" s="8">
-        <f>G19</f>
-        <v>6.88</v>
-      </c>
-      <c r="G19" s="9">
-        <v>6.88</v>
-      </c>
-      <c r="H19" s="10">
-        <f>-G19+B19</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I19" s="12" t="str">
-        <f>VLOOKUP(A19,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6">
-        <f>C20</f>
-        <v>6.19</v>
-      </c>
-      <c r="C20" s="7">
-        <f>D20</f>
-        <v>6.19</v>
-      </c>
-      <c r="D20" s="7">
-        <f>E20</f>
-        <v>6.19</v>
-      </c>
-      <c r="E20" s="7">
-        <f>F20+0.1</f>
-        <v>6.19</v>
-      </c>
-      <c r="F20" s="8">
-        <f>G20-0.2</f>
-        <v>6.09</v>
-      </c>
-      <c r="G20" s="9">
-        <v>6.29</v>
-      </c>
-      <c r="H20" s="10">
-        <f>-G20+B20</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I20" s="12" t="str">
-        <f>VLOOKUP(A20,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <f>C21+0.2+0.1</f>
-        <v>8.43</v>
-      </c>
-      <c r="C21" s="7">
-        <f>D21</f>
-        <v>8.13</v>
-      </c>
-      <c r="D21" s="7">
-        <f>E21-0.2</f>
-        <v>8.13</v>
-      </c>
-      <c r="E21" s="7">
-        <f>F21</f>
-        <v>8.33</v>
-      </c>
-      <c r="F21" s="8">
-        <f>G21-0.2</f>
-        <v>8.33</v>
-      </c>
-      <c r="G21" s="9">
-        <v>8.53</v>
-      </c>
-      <c r="H21" s="10">
-        <f>-G21+B21</f>
-        <v>-0.0999999999999996</v>
-      </c>
-      <c r="I21" s="12" t="str">
-        <f>VLOOKUP(A21,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6">
-        <f>C22-0.2</f>
-        <v>6.43</v>
-      </c>
-      <c r="C22" s="7">
-        <f>D22</f>
-        <v>6.63</v>
-      </c>
-      <c r="D22" s="7">
-        <f>E22</f>
-        <v>6.63</v>
-      </c>
-      <c r="E22" s="7">
-        <f>F22+0.1</f>
-        <v>6.63</v>
-      </c>
-      <c r="F22" s="11">
-        <f>G22</f>
-        <v>6.53</v>
-      </c>
-      <c r="G22" s="9">
-        <v>6.53</v>
-      </c>
-      <c r="H22" s="10">
-        <f>-G22+B22</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="I22" s="12" t="str">
-        <f>VLOOKUP(A22,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:9">
+    <row r="23" ht="14.25" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5">
         <f>C23</f>
         <v>7.92</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>D23</f>
         <v>7.92</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>E23</f>
         <v>7.92</v>
       </c>
-      <c r="E23" s="7">
-        <f>F23-0.2</f>
+      <c r="E23" s="6">
+        <f>F23</f>
         <v>7.92</v>
       </c>
-      <c r="F23" s="11">
-        <f>G23</f>
+      <c r="F23" s="6">
+        <f>G23-0.2</f>
+        <v>7.92</v>
+      </c>
+      <c r="G23" s="9">
+        <f>H23</f>
         <v>8.12</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="8">
         <v>8.12</v>
       </c>
-      <c r="H23" s="10">
-        <f>-G23+B23</f>
+      <c r="I23" s="11">
+        <f>-H23+$C23</f>
         <v>-0.2</v>
       </c>
-      <c r="I23" s="12" t="str">
-        <f>VLOOKUP(A23,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:9">
+      <c r="J23" s="12" t="e">
+        <f>VLOOKUP(A23,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="6">
-        <f>C24-0.2</f>
-        <v>5.15</v>
-      </c>
-      <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5">
+        <f>C24</f>
+        <v>6.68</v>
+      </c>
+      <c r="C24" s="6">
         <f>D24</f>
-        <v>5.35</v>
-      </c>
-      <c r="D24" s="7">
-        <f>E24</f>
-        <v>5.35</v>
-      </c>
-      <c r="E24" s="7">
+        <v>6.68</v>
+      </c>
+      <c r="D24" s="6">
+        <f>E24+0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="E24" s="6">
         <f>F24</f>
-        <v>5.35</v>
-      </c>
-      <c r="F24" s="11">
-        <f>G24</f>
-        <v>5.35</v>
-      </c>
-      <c r="G24" s="9">
-        <v>5.35</v>
-      </c>
-      <c r="H24" s="10">
-        <f>-G24+B24</f>
+        <v>6.48</v>
+      </c>
+      <c r="F24" s="6">
+        <f>G24-0.2</f>
+        <v>6.48</v>
+      </c>
+      <c r="G24" s="7">
+        <f>H24-0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="H24" s="8">
+        <v>6.88</v>
+      </c>
+      <c r="I24" s="11">
+        <f>-H24+$C24</f>
         <v>-0.2</v>
       </c>
-      <c r="I24" s="12" t="str">
-        <f>VLOOKUP(A24,'Base de Craques'!A:F,6,1)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:9">
+      <c r="J24" s="12" t="e">
+        <f>VLOOKUP(A24,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="6">
-        <f>C25</f>
-        <v>6.68</v>
-      </c>
-      <c r="C25" s="7">
-        <f>D25+0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="D25" s="7">
-        <f>E25</f>
-        <v>6.48</v>
-      </c>
-      <c r="E25" s="7">
-        <f>F25-0.2</f>
-        <v>6.48</v>
-      </c>
-      <c r="F25" s="8">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5">
+        <f>C25-0.2</f>
+        <v>6.58</v>
+      </c>
+      <c r="C25" s="6">
+        <f>D25</f>
+        <v>6.78</v>
+      </c>
+      <c r="D25" s="6">
+        <f>E25-0.2+0.1</f>
+        <v>6.78</v>
+      </c>
+      <c r="E25" s="6">
+        <f>F25+0.2</f>
+        <v>6.88</v>
+      </c>
+      <c r="F25" s="6">
         <f>G25-0.2</f>
         <v>6.68</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
+        <f>H25</f>
         <v>6.88</v>
       </c>
-      <c r="H25" s="10">
-        <f>-G25+B25</f>
-        <v>-0.2</v>
-      </c>
-      <c r="I25" s="12" t="e">
-        <f>VLOOKUP(A25,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:9">
+      <c r="H25" s="8">
+        <v>6.88</v>
+      </c>
+      <c r="I25" s="11">
+        <f>-H25+$B25</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="J25" s="12" t="str">
+        <f>VLOOKUP(A25,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6">
-        <f>C26</f>
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
+        <f>C26-0.2</f>
+        <v>5.99</v>
+      </c>
+      <c r="C26" s="6">
+        <f>D26</f>
+        <v>6.19</v>
+      </c>
+      <c r="D26" s="6">
+        <f>E26</f>
+        <v>6.19</v>
+      </c>
+      <c r="E26" s="6">
+        <f>F26</f>
+        <v>6.19</v>
+      </c>
+      <c r="F26" s="6">
+        <f>G26+0.1</f>
+        <v>6.19</v>
+      </c>
+      <c r="G26" s="7">
+        <f>H26-0.2</f>
+        <v>6.09</v>
+      </c>
+      <c r="H26" s="8">
+        <v>6.29</v>
+      </c>
+      <c r="I26" s="11">
+        <f>-H26+$B26</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="J26" s="12" t="str">
+        <f>VLOOKUP(A26,'Base de Craques'!A:F,6,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
+        <f>C27-0.2</f>
+        <v>6.36</v>
+      </c>
+      <c r="C27" s="6">
+        <f>D27</f>
         <v>6.56</v>
       </c>
-      <c r="C26" s="7">
-        <f>D26+0.2</f>
+      <c r="D27" s="6">
+        <f>E27+0.2</f>
         <v>6.56</v>
       </c>
-      <c r="D26" s="7">
-        <f>E26-0.2</f>
+      <c r="E27" s="6">
+        <f>F27-0.2</f>
         <v>6.36</v>
       </c>
-      <c r="E26" s="7">
-        <f>F26</f>
+      <c r="F27" s="6">
+        <f>G27</f>
         <v>6.56</v>
       </c>
-      <c r="F26" s="8">
-        <f>G26-0.2</f>
+      <c r="G27" s="7">
+        <f>H27-0.2</f>
         <v>6.56</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H27" s="8">
         <v>6.76</v>
       </c>
-      <c r="H26" s="10">
-        <f>-G26+B26</f>
-        <v>-0.2</v>
-      </c>
-      <c r="I26" s="12" t="e">
-        <f>VLOOKUP(A26,'Base de Craques'!A:F,6,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6">
-        <f>C27-0.2</f>
-        <v>7.76</v>
-      </c>
-      <c r="C27" s="7">
-        <f>D27-0.2</f>
-        <v>7.96</v>
-      </c>
-      <c r="D27" s="7">
-        <f>E27-0.2</f>
-        <v>8.16</v>
-      </c>
-      <c r="E27" s="7">
-        <f>F27+0.1</f>
-        <v>8.36</v>
-      </c>
-      <c r="F27" s="8">
-        <f>G27+0.2</f>
-        <v>8.26</v>
-      </c>
-      <c r="G27" s="9">
-        <v>8.06</v>
-      </c>
-      <c r="H27" s="10">
-        <f>-G27+B27</f>
-        <v>-0.300000000000001</v>
-      </c>
-      <c r="I27" s="12" t="str">
-        <f>VLOOKUP(A27,'Base de Craques'!A:F,6,1)</f>
+      <c r="I27" s="11">
+        <f>-H27+$B27</f>
+        <v>-0.4</v>
+      </c>
+      <c r="J27" s="12" t="str">
+        <f>VLOOKUP(A27,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
@@ -4735,7 +4844,13 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H$1:H$1048576">
+  <autoFilter ref="A1:J27">
+    <sortState ref="A2:J27">
+      <sortCondition ref="I1" descending="1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4759,10 +4874,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
@@ -4809,16 +4924,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" ht="14.4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>CHRYSTIAN W.</v>
+        <v>PATRESI</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -4829,11 +4944,11 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>PATRESI</v>
+        <v>KESSLER</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -4844,7 +4959,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -4859,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -4874,7 +4989,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -4889,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -4904,7 +5019,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -4919,11 +5034,11 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>KESSLER</v>
+        <v>PIRAMBA</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -4934,7 +5049,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -4949,11 +5064,11 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>RENATINHO</v>
+        <v>JEAN</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>

--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -1,26 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevizan\Projetos\futeletrica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4316C-F90C-4C82-8B74-1226912102C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
     <sheet name="Upgrade" sheetId="2" r:id="rId2"/>
     <sheet name="Escalado" sheetId="3" r:id="rId3"/>
+    <sheet name="Aposentados" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>Nome</t>
   </si>
@@ -70,9 +90,6 @@
     <t>ACYR</t>
   </si>
   <si>
-    <t>Sumido</t>
-  </si>
-  <si>
     <t>CHRYSTIAN W.</t>
   </si>
   <si>
@@ -85,9 +102,6 @@
     <t>BRIAN ROCHA</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>VITOR</t>
   </si>
   <si>
@@ -166,9 +180,6 @@
     <t>Patresi</t>
   </si>
   <si>
-    <t>Kessler</t>
-  </si>
-  <si>
     <t>Clevisson</t>
   </si>
   <si>
@@ -184,9 +195,6 @@
     <t>Gil</t>
   </si>
   <si>
-    <t>piramba</t>
-  </si>
-  <si>
     <t>Gustavo</t>
   </si>
   <si>
@@ -194,20 +202,28 @@
   </si>
   <si>
     <t>Luis</t>
+  </si>
+  <si>
+    <t>Mantova</t>
+  </si>
+  <si>
+    <t>Piramba</t>
+  </si>
+  <si>
+    <t>Renatinho</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,353 +252,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -633,253 +312,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,17 +326,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,68 +346,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,29 +558,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F994"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="4" width="7.57407407407407" customWidth="1"/>
-    <col min="5" max="5" width="10.287037037037" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.287037037037" customWidth="1"/>
-    <col min="7" max="19" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="19" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,583 +598,499 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>87</v>
       </c>
-      <c r="C2" s="14">
-        <f>VLOOKUP(A2,Upgrade!A:G,2,FALSE)</f>
-        <v>8.43</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="12">
+        <f>VLOOKUP(A2,Upgrade!A:H,2,FALSE)</f>
+        <v>8.629999999999999</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="str">
+      <c r="F2" s="12" t="str">
         <f>VLOOKUP(A2,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
-        <f>VLOOKUP(A3,Upgrade!A:G,2,FALSE)</f>
-        <v>8.28</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="12">
+        <f>VLOOKUP(A3,Upgrade!A:H,2,FALSE)</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="12" t="str">
         <f>VLOOKUP(A3,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>15</v>
       </c>
-      <c r="C4" s="14">
-        <f>VLOOKUP(A4,Upgrade!A:G,2,FALSE)</f>
-        <v>8.25</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="12">
+        <f>VLOOKUP(A4,Upgrade!A:H,2,FALSE)</f>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="12" t="str">
         <f>VLOOKUP(A4,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="14">
-        <f>VLOOKUP(A5,Upgrade!A:G,2,FALSE)</f>
-        <v>7.96</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12">
+        <f>VLOOKUP(A5,Upgrade!A:H,2,FALSE)</f>
+        <v>7.97</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="12" t="str">
         <f>VLOOKUP(A5,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14">
-        <f>VLOOKUP(A6,Upgrade!A:G,2,FALSE)</f>
-        <v>7.94</v>
-      </c>
-      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12">
+        <f>VLOOKUP(A6,Upgrade!A:H,2,FALSE)</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15" t="e">
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="e">
         <f>VLOOKUP(A6,Escalado!C:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11">
+        <v>55</v>
+      </c>
+      <c r="C7" s="12">
+        <f>VLOOKUP(A7,Upgrade!A:H,2,FALSE)</f>
+        <v>7.82</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13">
-        <v>88</v>
-      </c>
-      <c r="C7" s="14">
-        <f>VLOOKUP(A7,Upgrade!A:G,2,FALSE)</f>
-        <v>7.92</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="15" t="e">
+      <c r="F7" s="12" t="e">
         <f>VLOOKUP(A7,Escalado!C:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14">
-        <f>VLOOKUP(A8,Upgrade!A:G,2,FALSE)</f>
-        <v>7.9</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="12">
+        <f>VLOOKUP(A8,Upgrade!A:H,2,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>VLOOKUP(A8,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12">
+        <f>VLOOKUP(A9,Upgrade!A:H,2,FALSE)</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="e">
-        <f>VLOOKUP(A8,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14">
-        <f>VLOOKUP(A9,Upgrade!A:G,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="15" t="e">
+      <c r="F9" s="12" t="str">
         <f>VLOOKUP(A9,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:6">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13">
-        <v>55</v>
-      </c>
-      <c r="C10" s="14">
-        <f>VLOOKUP(A10,Upgrade!A:G,2,FALSE)</f>
-        <v>7.82</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <f>VLOOKUP(A10,Upgrade!A:H,2,FALSE)</f>
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15" t="e">
+      <c r="E10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="str">
         <f>VLOOKUP(A10,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:6">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14">
-        <f>VLOOKUP(A11,Upgrade!A:G,2,FALSE)</f>
-        <v>7.77</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <f>VLOOKUP(A11,Upgrade!A:H,2,FALSE)</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="12" t="str">
         <f>VLOOKUP(A11,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <f>VLOOKUP(A12,Upgrade!A:G,2,FALSE)</f>
-        <v>7.61</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="str">
+      <c r="C12" s="12">
+        <f>VLOOKUP(A12,Upgrade!A:H,2,FALSE)</f>
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="str">
         <f>VLOOKUP(A12,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11">
+        <v>89</v>
+      </c>
+      <c r="C13" s="12">
+        <f>VLOOKUP(A13,Upgrade!A:H,2,FALSE)</f>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f>VLOOKUP(A13,Escalado!C:D,2,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B14" s="11">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12">
+        <f>VLOOKUP(A14,Upgrade!A:H,2,FALSE)</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14">
-        <f>VLOOKUP(A13,Upgrade!A:G,2,FALSE)</f>
-        <v>7.48</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="15" t="e">
-        <f>VLOOKUP(A13,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="13">
-        <v>89</v>
-      </c>
-      <c r="C14" s="14">
-        <f>VLOOKUP(A14,Upgrade!A:G,2,FALSE)</f>
-        <v>6.73</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="15" t="str">
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="12" t="str">
         <f>VLOOKUP(A14,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="13">
-        <v>38</v>
-      </c>
-      <c r="C15" s="14">
-        <f>VLOOKUP(A15,Upgrade!A:G,2,FALSE)</f>
-        <v>6.69</v>
-      </c>
-      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <f>VLOOKUP(A15,Upgrade!A:H,2,FALSE)</f>
+        <v>6.68</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="15" t="str">
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12" t="e">
         <f>VLOOKUP(A15,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12">
+        <f>VLOOKUP(A16,Upgrade!A:H,2,FALSE)</f>
+        <v>6.56</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f>VLOOKUP(A16,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="13">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
-        <f>VLOOKUP(A16,Upgrade!A:G,2,FALSE)</f>
-        <v>6.68</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="B17" s="11">
+        <v>47</v>
+      </c>
+      <c r="C17" s="12">
+        <f>VLOOKUP(A17,Upgrade!A:H,2,FALSE)</f>
+        <v>6.53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="15" t="e">
-        <f>VLOOKUP(A16,Escalado!C:D,2,FALSE)</f>
+      <c r="F17" s="12" t="e">
+        <f>VLOOKUP(A17,Escalado!C:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="13">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14">
-        <f>VLOOKUP(A17,Upgrade!A:G,2,FALSE)</f>
-        <v>6.58</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="15" t="str">
-        <f>VLOOKUP(A17,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13">
-        <v>47</v>
-      </c>
-      <c r="C18" s="14">
-        <f>VLOOKUP(A18,Upgrade!A:G,2,FALSE)</f>
-        <v>6.53</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12">
+        <f>VLOOKUP(A18,Upgrade!A:H,2,FALSE)</f>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="15" t="e">
+      <c r="F18" s="12" t="str">
         <f>VLOOKUP(A18,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:6">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13">
-        <v>14</v>
-      </c>
-      <c r="C19" s="14">
-        <f>VLOOKUP(A19,Upgrade!A:G,2,FALSE)</f>
-        <v>6.36</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="11">
+        <v>20</v>
+      </c>
+      <c r="C19" s="12">
+        <f>VLOOKUP(A19,Upgrade!A:H,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="15" t="str">
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12" t="e">
         <f>VLOOKUP(A19,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:6">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14">
-        <f>VLOOKUP(A20,Upgrade!A:G,2,FALSE)</f>
-        <v>6.18</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="11">
         <v>7</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="12">
+        <f>VLOOKUP(A20,Upgrade!A:H,2,FALSE)</f>
+        <v>5.9899999999999993</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="12" t="str">
         <f>VLOOKUP(A20,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12">
+        <f>VLOOKUP(A21,Upgrade!A:H,2,FALSE)</f>
+        <v>5.96</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="12" t="e">
+        <f>VLOOKUP(A21,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12">
+        <f>VLOOKUP(A22,Upgrade!A:H,2,FALSE)</f>
+        <v>5.35</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="12" t="e">
+        <f>VLOOKUP(A22,Escalado!C:D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="11">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12">
+        <f>VLOOKUP(A23,Upgrade!A:H,2,FALSE)</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="13">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14">
-        <f>VLOOKUP(A21,Upgrade!A:G,2,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="15" t="str">
-        <f>VLOOKUP(A21,Escalado!C:D,2,FALSE)</f>
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f>VLOOKUP(A23,Escalado!C:D,2,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="13">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14">
-        <f>VLOOKUP(A22,Upgrade!A:G,2,FALSE)</f>
-        <v>5.99</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15" t="str">
-        <f>VLOOKUP(A22,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14">
-        <f>VLOOKUP(A23,Upgrade!A:G,2,FALSE)</f>
-        <v>5.96</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="15" t="e">
-        <f>VLOOKUP(A23,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="13">
-        <v>19</v>
-      </c>
-      <c r="C24" s="14">
-        <f>VLOOKUP(A24,Upgrade!A:G,2,FALSE)</f>
-        <v>5.71</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="15" t="e">
-        <f>VLOOKUP(A24,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="13">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14">
-        <f>VLOOKUP(A25,Upgrade!A:G,2,FALSE)</f>
-        <v>5.35</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="15" t="str">
-        <f>VLOOKUP(A25,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13">
-        <v>94</v>
-      </c>
-      <c r="C26" s="14">
-        <f>VLOOKUP(A26,Upgrade!A:G,2,FALSE)</f>
-        <v>5.29</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="15" t="e">
-        <f>VLOOKUP(A26,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="13">
-        <v>52</v>
-      </c>
-      <c r="C27" s="14">
-        <f>VLOOKUP(A27,Upgrade!A:G,2,FALSE)</f>
-        <v>3.76</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="15" t="str">
-        <f>VLOOKUP(A27,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2747,18 +2049,13 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F27">
-    <sortState ref="A2:F27">
-      <sortCondition ref="C1" descending="1"/>
+  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+      <sortCondition descending="1" ref="C1:C23"/>
     </sortState>
-    <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2770,433 +2067,473 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J994"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="7.55555555555556" customWidth="1"/>
-    <col min="3" max="3" width="9.71296296296296" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.44444444444444" customWidth="1"/>
-    <col min="7" max="8" width="7.57407407407407" customWidth="1"/>
-    <col min="9" max="9" width="11.4259259259259" customWidth="1"/>
-    <col min="10" max="10" width="10.287037037037" customWidth="1"/>
-    <col min="11" max="21" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="22" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <f>C1+7</f>
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="C1" s="3">
         <f>D1+7</f>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="D1" s="3">
         <f>E1+7</f>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="E1" s="3">
         <f>F1+7</f>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="F1" s="3">
         <f>G1+7</f>
+        <v>44982</v>
+      </c>
+      <c r="G1" s="3">
+        <f>H1+7</f>
         <v>44975</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>44968</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:10">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <f>C2</f>
-        <v>8.25</v>
-      </c>
-      <c r="C2" s="6">
-        <f>D2+0.2</f>
-        <v>8.25</v>
-      </c>
-      <c r="D2" s="6">
-        <f>E2</f>
-        <v>8.05</v>
-      </c>
-      <c r="E2" s="6">
-        <f>F2+0.2+0.1</f>
-        <v>8.05</v>
-      </c>
-      <c r="F2" s="6">
-        <f>G2+0.1</f>
-        <v>7.75</v>
-      </c>
-      <c r="G2" s="7">
-        <f>H2+0.2+0.1</f>
-        <v>7.65</v>
-      </c>
-      <c r="H2" s="8">
+        <f>C2-0.2</f>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="C2" s="5">
+        <f>D2</f>
+        <v>8.2499999999999982</v>
+      </c>
+      <c r="D2" s="5">
+        <f>E2+0.2</f>
+        <v>8.2499999999999982</v>
+      </c>
+      <c r="E2" s="5">
+        <f>F2</f>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="F2" s="5">
+        <f>G2+0.2+0.1</f>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="G2" s="5">
+        <f>H2+0.1</f>
+        <v>7.7499999999999991</v>
+      </c>
+      <c r="H2" s="6">
+        <f>I2+0.2+0.1</f>
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="I2" s="7">
         <v>7.35</v>
       </c>
-      <c r="I2" s="11">
-        <f>-H2+$B2</f>
-        <v>0.899999999999999</v>
-      </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="9">
+        <f>-I2+$B2</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="K2" s="10" t="str">
         <f>VLOOKUP(A2,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <f>C3+0.2</f>
-        <v>8.28</v>
-      </c>
-      <c r="C3" s="6">
+        <v>7.97</v>
+      </c>
+      <c r="C3" s="5">
         <f>D3-0.2</f>
-        <v>8.08</v>
-      </c>
-      <c r="D3" s="6">
+        <v>7.77</v>
+      </c>
+      <c r="D3" s="5">
         <f>E3+0.2</f>
-        <v>8.28</v>
-      </c>
-      <c r="E3" s="6">
+        <v>7.97</v>
+      </c>
+      <c r="E3" s="5">
         <f>F3+0.2</f>
-        <v>8.08</v>
-      </c>
-      <c r="F3" s="6">
-        <f>G3</f>
-        <v>7.88</v>
-      </c>
-      <c r="G3" s="7">
-        <f>H3</f>
-        <v>7.88</v>
-      </c>
-      <c r="H3" s="8">
-        <v>7.88</v>
-      </c>
-      <c r="I3" s="11">
-        <f>-H3+$B3</f>
-        <v>0.399999999999999</v>
-      </c>
-      <c r="J3" s="12" t="str">
+        <v>7.77</v>
+      </c>
+      <c r="F3" s="5">
+        <f>G3+0.2</f>
+        <v>7.5699999999999994</v>
+      </c>
+      <c r="G3" s="5">
+        <f>H3+0.1</f>
+        <v>7.3699999999999992</v>
+      </c>
+      <c r="H3" s="6">
+        <f>I3-0.2</f>
+        <v>7.27</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="J3" s="9">
+        <f>-I3+$B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="10" t="str">
         <f>VLOOKUP(A3,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
-        <f>C4-0.2</f>
-        <v>7.77</v>
-      </c>
-      <c r="C4" s="6">
+        <f>C4</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C4" s="5">
         <f>D4+0.2</f>
-        <v>7.97</v>
-      </c>
-      <c r="D4" s="6">
-        <f>E4+0.2</f>
-        <v>7.77</v>
-      </c>
-      <c r="E4" s="6">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D4" s="5">
+        <f>E4-0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="E4" s="5">
         <f>F4+0.2</f>
-        <v>7.57</v>
-      </c>
-      <c r="F4" s="6">
-        <f>G4+0.1</f>
-        <v>7.37</v>
-      </c>
-      <c r="G4" s="7">
-        <f>H4-0.2</f>
-        <v>7.27</v>
-      </c>
-      <c r="H4" s="8">
-        <v>7.47</v>
-      </c>
-      <c r="I4" s="11">
-        <f>-H4+$B4</f>
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F4" s="5">
+        <f>G4+0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="G4" s="5">
+        <f>H4</f>
+        <v>7.88</v>
+      </c>
+      <c r="H4" s="6">
+        <f>I4</f>
+        <v>7.88</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7.88</v>
+      </c>
+      <c r="J4" s="9">
+        <f>-I4+$B4</f>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="K4" s="10" t="str">
         <f>VLOOKUP(A4,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5">
-        <f>C5</f>
-        <v>7.48</v>
-      </c>
-      <c r="C5" s="6">
-        <f>D5+0.2</f>
-        <v>7.48</v>
-      </c>
-      <c r="D5" s="6">
+        <f>C5+0.2+0.1</f>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="C5" s="5">
+        <f>D5-0.2</f>
+        <v>6.18</v>
+      </c>
+      <c r="D5" s="5">
         <f>E5</f>
-        <v>7.28</v>
-      </c>
-      <c r="E5" s="6">
-        <f>F5</f>
-        <v>7.28</v>
-      </c>
-      <c r="F5" s="6">
-        <f>G5+0.1</f>
-        <v>7.28</v>
-      </c>
-      <c r="G5" s="7">
-        <f>H5</f>
-        <v>7.18</v>
-      </c>
-      <c r="H5" s="8">
-        <v>7.18</v>
-      </c>
-      <c r="I5" s="11">
-        <f>-H5+$C5</f>
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="12" t="e">
+        <v>6.38</v>
+      </c>
+      <c r="E5" s="5">
+        <f>F5+0.2</f>
+        <v>6.38</v>
+      </c>
+      <c r="F5" s="5">
+        <f>G5+0.2</f>
+        <v>6.18</v>
+      </c>
+      <c r="G5" s="5">
+        <f>H5-0.2</f>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="H5" s="6">
+        <f>I5</f>
+        <v>6.18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="J5" s="9">
+        <f>-I5+$B5</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="K5" s="10" t="str">
         <f>VLOOKUP(A5,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:10">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <f>C6</f>
         <v>5.96</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>D6</f>
         <v>5.96</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>E6</f>
         <v>5.96</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>F6</f>
         <v>5.96</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>G6</f>
         <v>5.96</v>
       </c>
-      <c r="G6" s="7">
-        <f>H6+0.2</f>
+      <c r="G6" s="5">
+        <f>H6</f>
         <v>5.96</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
+        <f>I6+0.2</f>
+        <v>5.96</v>
+      </c>
+      <c r="I6" s="7">
         <v>5.76</v>
       </c>
-      <c r="I6" s="11">
-        <f>-H6+$C6</f>
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="12" t="e">
+      <c r="J6" s="9">
+        <f>-I6+$B6</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="K6" s="10" t="e">
         <f>VLOOKUP(A6,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:10">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
-        <f>C7+0.2+0.1</f>
-        <v>6.73</v>
-      </c>
-      <c r="C7" s="6">
-        <f>D7-0.2</f>
+        <f>C7</f>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="C7" s="5">
+        <f>D7+0.2+0.1</f>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <f>E7-0.2</f>
         <v>6.43</v>
       </c>
-      <c r="D7" s="6">
-        <f>E7</f>
-        <v>6.63</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>F7</f>
         <v>6.63</v>
       </c>
-      <c r="F7" s="6">
-        <f>G7+0.1</f>
+      <c r="F7" s="5">
+        <f>G7</f>
         <v>6.63</v>
       </c>
-      <c r="G7" s="9">
-        <f>H7</f>
+      <c r="G7" s="5">
+        <f>H7+0.1</f>
+        <v>6.63</v>
+      </c>
+      <c r="H7" s="6">
+        <f>I7</f>
         <v>6.53</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="7">
         <v>6.53</v>
       </c>
-      <c r="I7" s="11">
-        <f>-H7+$B7</f>
-        <v>0.199999999999999</v>
-      </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="9">
+        <f>-I7+$B7</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="K7" s="10" t="str">
         <f>VLOOKUP(A7,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
-        <f>C8+0.2</f>
-        <v>6.69</v>
-      </c>
-      <c r="C8" s="6">
-        <f>D8-0.2</f>
-        <v>6.49</v>
-      </c>
-      <c r="D8" s="6">
-        <f>E8</f>
-        <v>6.69</v>
-      </c>
-      <c r="E8" s="6">
+        <f>C8-0.2</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="C8" s="5">
+        <f>D8</f>
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="D8" s="5">
+        <f>E8+0.2</f>
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="E8" s="5">
         <f>F8</f>
-        <v>6.69</v>
-      </c>
-      <c r="F8" s="6">
-        <f>G8+0.1</f>
-        <v>6.69</v>
-      </c>
-      <c r="G8" s="9">
-        <f>H8</f>
-        <v>6.59</v>
-      </c>
-      <c r="H8" s="8">
-        <v>6.59</v>
-      </c>
-      <c r="I8" s="11">
-        <f>-H8+$B8</f>
-        <v>0.0999999999999996</v>
-      </c>
-      <c r="J8" s="12" t="str">
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="F8" s="5">
+        <f>G8</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="G8" s="5">
+        <f>H8+0.1</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="H8" s="6">
+        <f>I8</f>
+        <v>7.18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7.18</v>
+      </c>
+      <c r="J8" s="9">
+        <f>-I8+$B8</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="K8" s="10" t="str">
         <f>VLOOKUP(A8,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
-        <f>C9-0.2</f>
-        <v>6.18</v>
-      </c>
-      <c r="C9" s="6">
-        <f>D9</f>
-        <v>6.38</v>
-      </c>
-      <c r="D9" s="6">
-        <f>E9+0.2</f>
-        <v>6.38</v>
-      </c>
-      <c r="E9" s="6">
-        <f>F9+0.2</f>
-        <v>6.18</v>
-      </c>
-      <c r="F9" s="6">
-        <f>G9-0.2</f>
-        <v>5.98</v>
-      </c>
-      <c r="G9" s="7">
-        <f>H9</f>
-        <v>6.18</v>
-      </c>
-      <c r="H9" s="8">
-        <v>6.18</v>
-      </c>
-      <c r="I9" s="11">
-        <f>-H9+$B9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="str">
+        <f>C9</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="C9" s="5">
+        <f>D9+0.2</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="D9" s="5">
+        <f>E9-0.2</f>
+        <v>6.4899999999999993</v>
+      </c>
+      <c r="E9" s="5">
+        <f>F9</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="F9" s="5">
+        <f>G9</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="G9" s="5">
+        <f>H9+0.1</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="H9" s="6">
+        <f>I9</f>
+        <v>6.59</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="J9" s="9">
+        <f>-I9+$B9</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="K9" s="10" t="str">
         <f>VLOOKUP(A9,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
-        <f>C10</f>
-        <v>7.94</v>
-      </c>
-      <c r="C10" s="6">
+        <f>C10+0.2</f>
+        <v>8.629999999999999</v>
+      </c>
+      <c r="C10" s="5">
         <f>D10</f>
-        <v>7.94</v>
-      </c>
-      <c r="D10" s="6">
-        <f>E10</f>
-        <v>7.94</v>
-      </c>
-      <c r="E10" s="6">
+        <v>8.43</v>
+      </c>
+      <c r="D10" s="5">
+        <f>E10+0.2+0.1</f>
+        <v>8.43</v>
+      </c>
+      <c r="E10" s="5">
         <f>F10</f>
-        <v>7.94</v>
-      </c>
-      <c r="F10" s="6">
-        <f>G10</f>
-        <v>7.94</v>
-      </c>
-      <c r="G10" s="9">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F10" s="5">
+        <f>G10-0.2</f>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G10" s="5">
         <f>H10</f>
-        <v>7.94</v>
-      </c>
-      <c r="H10" s="8">
-        <v>7.94</v>
-      </c>
-      <c r="I10" s="11">
-        <f>-H10+$C10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="12" t="e">
+        <v>8.33</v>
+      </c>
+      <c r="H10" s="6">
+        <f>I10-0.2</f>
+        <v>8.33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="J10" s="9">
+        <f>-I10+$B10</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="K10" s="10" t="str">
         <f>VLOOKUP(A10,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:10">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3204,683 +2541,579 @@
         <f>C11</f>
         <v>7.82</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>D11</f>
         <v>7.82</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>E11</f>
         <v>7.82</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>F11</f>
         <v>7.82</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>G11</f>
         <v>7.82</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <f>H11</f>
         <v>7.82</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
+        <f>I11</f>
         <v>7.82</v>
       </c>
-      <c r="I11" s="11">
-        <f>-H11+$C11</f>
+      <c r="I11" s="7">
+        <v>7.82</v>
+      </c>
+      <c r="J11" s="9">
+        <f>-I11+$B11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="12" t="e">
+      <c r="K11" s="10" t="e">
         <f>VLOOKUP(A11,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+    <row r="12" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <f>C12</f>
-        <v>7.82</v>
-      </c>
-      <c r="C12" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="C12" s="5">
         <f>D12</f>
-        <v>7.82</v>
-      </c>
-      <c r="D12" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="D12" s="5">
         <f>E12</f>
-        <v>7.82</v>
-      </c>
-      <c r="E12" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="E12" s="5">
         <f>F12</f>
-        <v>7.82</v>
-      </c>
-      <c r="F12" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="F12" s="5">
         <f>G12</f>
-        <v>7.82</v>
-      </c>
-      <c r="G12" s="9">
-        <f>H12</f>
-        <v>7.82</v>
-      </c>
-      <c r="H12" s="8">
-        <v>7.82</v>
-      </c>
-      <c r="I12" s="11">
-        <f>-H12+$C12</f>
+        <v>6.53</v>
+      </c>
+      <c r="G12" s="5">
+        <f>H12-0.2</f>
+        <v>6.53</v>
+      </c>
+      <c r="H12" s="6">
+        <f>I12+0.2</f>
+        <v>6.73</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="J12" s="9">
+        <f>-I12+$B12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="e">
+      <c r="K12" s="10" t="e">
         <f>VLOOKUP(A12,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:10">
+    <row r="13" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <f>C13</f>
-        <v>6.53</v>
-      </c>
-      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
         <f>D13</f>
-        <v>6.53</v>
-      </c>
-      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
         <f>E13</f>
-        <v>6.53</v>
-      </c>
-      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
         <f>F13</f>
-        <v>6.53</v>
-      </c>
-      <c r="F13" s="6">
-        <f>G13-0.2</f>
-        <v>6.53</v>
-      </c>
-      <c r="G13" s="7">
-        <f>H13+0.2</f>
-        <v>6.73</v>
-      </c>
-      <c r="H13" s="8">
-        <v>6.53</v>
-      </c>
-      <c r="I13" s="11">
-        <f>-H13+$C13</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <f>G13</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <f>H13</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="6">
+        <f>I13</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6</v>
+      </c>
+      <c r="J13" s="9">
+        <f>-I13+$B13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="e">
+      <c r="K13" s="10" t="e">
         <f>VLOOKUP(A13,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+    <row r="14" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5">
         <f>C14</f>
-        <v>6</v>
-      </c>
-      <c r="C14" s="6">
-        <f>D14</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="6">
-        <f>E14</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="C14" s="5">
+        <f>D14+0.2</f>
+        <v>5.35</v>
+      </c>
+      <c r="D14" s="5">
+        <f>E14-0.2</f>
+        <v>5.1499999999999995</v>
+      </c>
+      <c r="E14" s="5">
         <f>F14</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="F14" s="5">
         <f>G14</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="9">
+        <v>5.35</v>
+      </c>
+      <c r="G14" s="5">
         <f>H14</f>
-        <v>6</v>
-      </c>
-      <c r="H14" s="8">
-        <v>6</v>
-      </c>
-      <c r="I14" s="11">
-        <f>-H14+$B14</f>
+        <v>5.35</v>
+      </c>
+      <c r="H14" s="6">
+        <f>I14</f>
+        <v>5.35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="J14" s="9">
+        <f>-I14+$B14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="K14" s="10" t="e">
         <f>VLOOKUP(A14,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:10">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5">
         <f>C15</f>
-        <v>5.71</v>
-      </c>
-      <c r="C15" s="6">
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="C15" s="5">
         <f>D15</f>
-        <v>5.71</v>
-      </c>
-      <c r="D15" s="6">
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="D15" s="5">
         <f>E15</f>
-        <v>5.71</v>
-      </c>
-      <c r="E15" s="6">
-        <f>F15</f>
-        <v>5.71</v>
-      </c>
-      <c r="F15" s="6">
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="E15" s="5">
+        <f>F15-0.2</f>
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="F15" s="5">
         <f>G15</f>
-        <v>5.71</v>
-      </c>
-      <c r="G15" s="9">
-        <f>H15</f>
-        <v>5.71</v>
-      </c>
-      <c r="H15" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="I15" s="11">
-        <f>-H15+$C15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="12" t="e">
+        <v>7.81</v>
+      </c>
+      <c r="G15" s="5">
+        <f>H15+0.1</f>
+        <v>7.81</v>
+      </c>
+      <c r="H15" s="6">
+        <f>I15</f>
+        <v>7.71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7.71</v>
+      </c>
+      <c r="J15" s="9">
+        <f>-I15+$B15</f>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="K15" s="10" t="str">
         <f>VLOOKUP(A15,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5">
-        <f>C16</f>
-        <v>5.29</v>
-      </c>
-      <c r="C16" s="6">
-        <f>D16</f>
-        <v>5.29</v>
-      </c>
-      <c r="D16" s="6">
+        <f>C16+0.2</f>
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="C16" s="5">
+        <f>D16-0.2</f>
+        <v>6.5799999999999992</v>
+      </c>
+      <c r="D16" s="5">
         <f>E16</f>
-        <v>5.29</v>
-      </c>
-      <c r="E16" s="6">
-        <f>F16</f>
-        <v>5.29</v>
-      </c>
-      <c r="F16" s="6">
-        <f>G16</f>
-        <v>5.29</v>
-      </c>
-      <c r="G16" s="9">
-        <f>H16</f>
-        <v>5.29</v>
-      </c>
-      <c r="H16" s="8">
-        <v>5.29</v>
-      </c>
-      <c r="I16" s="11">
-        <f>-H16+$C16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="12" t="e">
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="E16" s="5">
+        <f>F16-0.2+0.1</f>
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="F16" s="5">
+        <f>G16+0.2</f>
+        <v>6.88</v>
+      </c>
+      <c r="G16" s="5">
+        <f>H16-0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="H16" s="6">
+        <f>I16</f>
+        <v>6.88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="J16" s="9">
+        <f>-I16+$B16</f>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="K16" s="10" t="str">
         <f>VLOOKUP(A16,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:10">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5">
-        <f>C17</f>
+        <f>C17-0.2</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="C17" s="5">
+        <f>D17</f>
         <v>3.76</v>
       </c>
-      <c r="C17" s="6">
-        <f>D17+0.2</f>
+      <c r="D17" s="5">
+        <f>E17+0.2</f>
         <v>3.76</v>
       </c>
-      <c r="D17" s="6">
-        <f>E17-0.2</f>
-        <v>3.56</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>F17-0.2</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="F17" s="5">
+        <f>G17-0.2</f>
         <v>3.76</v>
       </c>
-      <c r="F17" s="6">
-        <f>G17+0.1+0.1</f>
+      <c r="G17" s="5">
+        <f>H17+0.1+0.1</f>
         <v>3.96</v>
       </c>
-      <c r="G17" s="9">
-        <f>H17</f>
+      <c r="H17" s="6">
+        <f>I17</f>
         <v>3.76</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="7">
         <v>3.76</v>
       </c>
-      <c r="I17" s="11">
-        <f>-H17+$B17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="9">
+        <f>-I17+$B17</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K17" s="10" t="str">
         <f>VLOOKUP(A17,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:10">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5">
         <f>C18+0.2</f>
-        <v>5.35</v>
-      </c>
-      <c r="C18" s="6">
+        <v>6.56</v>
+      </c>
+      <c r="C18" s="5">
         <f>D18-0.2</f>
-        <v>5.15</v>
-      </c>
-      <c r="D18" s="6">
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="D18" s="5">
         <f>E18</f>
-        <v>5.35</v>
-      </c>
-      <c r="E18" s="6">
-        <f>F18</f>
-        <v>5.35</v>
-      </c>
-      <c r="F18" s="6">
-        <f>G18</f>
-        <v>5.35</v>
-      </c>
-      <c r="G18" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="E18" s="5">
+        <f>F18+0.2</f>
+        <v>6.56</v>
+      </c>
+      <c r="F18" s="5">
+        <f>G18-0.2</f>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="G18" s="5">
         <f>H18</f>
-        <v>5.35</v>
-      </c>
-      <c r="H18" s="8">
-        <v>5.35</v>
-      </c>
-      <c r="I18" s="11">
-        <f>-H18+$B18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="12" t="str">
+        <v>6.56</v>
+      </c>
+      <c r="H18" s="6">
+        <f>I18-0.2</f>
+        <v>6.56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6.76</v>
+      </c>
+      <c r="J18" s="9">
+        <f>-I18+$B18</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K18" s="10" t="str">
         <f>VLOOKUP(A18,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:10">
+    <row r="19" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <f>C19</f>
-        <v>8.43</v>
-      </c>
-      <c r="C19" s="6">
-        <f>D19+0.2+0.1</f>
-        <v>8.43</v>
-      </c>
-      <c r="D19" s="6">
+        <v>7.919999999999999</v>
+      </c>
+      <c r="C19" s="5">
+        <f>D19</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="D19" s="5">
         <f>E19</f>
-        <v>8.13</v>
-      </c>
-      <c r="E19" s="6">
-        <f>F19-0.2</f>
-        <v>8.13</v>
-      </c>
-      <c r="F19" s="6">
+        <v>7.919999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f>F19</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="F19" s="5">
         <f>G19</f>
-        <v>8.33</v>
-      </c>
-      <c r="G19" s="7">
+        <v>7.919999999999999</v>
+      </c>
+      <c r="G19" s="5">
         <f>H19-0.2</f>
-        <v>8.33</v>
-      </c>
-      <c r="H19" s="8">
-        <v>8.53</v>
-      </c>
-      <c r="I19" s="11">
-        <f>-H19+$B19</f>
-        <v>-0.0999999999999996</v>
-      </c>
-      <c r="J19" s="12" t="str">
+        <v>7.919999999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <f>I19</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J19" s="9">
+        <f>-I19+$B19</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K19" s="10" t="e">
         <f>VLOOKUP(A19,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:10">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5">
         <f>C20</f>
-        <v>7.9</v>
-      </c>
-      <c r="C20" s="6">
+        <v>6.68</v>
+      </c>
+      <c r="C20" s="5">
         <f>D20</f>
-        <v>7.9</v>
-      </c>
-      <c r="D20" s="6">
-        <f>E20-0.2</f>
-        <v>7.9</v>
-      </c>
-      <c r="E20" s="6">
-        <f>F20-0.2</f>
-        <v>8.1</v>
-      </c>
-      <c r="F20" s="6">
-        <f>G20+0.1</f>
-        <v>8.3</v>
-      </c>
-      <c r="G20" s="7">
-        <f>H20+0.2</f>
-        <v>8.2</v>
-      </c>
-      <c r="H20" s="8">
-        <v>8</v>
-      </c>
-      <c r="I20" s="11">
-        <f>-H20+$C20</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="J20" s="12" t="e">
+        <v>6.68</v>
+      </c>
+      <c r="D20" s="5">
+        <f>E20</f>
+        <v>6.68</v>
+      </c>
+      <c r="E20" s="5">
+        <f>F20+0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="F20" s="5">
+        <f>G20</f>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="G20" s="5">
+        <f>H20-0.2</f>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="H20" s="6">
+        <f>I20-0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="J20" s="9">
+        <f>-I20+$B20</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K20" s="10" t="e">
         <f>VLOOKUP(A20,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:10">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5">
-        <f>C21</f>
-        <v>7.61</v>
-      </c>
-      <c r="C21" s="6">
-        <f>D21</f>
-        <v>7.61</v>
-      </c>
-      <c r="D21" s="6">
+        <f>C21-0.2</f>
+        <v>7.76</v>
+      </c>
+      <c r="C21" s="5">
+        <f>D21+0.2</f>
+        <v>7.96</v>
+      </c>
+      <c r="D21" s="5">
         <f>E21-0.2</f>
-        <v>7.61</v>
-      </c>
-      <c r="E21" s="6">
-        <f>F21</f>
-        <v>7.81</v>
-      </c>
-      <c r="F21" s="6">
-        <f>G21+0.1</f>
-        <v>7.81</v>
-      </c>
-      <c r="G21" s="7">
-        <f>H21</f>
-        <v>7.71</v>
-      </c>
-      <c r="H21" s="8">
-        <v>7.71</v>
-      </c>
-      <c r="I21" s="11">
-        <f>-H21+$B21</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="J21" s="12" t="str">
+        <v>7.76</v>
+      </c>
+      <c r="E21" s="5">
+        <f>F21-0.2</f>
+        <v>7.96</v>
+      </c>
+      <c r="F21" s="5">
+        <f>G21-0.2</f>
+        <v>8.16</v>
+      </c>
+      <c r="G21" s="5">
+        <f>H21+0.1</f>
+        <v>8.36</v>
+      </c>
+      <c r="H21" s="6">
+        <f>I21+0.2</f>
+        <v>8.26</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8.06</v>
+      </c>
+      <c r="J21" s="9">
+        <f>-I21+$B21</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="K21" s="10" t="str">
         <f>VLOOKUP(A21,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:10">
+    <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
-        <f>C22+0.2</f>
-        <v>7.96</v>
-      </c>
-      <c r="C22" s="6">
-        <f>D22-0.2</f>
-        <v>7.76</v>
-      </c>
-      <c r="D22" s="6">
-        <f>E22-0.2</f>
-        <v>7.96</v>
-      </c>
-      <c r="E22" s="6">
+        <f>C22-0.2</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="C22" s="5">
+        <f>D22</f>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="D22" s="5">
+        <f>E22</f>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="E22" s="5">
         <f>F22-0.2</f>
-        <v>8.16</v>
-      </c>
-      <c r="F22" s="6">
-        <f>G22+0.1</f>
-        <v>8.36</v>
-      </c>
-      <c r="G22" s="7">
-        <f>H22+0.2</f>
-        <v>8.26</v>
-      </c>
-      <c r="H22" s="8">
-        <v>8.06</v>
-      </c>
-      <c r="I22" s="11">
-        <f>-H22+$B22</f>
-        <v>-0.100000000000001</v>
-      </c>
-      <c r="J22" s="12" t="str">
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="F22" s="5">
+        <f>G22-0.2</f>
+        <v>8.1</v>
+      </c>
+      <c r="G22" s="5">
+        <f>H22+0.1</f>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="H22" s="6">
+        <f>I22+0.2</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8</v>
+      </c>
+      <c r="J22" s="9">
+        <f>-I22+$B22</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="K22" s="10" t="str">
         <f>VLOOKUP(A22,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:10">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5">
         <f>C23</f>
-        <v>7.92</v>
-      </c>
-      <c r="C23" s="6">
-        <f>D23</f>
-        <v>7.92</v>
-      </c>
-      <c r="D23" s="6">
+        <v>5.9899999999999993</v>
+      </c>
+      <c r="C23" s="5">
+        <f>D23-0.2</f>
+        <v>5.9899999999999993</v>
+      </c>
+      <c r="D23" s="5">
         <f>E23</f>
-        <v>7.92</v>
-      </c>
-      <c r="E23" s="6">
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="E23" s="5">
         <f>F23</f>
-        <v>7.92</v>
-      </c>
-      <c r="F23" s="6">
-        <f>G23-0.2</f>
-        <v>7.92</v>
-      </c>
-      <c r="G23" s="9">
-        <f>H23</f>
-        <v>8.12</v>
-      </c>
-      <c r="H23" s="8">
-        <v>8.12</v>
-      </c>
-      <c r="I23" s="11">
-        <f>-H23+$C23</f>
-        <v>-0.2</v>
-      </c>
-      <c r="J23" s="12" t="e">
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="F23" s="5">
+        <f>G23</f>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="G23" s="5">
+        <f>H23+0.1</f>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="H23" s="6">
+        <f>I23-0.2</f>
+        <v>6.09</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6.29</v>
+      </c>
+      <c r="J23" s="9">
+        <f>-I23+$B23</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="K23" s="10" t="str">
         <f>VLOOKUP(A23,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
-        <f>C24</f>
-        <v>6.68</v>
-      </c>
-      <c r="C24" s="6">
-        <f>D24</f>
-        <v>6.68</v>
-      </c>
-      <c r="D24" s="6">
-        <f>E24+0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="E24" s="6">
-        <f>F24</f>
-        <v>6.48</v>
-      </c>
-      <c r="F24" s="6">
-        <f>G24-0.2</f>
-        <v>6.48</v>
-      </c>
-      <c r="G24" s="7">
-        <f>H24-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="H24" s="8">
-        <v>6.88</v>
-      </c>
-      <c r="I24" s="11">
-        <f>-H24+$C24</f>
-        <v>-0.2</v>
-      </c>
-      <c r="J24" s="12" t="e">
-        <f>VLOOKUP(A24,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5">
-        <f>C25-0.2</f>
-        <v>6.58</v>
-      </c>
-      <c r="C25" s="6">
-        <f>D25</f>
-        <v>6.78</v>
-      </c>
-      <c r="D25" s="6">
-        <f>E25-0.2+0.1</f>
-        <v>6.78</v>
-      </c>
-      <c r="E25" s="6">
-        <f>F25+0.2</f>
-        <v>6.88</v>
-      </c>
-      <c r="F25" s="6">
-        <f>G25-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="G25" s="7">
-        <f>H25</f>
-        <v>6.88</v>
-      </c>
-      <c r="H25" s="8">
-        <v>6.88</v>
-      </c>
-      <c r="I25" s="11">
-        <f>-H25+$B25</f>
-        <v>-0.300000000000001</v>
-      </c>
-      <c r="J25" s="12" t="str">
-        <f>VLOOKUP(A25,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5">
-        <f>C26-0.2</f>
-        <v>5.99</v>
-      </c>
-      <c r="C26" s="6">
-        <f>D26</f>
-        <v>6.19</v>
-      </c>
-      <c r="D26" s="6">
-        <f>E26</f>
-        <v>6.19</v>
-      </c>
-      <c r="E26" s="6">
-        <f>F26</f>
-        <v>6.19</v>
-      </c>
-      <c r="F26" s="6">
-        <f>G26+0.1</f>
-        <v>6.19</v>
-      </c>
-      <c r="G26" s="7">
-        <f>H26-0.2</f>
-        <v>6.09</v>
-      </c>
-      <c r="H26" s="8">
-        <v>6.29</v>
-      </c>
-      <c r="I26" s="11">
-        <f>-H26+$B26</f>
-        <v>-0.300000000000001</v>
-      </c>
-      <c r="J26" s="12" t="str">
-        <f>VLOOKUP(A26,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5">
-        <f>C27-0.2</f>
-        <v>6.36</v>
-      </c>
-      <c r="C27" s="6">
-        <f>D27</f>
-        <v>6.56</v>
-      </c>
-      <c r="D27" s="6">
-        <f>E27+0.2</f>
-        <v>6.56</v>
-      </c>
-      <c r="E27" s="6">
-        <f>F27-0.2</f>
-        <v>6.36</v>
-      </c>
-      <c r="F27" s="6">
-        <f>G27</f>
-        <v>6.56</v>
-      </c>
-      <c r="G27" s="7">
-        <f>H27-0.2</f>
-        <v>6.56</v>
-      </c>
-      <c r="H27" s="8">
-        <v>6.76</v>
-      </c>
-      <c r="I27" s="11">
-        <f>-H27+$B27</f>
-        <v>-0.4</v>
-      </c>
-      <c r="J27" s="12" t="str">
-        <f>VLOOKUP(A27,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4839,18 +4072,18 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:J27">
-    <sortState ref="A2:J27">
-      <sortCondition ref="I1" descending="1"/>
+  <autoFilter ref="A1:K23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+      <sortCondition descending="1" ref="J1:J23"/>
     </sortState>
-    <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4862,250 +4095,542 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="str">
         <f>UPPER(B1)</f>
         <v>GUI</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C15" si="0">UPPER(B2)</f>
         <v>ARI</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>JIMMY</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>PATRESI</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>KESSLER</v>
+        <v>MANTOVA</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>CLEVISSON</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>BUGALSKI</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>NAYAN</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>PHILLIPE</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>GIL</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>PIRAMBA</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>GUSTAVO</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>JEAN</v>
+        <v>RENATINHO</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>RAFAEL</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>LUIS</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214F284-A325-45E9-9B82-ABE22D817472}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7.94</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="L2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="M2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="N2" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="O2" s="6">
+        <v>7.94</v>
+      </c>
+      <c r="P2" s="7">
+        <v>7.94</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7.82</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="L3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="O3" s="6">
+        <v>7.82</v>
+      </c>
+      <c r="P3" s="7">
+        <v>7.82</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.71</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.71</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="P4" s="7">
+        <v>5.71</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11">
+        <v>94</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="P5" s="7">
+        <v>5.29</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/futeletrica.xlsx
+++ b/futeletrica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevizan\Projetos\futeletrica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4316C-F90C-4C82-8B74-1226912102C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAA8A9-7E1F-453E-B27E-A9EAE6B22731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Craques" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Craques'!$A$1:$F$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upgrade!$A$1:$L$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Nome</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Variação SR</t>
   </si>
   <si>
-    <t>Gui</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Phillipe</t>
   </si>
   <si>
-    <t>Gil</t>
-  </si>
-  <si>
     <t>Gustavo</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Titi</t>
+  </si>
+  <si>
+    <t>Kessler</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -606,8 +608,8 @@
         <v>87</v>
       </c>
       <c r="C2" s="12">
-        <f>VLOOKUP(A2,Upgrade!A:H,2,FALSE)</f>
-        <v>8.629999999999999</v>
+        <f>VLOOKUP(A2,Upgrade!A:I,2,FALSE)</f>
+        <v>8.8299999999999983</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
@@ -622,17 +624,17 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12">
-        <f>VLOOKUP(A3,Upgrade!A:H,2,FALSE)</f>
-        <v>8.2799999999999994</v>
+        <f>VLOOKUP(A3,Upgrade!A:I,2,FALSE)</f>
+        <v>8.2499999999999982</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>8</v>
@@ -644,17 +646,17 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12">
-        <f>VLOOKUP(A4,Upgrade!A:H,2,FALSE)</f>
-        <v>8.0499999999999989</v>
+        <f>VLOOKUP(A4,Upgrade!A:I,2,FALSE)</f>
+        <v>8.17</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>8</v>
@@ -666,17 +668,17 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" s="11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12">
-        <f>VLOOKUP(A5,Upgrade!A:H,2,FALSE)</f>
-        <v>7.97</v>
+        <f>VLOOKUP(A5,Upgrade!A:I,2,FALSE)</f>
+        <v>8.08</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>8</v>
@@ -694,7 +696,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="12">
-        <f>VLOOKUP(A6,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A6,Upgrade!A:I,2,FALSE)</f>
         <v>7.919999999999999</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -716,7 +718,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="12">
-        <f>VLOOKUP(A7,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A7,Upgrade!A:I,2,FALSE)</f>
         <v>7.82</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -738,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="12">
-        <f>VLOOKUP(A8,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A8,Upgrade!A:I,2,FALSE)</f>
         <v>7.76</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -760,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="12">
-        <f>VLOOKUP(A9,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A9,Upgrade!A:I,2,FALSE)</f>
         <v>7.6999999999999993</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -782,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="12">
-        <f>VLOOKUP(A10,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A10,Upgrade!A:I,2,FALSE)</f>
         <v>7.6099999999999994</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -791,9 +793,9 @@
       <c r="E10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="12" t="e">
         <f>VLOOKUP(A10,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -804,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="12">
-        <f>VLOOKUP(A11,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A11,Upgrade!A:I,2,FALSE)</f>
         <v>7.2799999999999994</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -826,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12">
-        <f>VLOOKUP(A12,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A12,Upgrade!A:I,2,FALSE)</f>
         <v>6.7799999999999994</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -842,20 +844,20 @@
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" s="11">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C13" s="12">
-        <f>VLOOKUP(A13,Upgrade!A:H,2,FALSE)</f>
-        <v>6.7299999999999995</v>
+        <f>VLOOKUP(A13,Upgrade!A:I,2,FALSE)</f>
+        <v>6.76</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>VLOOKUP(A13,Escalado!C:D,2,FALSE)</f>
@@ -864,61 +866,61 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C14" s="12">
-        <f>VLOOKUP(A14,Upgrade!A:H,2,FALSE)</f>
-        <v>6.6899999999999995</v>
+        <f>VLOOKUP(A14,Upgrade!A:I,2,FALSE)</f>
+        <v>6.53</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="12" t="str">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12" t="e">
         <f>VLOOKUP(A14,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="11">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C15" s="12">
-        <f>VLOOKUP(A15,Upgrade!A:H,2,FALSE)</f>
-        <v>6.68</v>
+        <f>VLOOKUP(A15,Upgrade!A:I,2,FALSE)</f>
+        <v>6.5299999999999994</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="e">
+      <c r="F15" s="12" t="str">
         <f>VLOOKUP(A15,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C16" s="12">
-        <f>VLOOKUP(A16,Upgrade!A:H,2,FALSE)</f>
-        <v>6.56</v>
+        <f>VLOOKUP(A16,Upgrade!A:I,2,FALSE)</f>
+        <v>6.4899999999999993</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>17</v>
@@ -930,24 +932,24 @@
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C17" s="12">
-        <f>VLOOKUP(A17,Upgrade!A:H,2,FALSE)</f>
-        <v>6.53</v>
+        <f>VLOOKUP(A17,Upgrade!A:I,2,FALSE)</f>
+        <v>6.4799999999999995</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="12" t="e">
+      <c r="F17" s="12" t="str">
         <f>VLOOKUP(A17,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -958,8 +960,8 @@
         <v>5</v>
       </c>
       <c r="C18" s="12">
-        <f>VLOOKUP(A18,Upgrade!A:H,2,FALSE)</f>
-        <v>6.4799999999999995</v>
+        <f>VLOOKUP(A18,Upgrade!A:I,2,FALSE)</f>
+        <v>6.2799999999999994</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
@@ -980,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="12">
-        <f>VLOOKUP(A19,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A19,Upgrade!A:I,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1002,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="12">
-        <f>VLOOKUP(A20,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A20,Upgrade!A:I,2,FALSE)</f>
         <v>5.9899999999999993</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1011,9 +1013,9 @@
       <c r="E20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F20" s="12" t="e">
         <f>VLOOKUP(A20,Escalado!C:D,2,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1024,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="12">
-        <f>VLOOKUP(A21,Upgrade!A:H,2,FALSE)</f>
+        <f>VLOOKUP(A21,Upgrade!A:I,2,FALSE)</f>
         <v>5.96</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1046,8 +1048,8 @@
         <v>2</v>
       </c>
       <c r="C22" s="12">
-        <f>VLOOKUP(A22,Upgrade!A:H,2,FALSE)</f>
-        <v>5.35</v>
+        <f>VLOOKUP(A22,Upgrade!A:I,2,FALSE)</f>
+        <v>5.4499999999999993</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>11</v>
@@ -1055,9 +1057,9 @@
       <c r="E22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="12" t="e">
+      <c r="F22" s="12" t="str">
         <f>VLOOKUP(A22,Escalado!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
@@ -1068,8 +1070,8 @@
         <v>52</v>
       </c>
       <c r="C23" s="12">
-        <f>VLOOKUP(A23,Upgrade!A:H,2,FALSE)</f>
-        <v>3.5599999999999996</v>
+        <f>VLOOKUP(A23,Upgrade!A:I,2,FALSE)</f>
+        <v>3.76</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>33</v>
@@ -2074,246 +2076,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K990"/>
+  <dimension ref="A1:L990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="22" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="23" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <f>C1+7</f>
+        <f t="shared" ref="B1:H1" si="0">C1+7</f>
+        <v>45017</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" si="0"/>
         <v>45010</v>
       </c>
-      <c r="C1" s="3">
-        <f>D1+7</f>
+      <c r="D1" s="3">
+        <f t="shared" si="0"/>
         <v>45003</v>
       </c>
-      <c r="D1" s="3">
-        <f>E1+7</f>
+      <c r="E1" s="3">
+        <f t="shared" si="0"/>
         <v>44996</v>
       </c>
-      <c r="E1" s="3">
-        <f>F1+7</f>
+      <c r="F1" s="3">
+        <f t="shared" si="0"/>
         <v>44989</v>
       </c>
-      <c r="F1" s="3">
-        <f>G1+7</f>
+      <c r="G1" s="3">
+        <f t="shared" si="0"/>
         <v>44982</v>
       </c>
-      <c r="G1" s="3">
-        <f>H1+7</f>
+      <c r="H1" s="3">
+        <f t="shared" si="0"/>
         <v>44975</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>44968</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <f>C2-0.2</f>
+        <f>C2+0.2</f>
+        <v>8.2499999999999982</v>
+      </c>
+      <c r="C2" s="5">
+        <f>D2-0.2</f>
         <v>8.0499999999999989</v>
       </c>
-      <c r="C2" s="5">
-        <f>D2</f>
+      <c r="D2" s="5">
+        <f>E2</f>
         <v>8.2499999999999982</v>
       </c>
-      <c r="D2" s="5">
-        <f>E2+0.2</f>
+      <c r="E2" s="5">
+        <f>F2+0.2</f>
         <v>8.2499999999999982</v>
       </c>
-      <c r="E2" s="5">
-        <f>F2</f>
+      <c r="F2" s="5">
+        <f>G2</f>
         <v>8.0499999999999989</v>
       </c>
-      <c r="F2" s="5">
-        <f>G2+0.2+0.1</f>
+      <c r="G2" s="5">
+        <f>H2+0.2+0.1</f>
         <v>8.0499999999999989</v>
       </c>
-      <c r="G2" s="5">
-        <f>H2+0.1</f>
+      <c r="H2" s="5">
+        <f>I2+0.1</f>
         <v>7.7499999999999991</v>
       </c>
-      <c r="H2" s="6">
-        <f>I2+0.2+0.1</f>
+      <c r="I2" s="6">
+        <f>J2+0.2+0.1</f>
         <v>7.6499999999999995</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>7.35</v>
       </c>
-      <c r="J2" s="9">
-        <f>-I2+$B2</f>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="K2" s="10" t="str">
+      <c r="K2" s="9">
+        <f>-J2+$B2</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="L2" s="10" t="str">
         <f>VLOOKUP(A2,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5">
         <f>C3+0.2</f>
+        <v>8.17</v>
+      </c>
+      <c r="C3" s="5">
+        <f>D3+0.2</f>
         <v>7.97</v>
       </c>
-      <c r="C3" s="5">
-        <f>D3-0.2</f>
+      <c r="D3" s="5">
+        <f>E3-0.2</f>
         <v>7.77</v>
-      </c>
-      <c r="D3" s="5">
-        <f>E3+0.2</f>
-        <v>7.97</v>
       </c>
       <c r="E3" s="5">
         <f>F3+0.2</f>
-        <v>7.77</v>
+        <v>7.97</v>
       </c>
       <c r="F3" s="5">
         <f>G3+0.2</f>
+        <v>7.77</v>
+      </c>
+      <c r="G3" s="5">
+        <f>H3+0.2</f>
         <v>7.5699999999999994</v>
       </c>
-      <c r="G3" s="5">
-        <f>H3+0.1</f>
+      <c r="H3" s="5">
+        <f>I3+0.1</f>
         <v>7.3699999999999992</v>
       </c>
-      <c r="H3" s="6">
-        <f>I3-0.2</f>
+      <c r="I3" s="6">
+        <f>J3-0.2</f>
         <v>7.27</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>7.47</v>
       </c>
-      <c r="J3" s="9">
-        <f>-I3+$B3</f>
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="10" t="str">
+      <c r="K3" s="9">
+        <f>-J3+$B3</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="L3" s="10" t="str">
         <f>VLOOKUP(A3,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f>C4</f>
-        <v>8.2799999999999994</v>
+        <f>C4+0.2</f>
+        <v>8.8299999999999983</v>
       </c>
       <c r="C4" s="5">
         <f>D4+0.2</f>
-        <v>8.2799999999999994</v>
+        <v>8.629999999999999</v>
       </c>
       <c r="D4" s="5">
-        <f>E4-0.2</f>
-        <v>8.08</v>
+        <f>E4</f>
+        <v>8.43</v>
       </c>
       <c r="E4" s="5">
-        <f>F4+0.2</f>
-        <v>8.2799999999999994</v>
+        <f>F4+0.2+0.1</f>
+        <v>8.43</v>
       </c>
       <c r="F4" s="5">
-        <f>G4+0.2</f>
-        <v>8.08</v>
+        <f>G4</f>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G4" s="5">
-        <f>H4</f>
-        <v>7.88</v>
-      </c>
-      <c r="H4" s="6">
+        <f>H4-0.2</f>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H4" s="5">
         <f>I4</f>
-        <v>7.88</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7.88</v>
-      </c>
-      <c r="J4" s="9">
-        <f>-I4+$B4</f>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="K4" s="10" t="str">
+        <v>8.33</v>
+      </c>
+      <c r="I4" s="6">
+        <f>J4-0.2</f>
+        <v>8.33</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="K4" s="9">
+        <f>-J4+$B4</f>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="L4" s="10" t="str">
         <f>VLOOKUP(A4,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
-        <f>C5+0.2+0.1</f>
-        <v>6.4799999999999995</v>
+        <f>C5-0.2</f>
+        <v>8.08</v>
       </c>
       <c r="C5" s="5">
-        <f>D5-0.2</f>
-        <v>6.18</v>
+        <f>D5</f>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D5" s="5">
-        <f>E5</f>
-        <v>6.38</v>
+        <f>E5+0.2</f>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E5" s="5">
-        <f>F5+0.2</f>
-        <v>6.38</v>
+        <f>F5-0.2</f>
+        <v>8.08</v>
       </c>
       <c r="F5" s="5">
         <f>G5+0.2</f>
-        <v>6.18</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="G5" s="5">
-        <f>H5-0.2</f>
-        <v>5.9799999999999995</v>
-      </c>
-      <c r="H5" s="6">
+        <f>H5+0.2</f>
+        <v>8.08</v>
+      </c>
+      <c r="H5" s="5">
         <f>I5</f>
-        <v>6.18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6.18</v>
-      </c>
-      <c r="J5" s="9">
-        <f>-I5+$B5</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="K5" s="10" t="str">
+        <v>7.88</v>
+      </c>
+      <c r="I5" s="6">
+        <f>J5</f>
+        <v>7.88</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7.88</v>
+      </c>
+      <c r="K5" s="9">
+        <f>-J5+$B5</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="L5" s="10" t="str">
         <f>VLOOKUP(A5,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2341,199 +2363,219 @@
         <f>H6</f>
         <v>5.96</v>
       </c>
-      <c r="H6" s="6">
-        <f>I6+0.2</f>
+      <c r="H6" s="5">
+        <f>I6</f>
         <v>5.96</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
+        <f>J6+0.2</f>
+        <v>5.96</v>
+      </c>
+      <c r="J6" s="7">
         <v>5.76</v>
       </c>
-      <c r="J6" s="9">
-        <f>-I6+$B6</f>
+      <c r="K6" s="9">
+        <f>-J6+$B6</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="K6" s="10" t="e">
+      <c r="L6" s="10" t="e">
         <f>VLOOKUP(A6,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
-        <f>C7</f>
-        <v>6.7299999999999995</v>
+        <f>C7-0.2</f>
+        <v>6.2799999999999994</v>
       </c>
       <c r="C7" s="5">
         <f>D7+0.2+0.1</f>
-        <v>6.7299999999999995</v>
+        <v>6.4799999999999995</v>
       </c>
       <c r="D7" s="5">
         <f>E7-0.2</f>
-        <v>6.43</v>
+        <v>6.18</v>
       </c>
       <c r="E7" s="5">
         <f>F7</f>
-        <v>6.63</v>
+        <v>6.38</v>
       </c>
       <c r="F7" s="5">
-        <f>G7</f>
-        <v>6.63</v>
+        <f>G7+0.2</f>
+        <v>6.38</v>
       </c>
       <c r="G7" s="5">
-        <f>H7+0.1</f>
-        <v>6.63</v>
-      </c>
-      <c r="H7" s="6">
-        <f>I7</f>
-        <v>6.53</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6.53</v>
-      </c>
-      <c r="J7" s="9">
-        <f>-I7+$B7</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="K7" s="10" t="str">
+        <f>H7+0.2</f>
+        <v>6.18</v>
+      </c>
+      <c r="H7" s="5">
+        <f>I7-0.2</f>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="I7" s="6">
+        <f>J7</f>
+        <v>6.18</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="K7" s="9">
+        <f>-J7+$B7</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="L7" s="10" t="str">
         <f>VLOOKUP(A7,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5">
-        <f>C8-0.2</f>
+        <f>C8</f>
         <v>7.2799999999999994</v>
       </c>
       <c r="C8" s="5">
-        <f>D8</f>
+        <f>D8-0.2</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="D8" s="5">
+        <f>E8</f>
         <v>7.4799999999999995</v>
       </c>
-      <c r="D8" s="5">
-        <f>E8+0.2</f>
+      <c r="E8" s="5">
+        <f>F8+0.2</f>
         <v>7.4799999999999995</v>
-      </c>
-      <c r="E8" s="5">
-        <f>F8</f>
-        <v>7.2799999999999994</v>
       </c>
       <c r="F8" s="5">
         <f>G8</f>
         <v>7.2799999999999994</v>
       </c>
       <c r="G8" s="5">
-        <f>H8+0.1</f>
+        <f>H8</f>
         <v>7.2799999999999994</v>
       </c>
-      <c r="H8" s="6">
-        <f>I8</f>
+      <c r="H8" s="5">
+        <f>I8+0.1</f>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="I8" s="6">
+        <f>J8</f>
         <v>7.18</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>7.18</v>
       </c>
-      <c r="J8" s="9">
-        <f>-I8+$B8</f>
+      <c r="K8" s="9">
+        <f>-J8+$B8</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="L8" s="10" t="str">
         <f>VLOOKUP(A8,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
-        <f>C9</f>
-        <v>6.6899999999999995</v>
+        <f>C9+0.1</f>
+        <v>5.4499999999999993</v>
       </c>
       <c r="C9" s="5">
-        <f>D9+0.2</f>
-        <v>6.6899999999999995</v>
+        <f>D9</f>
+        <v>5.35</v>
       </c>
       <c r="D9" s="5">
-        <f>E9-0.2</f>
-        <v>6.4899999999999993</v>
+        <f>E9+0.2</f>
+        <v>5.35</v>
       </c>
       <c r="E9" s="5">
-        <f>F9</f>
-        <v>6.6899999999999995</v>
+        <f>F9-0.2</f>
+        <v>5.1499999999999995</v>
       </c>
       <c r="F9" s="5">
         <f>G9</f>
-        <v>6.6899999999999995</v>
+        <v>5.35</v>
       </c>
       <c r="G9" s="5">
-        <f>H9+0.1</f>
-        <v>6.6899999999999995</v>
-      </c>
-      <c r="H9" s="6">
+        <f>H9</f>
+        <v>5.35</v>
+      </c>
+      <c r="H9" s="5">
         <f>I9</f>
-        <v>6.59</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6.59</v>
-      </c>
-      <c r="J9" s="9">
-        <f>-I9+$B9</f>
+        <v>5.35</v>
+      </c>
+      <c r="I9" s="6">
+        <f>J9</f>
+        <v>5.35</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="K9" s="9">
+        <f>-J9+$B9</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="L9" s="10" t="str">
         <f>VLOOKUP(A9,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
-        <f>C10+0.2</f>
-        <v>8.629999999999999</v>
+        <f>C10-0.2</f>
+        <v>6.5299999999999994</v>
       </c>
       <c r="C10" s="5">
         <f>D10</f>
-        <v>8.43</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="D10" s="5">
         <f>E10+0.2+0.1</f>
-        <v>8.43</v>
+        <v>6.7299999999999995</v>
       </c>
       <c r="E10" s="5">
-        <f>F10</f>
-        <v>8.1300000000000008</v>
+        <f>F10-0.2</f>
+        <v>6.43</v>
       </c>
       <c r="F10" s="5">
-        <f>G10-0.2</f>
-        <v>8.1300000000000008</v>
+        <f>G10</f>
+        <v>6.63</v>
       </c>
       <c r="G10" s="5">
         <f>H10</f>
-        <v>8.33</v>
-      </c>
-      <c r="H10" s="6">
-        <f>I10-0.2</f>
-        <v>8.33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="J10" s="9">
-        <f>-I10+$B10</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="K10" s="10" t="str">
+        <v>6.63</v>
+      </c>
+      <c r="H10" s="5">
+        <f>I10+0.1</f>
+        <v>6.63</v>
+      </c>
+      <c r="I10" s="6">
+        <f>J10</f>
+        <v>6.53</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="K10" s="9">
+        <f>-J10+$B10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="str">
         <f>VLOOKUP(A10,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2561,23 +2603,27 @@
         <f>H11</f>
         <v>7.82</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f>I11</f>
         <v>7.82</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
+        <f>J11</f>
         <v>7.82</v>
       </c>
-      <c r="J11" s="9">
-        <f>-I11+$B11</f>
+      <c r="J11" s="7">
+        <v>7.82</v>
+      </c>
+      <c r="K11" s="9">
+        <f>-J11+$B11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="10" t="e">
+      <c r="L11" s="10" t="e">
         <f>VLOOKUP(A11,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,26 +2648,30 @@
         <v>6.53</v>
       </c>
       <c r="G12" s="5">
-        <f>H12-0.2</f>
+        <f>H12</f>
         <v>6.53</v>
       </c>
-      <c r="H12" s="6">
-        <f>I12+0.2</f>
+      <c r="H12" s="5">
+        <f>I12-0.2</f>
+        <v>6.53</v>
+      </c>
+      <c r="I12" s="6">
+        <f>J12+0.2</f>
         <v>6.73</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>6.53</v>
       </c>
-      <c r="J12" s="9">
-        <f>-I12+$B12</f>
+      <c r="K12" s="9">
+        <f>-J12+$B12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="10" t="e">
+      <c r="L12" s="10" t="e">
         <f>VLOOKUP(A12,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2649,243 +2699,267 @@
         <f>H13</f>
         <v>6</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f>I13</f>
         <v>6</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
+        <f>J13</f>
         <v>6</v>
       </c>
-      <c r="J13" s="9">
-        <f>-I13+$B13</f>
+      <c r="J13" s="7">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9">
+        <f>-J13+$B13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="10" t="e">
+      <c r="L13" s="10" t="e">
         <f>VLOOKUP(A13,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5">
-        <f>C14</f>
-        <v>5.35</v>
+        <f>C14+0.2</f>
+        <v>3.76</v>
       </c>
       <c r="C14" s="5">
-        <f>D14+0.2</f>
-        <v>5.35</v>
+        <f>D14-0.2</f>
+        <v>3.5599999999999996</v>
       </c>
       <c r="D14" s="5">
-        <f>E14-0.2</f>
-        <v>5.1499999999999995</v>
+        <f>E14</f>
+        <v>3.76</v>
       </c>
       <c r="E14" s="5">
-        <f>F14</f>
-        <v>5.35</v>
+        <f>F14+0.2</f>
+        <v>3.76</v>
       </c>
       <c r="F14" s="5">
-        <f>G14</f>
-        <v>5.35</v>
+        <f>G14-0.2</f>
+        <v>3.5599999999999996</v>
       </c>
       <c r="G14" s="5">
-        <f>H14</f>
-        <v>5.35</v>
-      </c>
-      <c r="H14" s="6">
-        <f>I14</f>
-        <v>5.35</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.35</v>
-      </c>
-      <c r="J14" s="9">
-        <f>-I14+$B14</f>
+        <f>H14-0.2</f>
+        <v>3.76</v>
+      </c>
+      <c r="H14" s="5">
+        <f>I14+0.1+0.1</f>
+        <v>3.96</v>
+      </c>
+      <c r="I14" s="6">
+        <f>J14</f>
+        <v>3.76</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3.76</v>
+      </c>
+      <c r="K14" s="9">
+        <f>-J14+$B14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="10" t="e">
+      <c r="L14" s="10" t="str">
         <f>VLOOKUP(A14,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
-        <f>C15</f>
-        <v>7.6099999999999994</v>
+        <f>C15+0.2</f>
+        <v>6.76</v>
       </c>
       <c r="C15" s="5">
-        <f>D15</f>
-        <v>7.6099999999999994</v>
+        <f>D15+0.2</f>
+        <v>6.56</v>
       </c>
       <c r="D15" s="5">
-        <f>E15</f>
-        <v>7.6099999999999994</v>
+        <f>E15-0.2</f>
+        <v>6.3599999999999994</v>
       </c>
       <c r="E15" s="5">
-        <f>F15-0.2</f>
-        <v>7.6099999999999994</v>
+        <f>F15</f>
+        <v>6.56</v>
       </c>
       <c r="F15" s="5">
-        <f>G15</f>
-        <v>7.81</v>
+        <f>G15+0.2</f>
+        <v>6.56</v>
       </c>
       <c r="G15" s="5">
-        <f>H15+0.1</f>
-        <v>7.81</v>
-      </c>
-      <c r="H15" s="6">
+        <f>H15-0.2</f>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="H15" s="5">
         <f>I15</f>
-        <v>7.71</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7.71</v>
-      </c>
-      <c r="J15" s="9">
-        <f>-I15+$B15</f>
-        <v>-0.10000000000000053</v>
-      </c>
-      <c r="K15" s="10" t="str">
+        <v>6.56</v>
+      </c>
+      <c r="I15" s="6">
+        <f>J15-0.2</f>
+        <v>6.56</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6.76</v>
+      </c>
+      <c r="K15" s="9">
+        <f>-J15+$B15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f>VLOOKUP(A15,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5">
-        <f>C16+0.2</f>
-        <v>6.7799999999999994</v>
+        <f>C16-0.2</f>
+        <v>6.4899999999999993</v>
       </c>
       <c r="C16" s="5">
-        <f>D16-0.2</f>
-        <v>6.5799999999999992</v>
+        <f>D16</f>
+        <v>6.6899999999999995</v>
       </c>
       <c r="D16" s="5">
-        <f>E16</f>
-        <v>6.7799999999999994</v>
+        <f>E16+0.2</f>
+        <v>6.6899999999999995</v>
       </c>
       <c r="E16" s="5">
-        <f>F16-0.2+0.1</f>
-        <v>6.7799999999999994</v>
+        <f>F16-0.2</f>
+        <v>6.4899999999999993</v>
       </c>
       <c r="F16" s="5">
-        <f>G16+0.2</f>
-        <v>6.88</v>
+        <f>G16</f>
+        <v>6.6899999999999995</v>
       </c>
       <c r="G16" s="5">
-        <f>H16-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="H16" s="6">
-        <f>I16</f>
-        <v>6.88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6.88</v>
-      </c>
-      <c r="J16" s="9">
-        <f>-I16+$B16</f>
+        <f>H16</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="H16" s="5">
+        <f>I16+0.1</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="I16" s="6">
+        <f>J16</f>
+        <v>6.59</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="K16" s="9">
+        <f>-J16+$B16</f>
         <v>-0.10000000000000053</v>
       </c>
-      <c r="K16" s="10" t="str">
+      <c r="L16" s="10" t="str">
         <f>VLOOKUP(A16,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
-        <f>C17-0.2</f>
-        <v>3.5599999999999996</v>
+        <f>C17</f>
+        <v>7.6099999999999994</v>
       </c>
       <c r="C17" s="5">
         <f>D17</f>
-        <v>3.76</v>
+        <v>7.6099999999999994</v>
       </c>
       <c r="D17" s="5">
-        <f>E17+0.2</f>
-        <v>3.76</v>
+        <f>E17</f>
+        <v>7.6099999999999994</v>
       </c>
       <c r="E17" s="5">
-        <f>F17-0.2</f>
-        <v>3.5599999999999996</v>
+        <f>F17</f>
+        <v>7.6099999999999994</v>
       </c>
       <c r="F17" s="5">
         <f>G17-0.2</f>
-        <v>3.76</v>
+        <v>7.6099999999999994</v>
       </c>
       <c r="G17" s="5">
-        <f>H17+0.1+0.1</f>
-        <v>3.96</v>
-      </c>
-      <c r="H17" s="6">
-        <f>I17</f>
-        <v>3.76</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3.76</v>
-      </c>
-      <c r="J17" s="9">
-        <f>-I17+$B17</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="K17" s="10" t="str">
+        <f>H17</f>
+        <v>7.81</v>
+      </c>
+      <c r="H17" s="5">
+        <f>I17+0.1</f>
+        <v>7.81</v>
+      </c>
+      <c r="I17" s="6">
+        <f>J17</f>
+        <v>7.71</v>
+      </c>
+      <c r="J17" s="7">
+        <v>7.71</v>
+      </c>
+      <c r="K17" s="9">
+        <f>-J17+$B17</f>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="L17" s="10" t="e">
         <f>VLOOKUP(A17,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5">
-        <f>C18+0.2</f>
-        <v>6.56</v>
+        <f>C18</f>
+        <v>6.7799999999999994</v>
       </c>
       <c r="C18" s="5">
-        <f>D18-0.2</f>
-        <v>6.3599999999999994</v>
+        <f>D18+0.2</f>
+        <v>6.7799999999999994</v>
       </c>
       <c r="D18" s="5">
-        <f>E18</f>
-        <v>6.56</v>
+        <f>E18-0.2</f>
+        <v>6.5799999999999992</v>
       </c>
       <c r="E18" s="5">
-        <f>F18+0.2</f>
-        <v>6.56</v>
+        <f>F18</f>
+        <v>6.7799999999999994</v>
       </c>
       <c r="F18" s="5">
-        <f>G18-0.2</f>
-        <v>6.3599999999999994</v>
+        <f>G18-0.2+0.1</f>
+        <v>6.7799999999999994</v>
       </c>
       <c r="G18" s="5">
-        <f>H18</f>
-        <v>6.56</v>
-      </c>
-      <c r="H18" s="6">
+        <f>H18+0.2</f>
+        <v>6.88</v>
+      </c>
+      <c r="H18" s="5">
         <f>I18-0.2</f>
-        <v>6.56</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6.76</v>
-      </c>
-      <c r="J18" s="9">
-        <f>-I18+$B18</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="K18" s="10" t="str">
+        <v>6.68</v>
+      </c>
+      <c r="I18" s="6">
+        <f>J18</f>
+        <v>6.88</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="K18" s="9">
+        <f>-J18+$B18</f>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="L18" s="10" t="str">
         <f>VLOOKUP(A18,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2910,210 +2984,230 @@
         <v>7.919999999999999</v>
       </c>
       <c r="G19" s="5">
-        <f>H19-0.2</f>
+        <f>H19</f>
         <v>7.919999999999999</v>
       </c>
-      <c r="H19" s="6">
-        <f>I19</f>
+      <c r="H19" s="5">
+        <f>I19-0.2</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="I19" s="6">
+        <f>J19</f>
         <v>8.1199999999999992</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J19" s="9">
-        <f>-I19+$B19</f>
+      <c r="K19" s="9">
+        <f>-J19+$B19</f>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="K19" s="10" t="e">
+      <c r="L19" s="10" t="e">
         <f>VLOOKUP(A19,'Base de Craques'!A:F,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5">
         <f>C20</f>
-        <v>6.68</v>
+        <v>7.76</v>
       </c>
       <c r="C20" s="5">
-        <f>D20</f>
-        <v>6.68</v>
+        <f>D20-0.2</f>
+        <v>7.76</v>
       </c>
       <c r="D20" s="5">
-        <f>E20</f>
-        <v>6.68</v>
+        <f>E20+0.2</f>
+        <v>7.96</v>
       </c>
       <c r="E20" s="5">
-        <f>F20+0.2</f>
-        <v>6.68</v>
+        <f>F20-0.2</f>
+        <v>7.76</v>
       </c>
       <c r="F20" s="5">
-        <f>G20</f>
-        <v>6.4799999999999995</v>
+        <f>G20-0.2</f>
+        <v>7.96</v>
       </c>
       <c r="G20" s="5">
         <f>H20-0.2</f>
-        <v>6.4799999999999995</v>
-      </c>
-      <c r="H20" s="6">
-        <f>I20-0.2</f>
-        <v>6.68</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6.88</v>
-      </c>
-      <c r="J20" s="9">
-        <f>-I20+$B20</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="K20" s="10" t="e">
+        <v>8.16</v>
+      </c>
+      <c r="H20" s="5">
+        <f>I20+0.1</f>
+        <v>8.36</v>
+      </c>
+      <c r="I20" s="6">
+        <f>J20+0.2</f>
+        <v>8.26</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.06</v>
+      </c>
+      <c r="K20" s="9">
+        <f>-J20+$B20</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="L20" s="10" t="str">
         <f>VLOOKUP(A20,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
-        <f>C21-0.2</f>
-        <v>7.76</v>
+        <f>C21</f>
+        <v>7.6999999999999993</v>
       </c>
       <c r="C21" s="5">
-        <f>D21+0.2</f>
-        <v>7.96</v>
+        <f>D21-0.2</f>
+        <v>7.6999999999999993</v>
       </c>
       <c r="D21" s="5">
-        <f>E21-0.2</f>
-        <v>7.76</v>
+        <f>E21</f>
+        <v>7.8999999999999995</v>
       </c>
       <c r="E21" s="5">
-        <f>F21-0.2</f>
-        <v>7.96</v>
+        <f>F21</f>
+        <v>7.8999999999999995</v>
       </c>
       <c r="F21" s="5">
         <f>G21-0.2</f>
-        <v>8.16</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="G21" s="5">
-        <f>H21+0.1</f>
-        <v>8.36</v>
-      </c>
-      <c r="H21" s="6">
-        <f>I21+0.2</f>
-        <v>8.26</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8.06</v>
-      </c>
-      <c r="J21" s="9">
-        <f>-I21+$B21</f>
+        <f>H21-0.2</f>
+        <v>8.1</v>
+      </c>
+      <c r="H21" s="5">
+        <f>I21+0.1</f>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="I21" s="6">
+        <f>J21+0.2</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8</v>
+      </c>
+      <c r="K21" s="9">
+        <f>-J21+$B21</f>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="K21" s="10" t="str">
+      <c r="L21" s="10" t="str">
         <f>VLOOKUP(A21,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
-        <f>C22-0.2</f>
-        <v>7.6999999999999993</v>
+        <f>C22</f>
+        <v>5.9899999999999993</v>
       </c>
       <c r="C22" s="5">
         <f>D22</f>
-        <v>7.8999999999999995</v>
+        <v>5.9899999999999993</v>
       </c>
       <c r="D22" s="5">
-        <f>E22</f>
-        <v>7.8999999999999995</v>
+        <f>E22-0.2</f>
+        <v>5.9899999999999993</v>
       </c>
       <c r="E22" s="5">
-        <f>F22-0.2</f>
-        <v>7.8999999999999995</v>
+        <f>F22</f>
+        <v>6.1899999999999995</v>
       </c>
       <c r="F22" s="5">
-        <f>G22-0.2</f>
-        <v>8.1</v>
+        <f>G22</f>
+        <v>6.1899999999999995</v>
       </c>
       <c r="G22" s="5">
-        <f>H22+0.1</f>
-        <v>8.2999999999999989</v>
-      </c>
-      <c r="H22" s="6">
-        <f>I22+0.2</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8</v>
-      </c>
-      <c r="J22" s="9">
-        <f>-I22+$B22</f>
+        <f>H22</f>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="H22" s="5">
+        <f>I22+0.1</f>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="I22" s="6">
+        <f>J22-0.2</f>
+        <v>6.09</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6.29</v>
+      </c>
+      <c r="K22" s="9">
+        <f>-J22+$B22</f>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="K22" s="10" t="str">
+      <c r="L22" s="10" t="e">
         <f>VLOOKUP(A22,'Base de Craques'!A:F,6,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5">
-        <f>C23</f>
-        <v>5.9899999999999993</v>
+        <f>C23-0.2</f>
+        <v>6.4799999999999995</v>
       </c>
       <c r="C23" s="5">
-        <f>D23-0.2</f>
-        <v>5.9899999999999993</v>
+        <f>D23</f>
+        <v>6.68</v>
       </c>
       <c r="D23" s="5">
         <f>E23</f>
-        <v>6.1899999999999995</v>
+        <v>6.68</v>
       </c>
       <c r="E23" s="5">
         <f>F23</f>
-        <v>6.1899999999999995</v>
+        <v>6.68</v>
       </c>
       <c r="F23" s="5">
-        <f>G23</f>
-        <v>6.1899999999999995</v>
+        <f>G23+0.2</f>
+        <v>6.68</v>
       </c>
       <c r="G23" s="5">
-        <f>H23+0.1</f>
-        <v>6.1899999999999995</v>
-      </c>
-      <c r="H23" s="6">
+        <f>H23</f>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="H23" s="5">
         <f>I23-0.2</f>
-        <v>6.09</v>
-      </c>
-      <c r="I23" s="7">
-        <v>6.29</v>
-      </c>
-      <c r="J23" s="9">
-        <f>-I23+$B23</f>
-        <v>-0.30000000000000071</v>
-      </c>
-      <c r="K23" s="10" t="str">
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="I23" s="6">
+        <f>J23-0.2</f>
+        <v>6.68</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="K23" s="9">
+        <f>-J23+$B23</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f>VLOOKUP(A23,'Base de Craques'!A:F,6,FALSE)</f>
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4073,17 +4167,12 @@
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:K23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="X"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
-      <sortCondition descending="1" ref="J1:J23"/>
+  <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L23">
+      <sortCondition descending="1" ref="K1:K23"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4102,240 +4191,330 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="str">
         <f>UPPER(B1)</f>
-        <v>GUI</v>
+        <v>PATRESI</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C15" si="0">UPPER(B2)</f>
         <v>ARI</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>JIMMY</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>PATRESI</v>
+        <v>TITI</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>MANTOVA</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>CLEVISSON</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>BUGALSKI</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>NAYAN</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>PHILLIPE</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>GIL</v>
+        <v>PIRAMBA</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>PIRAMBA</v>
+        <v>KESSLER</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>GUSTAVO</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>RENATINHO</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>RAFAEL</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>LUIS</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
